--- a/Schulen/Schulen.xlsx
+++ b/Schulen/Schulen.xlsx
@@ -6726,7 +6726,7 @@
         <v>20</v>
       </c>
       <c r="M2">
-        <v>13.4056727872119001</v>
+        <v>13.4056727872119161</v>
       </c>
       <c r="N2">
         <v>52.5520143210723987</v>
@@ -6761,10 +6761,10 @@
         <v>27</v>
       </c>
       <c r="M3">
-        <v>13.5318646492790506</v>
+        <v>13.5318646492790666</v>
       </c>
       <c r="N3">
-        <v>52.5114585789978747</v>
+        <v>52.5114585789978676</v>
       </c>
     </row>
     <row r="4">
@@ -6796,10 +6796,10 @@
         <v>32</v>
       </c>
       <c r="M4">
-        <v>13.3805723010355031</v>
+        <v>13.3805723010355191</v>
       </c>
       <c r="N4">
-        <v>52.4910477916155287</v>
+        <v>52.4910477916155145</v>
       </c>
     </row>
     <row r="5">
@@ -6831,7 +6831,7 @@
         <v>38</v>
       </c>
       <c r="M5">
-        <v>13.4510772970079522</v>
+        <v>13.4510772970079717</v>
       </c>
       <c r="N5">
         <v>52.4759286308511577</v>
@@ -6869,7 +6869,7 @@
         <v>23</v>
       </c>
       <c r="M6">
-        <v>13.6197527523739730</v>
+        <v>13.6197527523739890</v>
       </c>
       <c r="N6">
         <v>52.4479136899634923</v>
@@ -6904,10 +6904,10 @@
         <v>51</v>
       </c>
       <c r="M7">
-        <v>13.5155367289295913</v>
+        <v>13.5155367289296091</v>
       </c>
       <c r="N7">
-        <v>52.4714748395220312</v>
+        <v>52.4714748395220170</v>
       </c>
     </row>
     <row r="8">
@@ -6939,10 +6939,10 @@
         <v>57</v>
       </c>
       <c r="M8">
-        <v>13.4423273309535656</v>
+        <v>13.4423273309535816</v>
       </c>
       <c r="N8">
-        <v>52.4454291237375614</v>
+        <v>52.4454291237375543</v>
       </c>
     </row>
     <row r="9">
@@ -6977,10 +6977,10 @@
         <v>23</v>
       </c>
       <c r="M9">
-        <v>13.3738609931747199</v>
+        <v>13.3738609931747359</v>
       </c>
       <c r="N9">
-        <v>52.5494172702819142</v>
+        <v>52.5494172702819071</v>
       </c>
     </row>
     <row r="10">
@@ -7012,10 +7012,10 @@
         <v>62</v>
       </c>
       <c r="M10">
-        <v>13.3734668853465291</v>
+        <v>13.3734668853465450</v>
       </c>
       <c r="N10">
-        <v>52.5491731350427287</v>
+        <v>52.5491731350427074</v>
       </c>
     </row>
     <row r="11">
@@ -7047,10 +7047,10 @@
         <v>67</v>
       </c>
       <c r="M11">
-        <v>13.4263683237783376</v>
+        <v>13.4263683237783553</v>
       </c>
       <c r="N11">
-        <v>52.4847177874423920</v>
+        <v>52.4847177874423849</v>
       </c>
     </row>
     <row r="12">
@@ -7082,7 +7082,7 @@
         <v>70</v>
       </c>
       <c r="M12">
-        <v>13.4391706806066900</v>
+        <v>13.4391706806067077</v>
       </c>
       <c r="N12">
         <v>52.4694382064252665</v>
@@ -7117,10 +7117,10 @@
         <v>76</v>
       </c>
       <c r="M13">
-        <v>13.2272532408269026</v>
+        <v>13.2272532408269186</v>
       </c>
       <c r="N13">
-        <v>52.6188149595308658</v>
+        <v>52.6188149595308516</v>
       </c>
     </row>
     <row r="14">
@@ -7152,10 +7152,10 @@
         <v>79</v>
       </c>
       <c r="M14">
-        <v>13.5155964626955658</v>
+        <v>13.5155964626955818</v>
       </c>
       <c r="N14">
-        <v>52.5079234965720900</v>
+        <v>52.5079234965720829</v>
       </c>
     </row>
     <row r="15">
@@ -7187,10 +7187,10 @@
         <v>83</v>
       </c>
       <c r="M15">
-        <v>13.5671890504359549</v>
+        <v>13.5671890504359709</v>
       </c>
       <c r="N15">
-        <v>52.4451993254464881</v>
+        <v>52.4451993254464810</v>
       </c>
     </row>
     <row r="16">
@@ -7222,7 +7222,7 @@
         <v>87</v>
       </c>
       <c r="M16">
-        <v>13.2836985784378943</v>
+        <v>13.2836985784379102</v>
       </c>
       <c r="N16">
         <v>52.5735698968020273</v>
@@ -7257,10 +7257,10 @@
         <v>90</v>
       </c>
       <c r="M17">
-        <v>13.4347622515678768</v>
+        <v>13.4347622515678946</v>
       </c>
       <c r="N17">
-        <v>52.4480798273397397</v>
+        <v>52.4480798273397326</v>
       </c>
     </row>
     <row r="18">
@@ -7292,10 +7292,10 @@
         <v>94</v>
       </c>
       <c r="M18">
-        <v>13.3629685031553240</v>
+        <v>13.3629685031553400</v>
       </c>
       <c r="N18">
-        <v>52.5031552114160647</v>
+        <v>52.5031552114160576</v>
       </c>
     </row>
     <row r="19">
@@ -7327,10 +7327,10 @@
         <v>99</v>
       </c>
       <c r="M19">
-        <v>13.3524861650665816</v>
+        <v>13.3524861650665976</v>
       </c>
       <c r="N19">
-        <v>52.4373565529091792</v>
+        <v>52.4373565529091721</v>
       </c>
     </row>
     <row r="20">
@@ -7362,10 +7362,10 @@
         <v>104</v>
       </c>
       <c r="M20">
-        <v>13.2935974328898396</v>
+        <v>13.2935974328898556</v>
       </c>
       <c r="N20">
-        <v>52.4769613615237347</v>
+        <v>52.4769613615237205</v>
       </c>
     </row>
     <row r="21">
@@ -7397,10 +7397,10 @@
         <v>107</v>
       </c>
       <c r="M21">
-        <v>13.5886945343447429</v>
+        <v>13.5886945343447589</v>
       </c>
       <c r="N21">
-        <v>52.4440722872670051</v>
+        <v>52.4440722872669980</v>
       </c>
     </row>
     <row r="22">
@@ -7432,10 +7432,10 @@
         <v>110</v>
       </c>
       <c r="M22">
-        <v>13.3887917043389493</v>
+        <v>13.3887917043389653</v>
       </c>
       <c r="N22">
-        <v>52.5654936593562851</v>
+        <v>52.5654936593562780</v>
       </c>
     </row>
     <row r="23">
@@ -7467,10 +7467,10 @@
         <v>114</v>
       </c>
       <c r="M23">
-        <v>13.4347151593710876</v>
+        <v>13.4347151593711036</v>
       </c>
       <c r="N23">
-        <v>52.5140098303699077</v>
+        <v>52.5140098303699006</v>
       </c>
     </row>
     <row r="24">
@@ -7502,10 +7502,10 @@
         <v>118</v>
       </c>
       <c r="M24">
-        <v>13.3419274411998696</v>
+        <v>13.3419274411998856</v>
       </c>
       <c r="N24">
-        <v>52.5505337568640982</v>
+        <v>52.5505337568640840</v>
       </c>
     </row>
     <row r="25">
@@ -7540,7 +7540,7 @@
         <v>23</v>
       </c>
       <c r="M25">
-        <v>13.5485201634469199</v>
+        <v>13.5485201634469359</v>
       </c>
       <c r="N25">
         <v>52.4351611645661251</v>
@@ -7575,7 +7575,7 @@
         <v>127</v>
       </c>
       <c r="M26">
-        <v>13.4014993846597452</v>
+        <v>13.4014993846597630</v>
       </c>
       <c r="N26">
         <v>52.3983329228341574</v>
@@ -7610,7 +7610,7 @@
         <v>131</v>
       </c>
       <c r="M27">
-        <v>13.3560023239201300</v>
+        <v>13.3560023239201460</v>
       </c>
       <c r="N27">
         <v>52.5181128733169800</v>
@@ -7645,10 +7645,10 @@
         <v>135</v>
       </c>
       <c r="M28">
-        <v>13.5245406259260630</v>
+        <v>13.5245406259260808</v>
       </c>
       <c r="N28">
-        <v>52.3999330924000333</v>
+        <v>52.3999330924000191</v>
       </c>
     </row>
     <row r="29">
@@ -7680,10 +7680,10 @@
         <v>139</v>
       </c>
       <c r="M29">
-        <v>13.5229448622843638</v>
+        <v>13.5229448622843798</v>
       </c>
       <c r="N29">
-        <v>52.4513542702045257</v>
+        <v>52.4513542702045115</v>
       </c>
     </row>
     <row r="30">
@@ -7715,10 +7715,10 @@
         <v>143</v>
       </c>
       <c r="M30">
-        <v>13.2802505985188155</v>
+        <v>13.2802505985188333</v>
       </c>
       <c r="N30">
-        <v>52.4590764703402002</v>
+        <v>52.4590764703401859</v>
       </c>
     </row>
     <row r="31">
@@ -7750,10 +7750,10 @@
         <v>147</v>
       </c>
       <c r="M31">
-        <v>13.3072337240131340</v>
+        <v>13.3072337240131500</v>
       </c>
       <c r="N31">
-        <v>52.5148998953925457</v>
+        <v>52.5148998953925314</v>
       </c>
     </row>
     <row r="32">
@@ -7785,10 +7785,10 @@
         <v>150</v>
       </c>
       <c r="M32">
-        <v>13.3999735977835339</v>
+        <v>13.3999735977835499</v>
       </c>
       <c r="N32">
-        <v>52.5685341528600034</v>
+        <v>52.5685341528599892</v>
       </c>
     </row>
     <row r="33">
@@ -7820,7 +7820,7 @@
         <v>154</v>
       </c>
       <c r="M33">
-        <v>13.1910552363387730</v>
+        <v>13.1910552363387890</v>
       </c>
       <c r="N33">
         <v>52.5397365612116829</v>
@@ -7855,7 +7855,7 @@
         <v>158</v>
       </c>
       <c r="M34">
-        <v>13.3798236584254226</v>
+        <v>13.3798236584254386</v>
       </c>
       <c r="N34">
         <v>52.4598923796623708</v>
@@ -7890,10 +7890,10 @@
         <v>162</v>
       </c>
       <c r="M35">
-        <v>13.1567347389434666</v>
+        <v>13.1567347389434826</v>
       </c>
       <c r="N35">
-        <v>52.5308748224719295</v>
+        <v>52.5308748224719224</v>
       </c>
     </row>
     <row r="36">
@@ -7925,10 +7925,10 @@
         <v>166</v>
       </c>
       <c r="M36">
-        <v>13.2911006687391939</v>
+        <v>13.2911006687392099</v>
       </c>
       <c r="N36">
-        <v>52.4408666343636369</v>
+        <v>52.4408666343636298</v>
       </c>
     </row>
     <row r="37">
@@ -7960,10 +7960,10 @@
         <v>169</v>
       </c>
       <c r="M37">
-        <v>13.4057715354838400</v>
+        <v>13.4057715354838560</v>
       </c>
       <c r="N37">
-        <v>52.4932956479180604</v>
+        <v>52.4932956479180532</v>
       </c>
     </row>
     <row r="38">
@@ -7995,10 +7995,10 @@
         <v>173</v>
       </c>
       <c r="M38">
-        <v>13.5493040362159753</v>
+        <v>13.5493040362159931</v>
       </c>
       <c r="N38">
-        <v>52.5691671950769930</v>
+        <v>52.5691671950769788</v>
       </c>
     </row>
     <row r="39">
@@ -8030,10 +8030,10 @@
         <v>178</v>
       </c>
       <c r="M39">
-        <v>13.5895269287566727</v>
+        <v>13.5895269287566887</v>
       </c>
       <c r="N39">
-        <v>52.5469883239902273</v>
+        <v>52.5469883239902202</v>
       </c>
     </row>
     <row r="40">
@@ -8065,7 +8065,7 @@
         <v>181</v>
       </c>
       <c r="M40">
-        <v>13.3422150880377952</v>
+        <v>13.3422150880378112</v>
       </c>
       <c r="N40">
         <v>52.4325648604730361</v>
@@ -8100,10 +8100,10 @@
         <v>185</v>
       </c>
       <c r="M41">
-        <v>13.3010908582323442</v>
+        <v>13.3010908582323601</v>
       </c>
       <c r="N41">
-        <v>52.5814623866334756</v>
+        <v>52.5814623866334614</v>
       </c>
     </row>
     <row r="42">
@@ -8135,10 +8135,10 @@
         <v>188</v>
       </c>
       <c r="M42">
-        <v>13.3339175125602267</v>
+        <v>13.3339175125602427</v>
       </c>
       <c r="N42">
-        <v>52.5266783859941029</v>
+        <v>52.5266783859940887</v>
       </c>
     </row>
     <row r="43">
@@ -8170,7 +8170,7 @@
         <v>192</v>
       </c>
       <c r="M43">
-        <v>13.2327305921942830</v>
+        <v>13.2327305921942990</v>
       </c>
       <c r="N43">
         <v>52.5445088741920046</v>
@@ -8205,10 +8205,10 @@
         <v>195</v>
       </c>
       <c r="M44">
-        <v>13.5120597612227318</v>
+        <v>13.5120597612227460</v>
       </c>
       <c r="N44">
-        <v>52.4956777522653937</v>
+        <v>52.4956777522653866</v>
       </c>
     </row>
     <row r="45">
@@ -8243,7 +8243,7 @@
         <v>23</v>
       </c>
       <c r="M45">
-        <v>13.4305498475701697</v>
+        <v>13.4305498475701857</v>
       </c>
       <c r="N45">
         <v>52.5155909196393438</v>
@@ -8278,10 +8278,10 @@
         <v>202</v>
       </c>
       <c r="M46">
-        <v>13.1933230284205489</v>
+        <v>13.1933230284205649</v>
       </c>
       <c r="N46">
-        <v>52.5254194109550099</v>
+        <v>52.5254194109549957</v>
       </c>
     </row>
     <row r="47">
@@ -8313,7 +8313,7 @@
         <v>206</v>
       </c>
       <c r="M47">
-        <v>13.3568276466114675</v>
+        <v>13.3568276466114835</v>
       </c>
       <c r="N47">
         <v>52.6050238569447686</v>
@@ -8354,10 +8354,10 @@
         <v>23</v>
       </c>
       <c r="M48">
-        <v>13.2698337485614690</v>
+        <v>13.2698337485614868</v>
       </c>
       <c r="N48">
-        <v>52.4542523032990999</v>
+        <v>52.4542523032990928</v>
       </c>
     </row>
     <row r="49">
@@ -8389,10 +8389,10 @@
         <v>216</v>
       </c>
       <c r="M49">
-        <v>13.3219427682222609</v>
+        <v>13.3219427682222769</v>
       </c>
       <c r="N49">
-        <v>52.4805030171578153</v>
+        <v>52.4805030171578011</v>
       </c>
     </row>
     <row r="50">
@@ -8424,10 +8424,10 @@
         <v>219</v>
       </c>
       <c r="M50">
-        <v>13.1980631357351452</v>
+        <v>13.1980631357351612</v>
       </c>
       <c r="N50">
-        <v>52.5485527797003442</v>
+        <v>52.5485527797003300</v>
       </c>
     </row>
     <row r="51">
@@ -8459,7 +8459,7 @@
         <v>222</v>
       </c>
       <c r="M51">
-        <v>13.4322850478104314</v>
+        <v>13.4322850478104474</v>
       </c>
       <c r="N51">
         <v>52.5166038693782724</v>
@@ -8494,7 +8494,7 @@
         <v>225</v>
       </c>
       <c r="M52">
-        <v>13.4077247343633381</v>
+        <v>13.4077247343633541</v>
       </c>
       <c r="N52">
         <v>52.5556154217683869</v>
@@ -8529,10 +8529,10 @@
         <v>228</v>
       </c>
       <c r="M53">
-        <v>13.3050572899949220</v>
+        <v>13.3050572899949380</v>
       </c>
       <c r="N53">
-        <v>52.5879875050902612</v>
+        <v>52.5879875050902541</v>
       </c>
     </row>
     <row r="54">
@@ -8564,7 +8564,7 @@
         <v>232</v>
       </c>
       <c r="M54">
-        <v>13.4525322627082637</v>
+        <v>13.4525322627082815</v>
       </c>
       <c r="N54">
         <v>52.4932137671864822</v>
@@ -8599,10 +8599,10 @@
         <v>236</v>
       </c>
       <c r="M55">
-        <v>13.5007977293428425</v>
+        <v>13.5007977293428585</v>
       </c>
       <c r="N55">
-        <v>52.5373368117681707</v>
+        <v>52.5373368117681778</v>
       </c>
     </row>
     <row r="56">
@@ -8634,7 +8634,7 @@
         <v>239</v>
       </c>
       <c r="M56">
-        <v>13.3457786349182950</v>
+        <v>13.3457786349183110</v>
       </c>
       <c r="N56">
         <v>52.4284700637219174</v>
@@ -8669,10 +8669,10 @@
         <v>242</v>
       </c>
       <c r="M57">
-        <v>13.3578095381044246</v>
+        <v>13.3578095381044424</v>
       </c>
       <c r="N57">
-        <v>52.5413246896092048</v>
+        <v>52.5413246896091977</v>
       </c>
     </row>
     <row r="58">
@@ -8704,7 +8704,7 @@
         <v>246</v>
       </c>
       <c r="M58">
-        <v>13.5620433632504849</v>
+        <v>13.5620433632505009</v>
       </c>
       <c r="N58">
         <v>52.5583713331762752</v>
@@ -8739,7 +8739,7 @@
         <v>249</v>
       </c>
       <c r="M59">
-        <v>13.4024988223222827</v>
+        <v>13.4024988223223005</v>
       </c>
       <c r="N59">
         <v>52.4049157907117973</v>
@@ -8774,7 +8774,7 @@
         <v>252</v>
       </c>
       <c r="M60">
-        <v>13.4489046892474597</v>
+        <v>13.4489046892474757</v>
       </c>
       <c r="N60">
         <v>52.4409584568487261</v>
@@ -8809,10 +8809,10 @@
         <v>256</v>
       </c>
       <c r="M61">
-        <v>13.1740041693791401</v>
+        <v>13.1740041693791579</v>
       </c>
       <c r="N61">
-        <v>52.5465886272658267</v>
+        <v>52.5465886272658196</v>
       </c>
     </row>
     <row r="62">
@@ -8844,7 +8844,7 @@
         <v>259</v>
       </c>
       <c r="M62">
-        <v>13.6291237395380751</v>
+        <v>13.6291237395380911</v>
       </c>
       <c r="N62">
         <v>52.5406703634957282</v>
@@ -8879,10 +8879,10 @@
         <v>262</v>
       </c>
       <c r="M63">
-        <v>13.4051772256811574</v>
+        <v>13.4051772256811716</v>
       </c>
       <c r="N63">
-        <v>52.4949534572932563</v>
+        <v>52.4949534572932421</v>
       </c>
     </row>
     <row r="64">
@@ -8914,10 +8914,10 @@
         <v>265</v>
       </c>
       <c r="M64">
-        <v>13.5166871824535537</v>
+        <v>13.5166871824535697</v>
       </c>
       <c r="N64">
-        <v>52.5081707468944430</v>
+        <v>52.5081707468944359</v>
       </c>
     </row>
     <row r="65">
@@ -8949,10 +8949,10 @@
         <v>269</v>
       </c>
       <c r="M65">
-        <v>13.2990013154892512</v>
+        <v>13.2990013154892672</v>
       </c>
       <c r="N65">
-        <v>52.6155529397501383</v>
+        <v>52.6155529397501311</v>
       </c>
     </row>
     <row r="66">
@@ -8984,7 +8984,7 @@
         <v>272</v>
       </c>
       <c r="M66">
-        <v>13.3322605864338399</v>
+        <v>13.3322605864338559</v>
       </c>
       <c r="N66">
         <v>52.5287798197336784</v>
@@ -9019,10 +9019,10 @@
         <v>275</v>
       </c>
       <c r="M67">
-        <v>13.2931437194377260</v>
+        <v>13.2931437194377420</v>
       </c>
       <c r="N67">
-        <v>52.6230404978804884</v>
+        <v>52.6230404978804955</v>
       </c>
     </row>
     <row r="68">
@@ -9054,10 +9054,10 @@
         <v>279</v>
       </c>
       <c r="M68">
-        <v>13.2700928054748637</v>
+        <v>13.2700928054748797</v>
       </c>
       <c r="N68">
-        <v>52.5457919791586008</v>
+        <v>52.5457919791585866</v>
       </c>
     </row>
     <row r="69">
@@ -9089,10 +9089,10 @@
         <v>282</v>
       </c>
       <c r="M69">
-        <v>13.4216018407447599</v>
+        <v>13.4216018407447759</v>
       </c>
       <c r="N69">
-        <v>52.5508432965901235</v>
+        <v>52.5508432965901164</v>
       </c>
     </row>
     <row r="70">
@@ -9124,7 +9124,7 @@
         <v>285</v>
       </c>
       <c r="M70">
-        <v>13.3828077906621790</v>
+        <v>13.3828077906621932</v>
       </c>
       <c r="N70">
         <v>52.5611473101345297</v>
@@ -9159,10 +9159,10 @@
         <v>288</v>
       </c>
       <c r="M71">
-        <v>13.2870502412531248</v>
+        <v>13.2870502412531426</v>
       </c>
       <c r="N71">
-        <v>52.4783976780323016</v>
+        <v>52.4783976780322874</v>
       </c>
     </row>
     <row r="72">
@@ -9194,10 +9194,10 @@
         <v>291</v>
       </c>
       <c r="M72">
-        <v>13.1746601116986835</v>
+        <v>13.1746601116987012</v>
       </c>
       <c r="N72">
-        <v>52.5253558914717971</v>
+        <v>52.5253558914717900</v>
       </c>
     </row>
     <row r="73">
@@ -9229,10 +9229,10 @@
         <v>295</v>
       </c>
       <c r="M73">
-        <v>13.1990334049635738</v>
+        <v>13.1990334049635898</v>
       </c>
       <c r="N73">
-        <v>52.5674783044160989</v>
+        <v>52.5674783044160847</v>
       </c>
     </row>
     <row r="74">
@@ -9264,10 +9264,10 @@
         <v>299</v>
       </c>
       <c r="M74">
-        <v>13.4084617948331282</v>
+        <v>13.4084617948331459</v>
       </c>
       <c r="N74">
-        <v>52.4438455421907079</v>
+        <v>52.4438455421907008</v>
       </c>
     </row>
     <row r="75">
@@ -9305,7 +9305,7 @@
         <v>23</v>
       </c>
       <c r="M75">
-        <v>13.4730164079824792</v>
+        <v>13.4730164079824934</v>
       </c>
       <c r="N75">
         <v>52.5219119086097805</v>
@@ -9340,7 +9340,7 @@
         <v>305</v>
       </c>
       <c r="M76">
-        <v>13.4004222651127467</v>
+        <v>13.4004222651127645</v>
       </c>
       <c r="N76">
         <v>52.5664663285077864</v>
@@ -9375,10 +9375,10 @@
         <v>308</v>
       </c>
       <c r="M77">
-        <v>13.4057264818658766</v>
+        <v>13.4057264818658926</v>
       </c>
       <c r="N77">
-        <v>52.4911226106668565</v>
+        <v>52.4911226106668423</v>
       </c>
     </row>
     <row r="78">
@@ -9410,10 +9410,10 @@
         <v>311</v>
       </c>
       <c r="M78">
-        <v>13.4041349298039787</v>
+        <v>13.4041349298039947</v>
       </c>
       <c r="N78">
-        <v>52.3939730654113944</v>
+        <v>52.3939730654113873</v>
       </c>
     </row>
     <row r="79">
@@ -9445,10 +9445,10 @@
         <v>314</v>
       </c>
       <c r="M79">
-        <v>13.5891837181536488</v>
+        <v>13.5891837181536648</v>
       </c>
       <c r="N79">
-        <v>52.5345994524869084</v>
+        <v>52.5345994524869013</v>
       </c>
     </row>
     <row r="80">
@@ -9480,7 +9480,7 @@
         <v>317</v>
       </c>
       <c r="M80">
-        <v>13.3279590295027859</v>
+        <v>13.3279590295028036</v>
       </c>
       <c r="N80">
         <v>52.4932227113345533</v>
@@ -9515,10 +9515,10 @@
         <v>320</v>
       </c>
       <c r="M81">
-        <v>13.3581722383944221</v>
+        <v>13.3581722383944381</v>
       </c>
       <c r="N81">
-        <v>52.6016606034474918</v>
+        <v>52.6016606034474847</v>
       </c>
     </row>
     <row r="82">
@@ -9550,10 +9550,10 @@
         <v>324</v>
       </c>
       <c r="M82">
-        <v>13.2375514902207847</v>
+        <v>13.2375514902207989</v>
       </c>
       <c r="N82">
-        <v>52.5089111003893692</v>
+        <v>52.5089111003893620</v>
       </c>
     </row>
     <row r="83">
@@ -9585,10 +9585,10 @@
         <v>327</v>
       </c>
       <c r="M83">
-        <v>13.3650245410239314</v>
+        <v>13.3650245410239474</v>
       </c>
       <c r="N83">
-        <v>52.5975323052315815</v>
+        <v>52.5975323052315744</v>
       </c>
     </row>
     <row r="84">
@@ -9620,7 +9620,7 @@
         <v>330</v>
       </c>
       <c r="M84">
-        <v>13.1989101140701095</v>
+        <v>13.1989101140701255</v>
       </c>
       <c r="N84">
         <v>52.5433157933417974</v>
@@ -9655,7 +9655,7 @@
         <v>333</v>
       </c>
       <c r="M85">
-        <v>13.4241659744048096</v>
+        <v>13.4241659744048256</v>
       </c>
       <c r="N85">
         <v>52.5222463723469559</v>
@@ -9690,7 +9690,7 @@
         <v>336</v>
       </c>
       <c r="M86">
-        <v>13.3818734007341398</v>
+        <v>13.3818734007341558</v>
       </c>
       <c r="N86">
         <v>52.4905813918854633</v>
@@ -9725,10 +9725,10 @@
         <v>340</v>
       </c>
       <c r="M87">
-        <v>13.3034364007036245</v>
+        <v>13.3034364007036405</v>
       </c>
       <c r="N87">
-        <v>52.5080535053350559</v>
+        <v>52.5080535053350488</v>
       </c>
     </row>
     <row r="88">
@@ -9760,10 +9760,10 @@
         <v>343</v>
       </c>
       <c r="M88">
-        <v>13.1693249647132227</v>
+        <v>13.1693249647132387</v>
       </c>
       <c r="N88">
-        <v>52.5219483517367181</v>
+        <v>52.5219483517367109</v>
       </c>
     </row>
     <row r="89">
@@ -9795,10 +9795,10 @@
         <v>346</v>
       </c>
       <c r="M89">
-        <v>13.1931437026759788</v>
+        <v>13.1931437026759948</v>
       </c>
       <c r="N89">
-        <v>52.5199890656912700</v>
+        <v>52.5199890656912629</v>
       </c>
     </row>
     <row r="90">
@@ -9830,7 +9830,7 @@
         <v>350</v>
       </c>
       <c r="M90">
-        <v>13.4348620178691860</v>
+        <v>13.4348620178692020</v>
       </c>
       <c r="N90">
         <v>52.4207147236277820</v>
@@ -9865,10 +9865,10 @@
         <v>353</v>
       </c>
       <c r="M91">
-        <v>13.4085308669150649</v>
+        <v>13.4085308669150809</v>
       </c>
       <c r="N91">
-        <v>52.5075255928357976</v>
+        <v>52.5075255928357905</v>
       </c>
     </row>
     <row r="92">
@@ -9900,7 +9900,7 @@
         <v>356</v>
       </c>
       <c r="M92">
-        <v>13.3848372710203094</v>
+        <v>13.3848372710203254</v>
       </c>
       <c r="N92">
         <v>52.5009912402907162</v>
@@ -9935,10 +9935,10 @@
         <v>360</v>
       </c>
       <c r="M93">
-        <v>13.4887193901472635</v>
+        <v>13.4887193901472795</v>
       </c>
       <c r="N93">
-        <v>52.4190437387121051</v>
+        <v>52.4190437387120909</v>
       </c>
     </row>
     <row r="94">
@@ -9970,10 +9970,10 @@
         <v>363</v>
       </c>
       <c r="M94">
-        <v>13.2931577706008159</v>
+        <v>13.2931577706008319</v>
       </c>
       <c r="N94">
-        <v>52.4336912003799895</v>
+        <v>52.4336912003799824</v>
       </c>
     </row>
     <row r="95">
@@ -10014,10 +10014,10 @@
         <v>367</v>
       </c>
       <c r="M95">
-        <v>13.3183317847366975</v>
+        <v>13.3183317847367135</v>
       </c>
       <c r="N95">
-        <v>52.4885654235873673</v>
+        <v>52.4885654235873602</v>
       </c>
     </row>
     <row r="96">
@@ -10049,10 +10049,10 @@
         <v>371</v>
       </c>
       <c r="M96">
-        <v>13.1467863278580754</v>
+        <v>13.1467863278580932</v>
       </c>
       <c r="N96">
-        <v>52.4148323328864905</v>
+        <v>52.4148323328864834</v>
       </c>
     </row>
     <row r="97">
@@ -10084,10 +10084,10 @@
         <v>374</v>
       </c>
       <c r="M97">
-        <v>13.4454187060001882</v>
+        <v>13.4454187060002059</v>
       </c>
       <c r="N97">
-        <v>52.5102478739580079</v>
+        <v>52.5102478739580008</v>
       </c>
     </row>
     <row r="98">
@@ -10119,7 +10119,7 @@
         <v>377</v>
       </c>
       <c r="M98">
-        <v>13.3785005623779831</v>
+        <v>13.3785005623779991</v>
       </c>
       <c r="N98">
         <v>52.5501721567666138</v>
@@ -10154,7 +10154,7 @@
         <v>380</v>
       </c>
       <c r="M99">
-        <v>13.2610251676190369</v>
+        <v>13.2610251676190529</v>
       </c>
       <c r="N99">
         <v>52.5212094955553894</v>
@@ -10189,10 +10189,10 @@
         <v>384</v>
       </c>
       <c r="M100">
-        <v>13.1854948638306588</v>
+        <v>13.1854948638306748</v>
       </c>
       <c r="N100">
-        <v>52.4203616814624738</v>
+        <v>52.4203616814624667</v>
       </c>
     </row>
     <row r="101">
@@ -10224,10 +10224,10 @@
         <v>387</v>
       </c>
       <c r="M101">
-        <v>13.1878124445193912</v>
+        <v>13.1878124445194072</v>
       </c>
       <c r="N101">
-        <v>52.4205545349101598</v>
+        <v>52.4205545349101527</v>
       </c>
     </row>
     <row r="102">
@@ -10259,10 +10259,10 @@
         <v>391</v>
       </c>
       <c r="M102">
-        <v>13.2576191181712506</v>
+        <v>13.2576191181712666</v>
       </c>
       <c r="N102">
-        <v>52.4288577169427583</v>
+        <v>52.4288577169427512</v>
       </c>
     </row>
     <row r="103">
@@ -10294,10 +10294,10 @@
         <v>395</v>
       </c>
       <c r="M103">
-        <v>13.3176566451993352</v>
+        <v>13.3176566451993512</v>
       </c>
       <c r="N103">
-        <v>52.4651679171119270</v>
+        <v>52.4651679171119198</v>
       </c>
     </row>
     <row r="104">
@@ -10329,10 +10329,10 @@
         <v>398</v>
       </c>
       <c r="M104">
-        <v>13.5730110245904356</v>
+        <v>13.5730110245904516</v>
       </c>
       <c r="N104">
-        <v>52.5639987411947516</v>
+        <v>52.5639987411947445</v>
       </c>
     </row>
     <row r="105">
@@ -10364,10 +10364,10 @@
         <v>401</v>
       </c>
       <c r="M105">
-        <v>13.3804667002404294</v>
+        <v>13.3804667002404454</v>
       </c>
       <c r="N105">
-        <v>52.4451017163073772</v>
+        <v>52.4451017163073629</v>
       </c>
     </row>
     <row r="106">
@@ -10399,7 +10399,7 @@
         <v>404</v>
       </c>
       <c r="M106">
-        <v>13.5088328672100282</v>
+        <v>13.5088328672100424</v>
       </c>
       <c r="N106">
         <v>52.4662848802671817</v>
@@ -10434,7 +10434,7 @@
         <v>407</v>
       </c>
       <c r="M107">
-        <v>13.4504814008167344</v>
+        <v>13.4504814008167521</v>
       </c>
       <c r="N107">
         <v>52.4777322517407754</v>
@@ -10469,10 +10469,10 @@
         <v>410</v>
       </c>
       <c r="M108">
-        <v>13.3128152151401764</v>
+        <v>13.3128152151401924</v>
       </c>
       <c r="N108">
-        <v>52.5090897437000947</v>
+        <v>52.5090897437000805</v>
       </c>
     </row>
     <row r="109">
@@ -10504,10 +10504,10 @@
         <v>413</v>
       </c>
       <c r="M109">
-        <v>13.4403882542299655</v>
+        <v>13.4403882542299833</v>
       </c>
       <c r="N109">
-        <v>52.4842680047082339</v>
+        <v>52.4842680047082268</v>
       </c>
     </row>
     <row r="110">
@@ -10539,7 +10539,7 @@
         <v>417</v>
       </c>
       <c r="M110">
-        <v>13.4176522385297812</v>
+        <v>13.4176522385297989</v>
       </c>
       <c r="N110">
         <v>52.5828146936012573</v>
@@ -10574,10 +10574,10 @@
         <v>420</v>
       </c>
       <c r="M111">
-        <v>13.4103559850977252</v>
+        <v>13.4103559850977412</v>
       </c>
       <c r="N111">
-        <v>52.5680116969117961</v>
+        <v>52.5680116969117890</v>
       </c>
     </row>
     <row r="112">
@@ -10609,10 +10609,10 @@
         <v>423</v>
       </c>
       <c r="M112">
-        <v>13.2388417803194667</v>
+        <v>13.2388417803194827</v>
       </c>
       <c r="N112">
-        <v>52.6265817824606259</v>
+        <v>52.6265817824606117</v>
       </c>
     </row>
     <row r="113">
@@ -10644,10 +10644,10 @@
         <v>426</v>
       </c>
       <c r="M113">
-        <v>13.4382689095627992</v>
+        <v>13.4382689095628152</v>
       </c>
       <c r="N113">
-        <v>52.5162136485813420</v>
+        <v>52.5162136485813349</v>
       </c>
     </row>
     <row r="114">
@@ -10679,7 +10679,7 @@
         <v>429</v>
       </c>
       <c r="M114">
-        <v>13.4573307095927905</v>
+        <v>13.4573307095928065</v>
       </c>
       <c r="N114">
         <v>52.5027348011178177</v>
@@ -10714,10 +10714,10 @@
         <v>432</v>
       </c>
       <c r="M115">
-        <v>13.5887838904333655</v>
+        <v>13.5887838904333815</v>
       </c>
       <c r="N115">
-        <v>52.4427728493251522</v>
+        <v>52.4427728493251450</v>
       </c>
     </row>
     <row r="116">
@@ -10749,10 +10749,10 @@
         <v>435</v>
       </c>
       <c r="M116">
-        <v>13.4280194682215139</v>
+        <v>13.4280194682215317</v>
       </c>
       <c r="N116">
-        <v>52.5053968595097516</v>
+        <v>52.5053968595097444</v>
       </c>
     </row>
     <row r="117">
@@ -10784,10 +10784,10 @@
         <v>438</v>
       </c>
       <c r="M117">
-        <v>13.2832981734668891</v>
+        <v>13.2832981734669069</v>
       </c>
       <c r="N117">
-        <v>52.4582208423916754</v>
+        <v>52.4582208423916683</v>
       </c>
     </row>
     <row r="118">
@@ -10819,10 +10819,10 @@
         <v>441</v>
       </c>
       <c r="M118">
-        <v>13.3583950343718865</v>
+        <v>13.3583950343719042</v>
       </c>
       <c r="N118">
-        <v>52.5504518075955502</v>
+        <v>52.5504518075955431</v>
       </c>
     </row>
     <row r="119">
@@ -10854,10 +10854,10 @@
         <v>444</v>
       </c>
       <c r="M119">
-        <v>13.4370209124584239</v>
+        <v>13.4370209124584399</v>
       </c>
       <c r="N119">
-        <v>52.4834439758925981</v>
+        <v>52.4834439758925910</v>
       </c>
     </row>
     <row r="120">
@@ -10898,10 +10898,10 @@
         <v>23</v>
       </c>
       <c r="M120">
-        <v>13.2655822507556671</v>
+        <v>13.2655822507556831</v>
       </c>
       <c r="N120">
-        <v>52.4985314909939689</v>
+        <v>52.4985314909939618</v>
       </c>
     </row>
     <row r="121">
@@ -10933,10 +10933,10 @@
         <v>451</v>
       </c>
       <c r="M121">
-        <v>13.3350153494314760</v>
+        <v>13.3350153494314938</v>
       </c>
       <c r="N121">
-        <v>52.4823890088761615</v>
+        <v>52.4823890088761544</v>
       </c>
     </row>
     <row r="122">
@@ -10968,10 +10968,10 @@
         <v>454</v>
       </c>
       <c r="M122">
-        <v>13.5861135318476514</v>
+        <v>13.5861135318476673</v>
       </c>
       <c r="N122">
-        <v>52.5431355988741942</v>
+        <v>52.5431355988741799</v>
       </c>
     </row>
     <row r="123">
@@ -11003,7 +11003,7 @@
         <v>457</v>
       </c>
       <c r="M123">
-        <v>13.2068611545967887</v>
+        <v>13.2068611545968064</v>
       </c>
       <c r="N123">
         <v>52.5301529049898193</v>
@@ -11038,10 +11038,10 @@
         <v>460</v>
       </c>
       <c r="M124">
-        <v>13.3934338818576872</v>
+        <v>13.3934338818577032</v>
       </c>
       <c r="N124">
-        <v>52.5391329623496190</v>
+        <v>52.5391329623496119</v>
       </c>
     </row>
     <row r="125">
@@ -11073,10 +11073,10 @@
         <v>463</v>
       </c>
       <c r="M125">
-        <v>13.3478449982443514</v>
+        <v>13.3478449982443674</v>
       </c>
       <c r="N125">
-        <v>52.5468103605811052</v>
+        <v>52.5468103605810981</v>
       </c>
     </row>
     <row r="126">
@@ -11111,10 +11111,10 @@
         <v>23</v>
       </c>
       <c r="M126">
-        <v>13.3546849483879981</v>
+        <v>13.3546849483880159</v>
       </c>
       <c r="N126">
-        <v>52.5348688299984303</v>
+        <v>52.5348688299984232</v>
       </c>
     </row>
     <row r="127">
@@ -11146,10 +11146,10 @@
         <v>470</v>
       </c>
       <c r="M127">
-        <v>13.2872716339070926</v>
+        <v>13.2872716339071086</v>
       </c>
       <c r="N127">
-        <v>52.5394881170983794</v>
+        <v>52.5394881170983652</v>
       </c>
     </row>
     <row r="128">
@@ -11181,10 +11181,10 @@
         <v>473</v>
       </c>
       <c r="M128">
-        <v>13.3686368893695349</v>
+        <v>13.3686368893695509</v>
       </c>
       <c r="N128">
-        <v>52.5714813589509546</v>
+        <v>52.5714813589509475</v>
       </c>
     </row>
     <row r="129">
@@ -11216,10 +11216,10 @@
         <v>476</v>
       </c>
       <c r="M129">
-        <v>13.5563280459614770</v>
+        <v>13.5563280459614930</v>
       </c>
       <c r="N129">
-        <v>52.5658906299057449</v>
+        <v>52.5658906299057378</v>
       </c>
     </row>
     <row r="130">
@@ -11251,7 +11251,7 @@
         <v>479</v>
       </c>
       <c r="M130">
-        <v>13.3795806963714501</v>
+        <v>13.3795806963714679</v>
       </c>
       <c r="N130">
         <v>52.5030059492515946</v>
@@ -11286,10 +11286,10 @@
         <v>483</v>
       </c>
       <c r="M131">
-        <v>13.5327640614822755</v>
+        <v>13.5327640614822915</v>
       </c>
       <c r="N131">
-        <v>52.5683104990527426</v>
+        <v>52.5683104990527283</v>
       </c>
     </row>
     <row r="132">
@@ -11321,10 +11321,10 @@
         <v>486</v>
       </c>
       <c r="M132">
-        <v>13.4378717273925705</v>
+        <v>13.4378717273925865</v>
       </c>
       <c r="N132">
-        <v>52.5370401627220573</v>
+        <v>52.5370401627220502</v>
       </c>
     </row>
     <row r="133">
@@ -11356,7 +11356,7 @@
         <v>489</v>
       </c>
       <c r="M133">
-        <v>13.4450649380486666</v>
+        <v>13.4450649380486826</v>
       </c>
       <c r="N133">
         <v>52.4956693497933600</v>
@@ -11391,7 +11391,7 @@
         <v>492</v>
       </c>
       <c r="M134">
-        <v>13.3132756025494121</v>
+        <v>13.3132756025494281</v>
       </c>
       <c r="N134">
         <v>52.4540482242099557</v>
@@ -11426,10 +11426,10 @@
         <v>495</v>
       </c>
       <c r="M135">
-        <v>13.3161028338684879</v>
+        <v>13.3161028338685057</v>
       </c>
       <c r="N135">
-        <v>52.4844014943364385</v>
+        <v>52.4844014943364314</v>
       </c>
     </row>
     <row r="136">
@@ -11461,10 +11461,10 @@
         <v>499</v>
       </c>
       <c r="M136">
-        <v>13.3430042926078567</v>
+        <v>13.3430042926078727</v>
       </c>
       <c r="N136">
-        <v>52.4982958220829445</v>
+        <v>52.4982958220829374</v>
       </c>
     </row>
     <row r="137">
@@ -11496,10 +11496,10 @@
         <v>503</v>
       </c>
       <c r="M137">
-        <v>13.3335359329294274</v>
+        <v>13.3335359329294416</v>
       </c>
       <c r="N137">
-        <v>52.4675700246121366</v>
+        <v>52.4675700246121295</v>
       </c>
     </row>
     <row r="138">
@@ -11531,7 +11531,7 @@
         <v>506</v>
       </c>
       <c r="M138">
-        <v>13.6023423180906864</v>
+        <v>13.6023423180907024</v>
       </c>
       <c r="N138">
         <v>52.4465948407235913</v>
@@ -11566,10 +11566,10 @@
         <v>510</v>
       </c>
       <c r="M139">
-        <v>13.5851091220760978</v>
+        <v>13.5851091220761138</v>
       </c>
       <c r="N139">
-        <v>52.5079629691897409</v>
+        <v>52.5079629691897338</v>
       </c>
     </row>
     <row r="140">
@@ -11601,7 +11601,7 @@
         <v>513</v>
       </c>
       <c r="M140">
-        <v>13.2823507532415608</v>
+        <v>13.2823507532415768</v>
       </c>
       <c r="N140">
         <v>52.5886380343260242</v>
@@ -11636,7 +11636,7 @@
         <v>516</v>
       </c>
       <c r="M141">
-        <v>13.3555015427972297</v>
+        <v>13.3555015427972457</v>
       </c>
       <c r="N141">
         <v>52.5032659419296550</v>
@@ -11671,10 +11671,10 @@
         <v>519</v>
       </c>
       <c r="M142">
-        <v>13.1999305122433945</v>
+        <v>13.1999305122434105</v>
       </c>
       <c r="N142">
-        <v>52.5405399386769716</v>
+        <v>52.5405399386769645</v>
       </c>
     </row>
     <row r="143">
@@ -11706,10 +11706,10 @@
         <v>522</v>
       </c>
       <c r="M143">
-        <v>13.3356395277934485</v>
+        <v>13.3356395277934645</v>
       </c>
       <c r="N143">
-        <v>52.4522664890993795</v>
+        <v>52.4522664890993724</v>
       </c>
     </row>
     <row r="144">
@@ -11741,10 +11741,10 @@
         <v>525</v>
       </c>
       <c r="M144">
-        <v>13.3212980473482947</v>
+        <v>13.3212980473483107</v>
       </c>
       <c r="N144">
-        <v>52.5089825344599532</v>
+        <v>52.5089825344599390</v>
       </c>
     </row>
     <row r="145">
@@ -11776,10 +11776,10 @@
         <v>528</v>
       </c>
       <c r="M145">
-        <v>13.3333277666042829</v>
+        <v>13.3333277666042989</v>
       </c>
       <c r="N145">
-        <v>52.4760825299993527</v>
+        <v>52.4760825299993456</v>
       </c>
     </row>
     <row r="146">
@@ -11811,10 +11811,10 @@
         <v>531</v>
       </c>
       <c r="M146">
-        <v>13.3190127406835739</v>
+        <v>13.3190127406835899</v>
       </c>
       <c r="N146">
-        <v>52.4842393172357333</v>
+        <v>52.4842393172357262</v>
       </c>
     </row>
     <row r="147">
@@ -11846,10 +11846,10 @@
         <v>534</v>
       </c>
       <c r="M147">
-        <v>13.3571734001312716</v>
+        <v>13.3571734001312876</v>
       </c>
       <c r="N147">
-        <v>52.5693754525719328</v>
+        <v>52.5693754525719257</v>
       </c>
     </row>
     <row r="148">
@@ -11881,10 +11881,10 @@
         <v>538</v>
       </c>
       <c r="M148">
-        <v>13.6150662195665788</v>
+        <v>13.6150662195665930</v>
       </c>
       <c r="N148">
-        <v>52.5114205411486807</v>
+        <v>52.5114205411486736</v>
       </c>
     </row>
     <row r="149">
@@ -11916,7 +11916,7 @@
         <v>541</v>
       </c>
       <c r="M149">
-        <v>13.5035403028915617</v>
+        <v>13.5035403028915777</v>
       </c>
       <c r="N149">
         <v>52.5031468971302644</v>
@@ -11951,10 +11951,10 @@
         <v>544</v>
       </c>
       <c r="M150">
-        <v>13.6213859930401746</v>
+        <v>13.6213859930401924</v>
       </c>
       <c r="N150">
-        <v>52.4545396081235751</v>
+        <v>52.4545396081235680</v>
       </c>
     </row>
     <row r="151">
@@ -11989,10 +11989,10 @@
         <v>23</v>
       </c>
       <c r="M151">
-        <v>13.4438999472746179</v>
+        <v>13.4438999472746339</v>
       </c>
       <c r="N151">
-        <v>52.4481670970829796</v>
+        <v>52.4481670970829725</v>
       </c>
     </row>
     <row r="152">
@@ -12024,10 +12024,10 @@
         <v>551</v>
       </c>
       <c r="M152">
-        <v>13.5644860855862088</v>
+        <v>13.5644860855862248</v>
       </c>
       <c r="N152">
-        <v>52.4012405781632111</v>
+        <v>52.4012405781631969</v>
       </c>
     </row>
     <row r="153">
@@ -12059,10 +12059,10 @@
         <v>554</v>
       </c>
       <c r="M153">
-        <v>13.5209036227055801</v>
+        <v>13.5209036227055961</v>
       </c>
       <c r="N153">
-        <v>52.5701499025305949</v>
+        <v>52.5701499025305807</v>
       </c>
     </row>
     <row r="154">
@@ -12094,10 +12094,10 @@
         <v>557</v>
       </c>
       <c r="M154">
-        <v>13.2967972059662003</v>
+        <v>13.2967972059662163</v>
       </c>
       <c r="N154">
-        <v>52.5921551608923892</v>
+        <v>52.5921551608923750</v>
       </c>
     </row>
     <row r="155">
@@ -12129,10 +12129,10 @@
         <v>560</v>
       </c>
       <c r="M155">
-        <v>13.2844459529109606</v>
+        <v>13.2844459529109766</v>
       </c>
       <c r="N155">
-        <v>52.4595119557420091</v>
+        <v>52.4595119557420020</v>
       </c>
     </row>
     <row r="156">
@@ -12164,7 +12164,7 @@
         <v>563</v>
       </c>
       <c r="M156">
-        <v>13.3914700993537998</v>
+        <v>13.3914700993538158</v>
       </c>
       <c r="N156">
         <v>52.5019326176786194</v>
@@ -12199,7 +12199,7 @@
         <v>567</v>
       </c>
       <c r="M157">
-        <v>13.5036183391558868</v>
+        <v>13.5036183391559028</v>
       </c>
       <c r="N157">
         <v>52.4483108348346931</v>
@@ -12234,10 +12234,10 @@
         <v>570</v>
       </c>
       <c r="M158">
-        <v>13.4054976514171216</v>
+        <v>13.4054976514171376</v>
       </c>
       <c r="N158">
-        <v>52.3926060469334303</v>
+        <v>52.3926060469334232</v>
       </c>
     </row>
     <row r="159">
@@ -12269,10 +12269,10 @@
         <v>573</v>
       </c>
       <c r="M159">
-        <v>13.5150240551238525</v>
+        <v>13.5150240551238685</v>
       </c>
       <c r="N159">
-        <v>52.4966852844753973</v>
+        <v>52.4966852844753831</v>
       </c>
     </row>
     <row r="160">
@@ -12304,10 +12304,10 @@
         <v>576</v>
       </c>
       <c r="M160">
-        <v>13.4557257776765571</v>
+        <v>13.4557257776765731</v>
       </c>
       <c r="N160">
-        <v>52.5148202876332633</v>
+        <v>52.5148202876332491</v>
       </c>
     </row>
     <row r="161">
@@ -12339,10 +12339,10 @@
         <v>579</v>
       </c>
       <c r="M161">
-        <v>13.3028736398052061</v>
+        <v>13.3028736398052239</v>
       </c>
       <c r="N161">
-        <v>52.6167947265490739</v>
+        <v>52.6167947265490668</v>
       </c>
     </row>
     <row r="162">
@@ -12374,10 +12374,10 @@
         <v>582</v>
       </c>
       <c r="M162">
-        <v>13.3425950821976045</v>
+        <v>13.3425950821976205</v>
       </c>
       <c r="N162">
-        <v>52.4941628119948902</v>
+        <v>52.4941628119948831</v>
       </c>
     </row>
     <row r="163">
@@ -12409,10 +12409,10 @@
         <v>585</v>
       </c>
       <c r="M163">
-        <v>13.4503160014255609</v>
+        <v>13.4503160014255787</v>
       </c>
       <c r="N163">
-        <v>52.5190746576496110</v>
+        <v>52.5190746576496039</v>
       </c>
     </row>
     <row r="164">
@@ -12444,7 +12444,7 @@
         <v>588</v>
       </c>
       <c r="M164">
-        <v>13.6327286172147826</v>
+        <v>13.6327286172148003</v>
       </c>
       <c r="N164">
         <v>52.4522758490574290</v>
@@ -12479,10 +12479,10 @@
         <v>591</v>
       </c>
       <c r="M165">
-        <v>13.3828168990416856</v>
+        <v>13.3828168990417016</v>
       </c>
       <c r="N165">
-        <v>52.5533902020915562</v>
+        <v>52.5533902020915491</v>
       </c>
     </row>
     <row r="166">
@@ -12514,7 +12514,7 @@
         <v>594</v>
       </c>
       <c r="M166">
-        <v>13.3110307051688750</v>
+        <v>13.3110307051688892</v>
       </c>
       <c r="N166">
         <v>52.4222184316106663</v>
@@ -12549,10 +12549,10 @@
         <v>597</v>
       </c>
       <c r="M167">
-        <v>13.3216589216143344</v>
+        <v>13.3216589216143504</v>
       </c>
       <c r="N167">
-        <v>52.4872790807160854</v>
+        <v>52.4872790807160783</v>
       </c>
     </row>
     <row r="168">
@@ -12584,10 +12584,10 @@
         <v>600</v>
       </c>
       <c r="M168">
-        <v>13.3054300043612788</v>
+        <v>13.3054300043612965</v>
       </c>
       <c r="N168">
-        <v>52.4345807115617930</v>
+        <v>52.4345807115617859</v>
       </c>
     </row>
     <row r="169">
@@ -12619,10 +12619,10 @@
         <v>603</v>
       </c>
       <c r="M169">
-        <v>13.3022517705297947</v>
+        <v>13.3022517705298107</v>
       </c>
       <c r="N169">
-        <v>52.5289161380292171</v>
+        <v>52.5289161380292100</v>
       </c>
     </row>
     <row r="170">
@@ -12654,10 +12654,10 @@
         <v>606</v>
       </c>
       <c r="M170">
-        <v>13.3571165268280900</v>
+        <v>13.3571165268281060</v>
       </c>
       <c r="N170">
-        <v>52.5562829306154029</v>
+        <v>52.5562829306153887</v>
       </c>
     </row>
     <row r="171">
@@ -12689,10 +12689,10 @@
         <v>609</v>
       </c>
       <c r="M171">
-        <v>13.3431365241784583</v>
+        <v>13.3431365241784743</v>
       </c>
       <c r="N171">
-        <v>52.6005651611961085</v>
+        <v>52.6005651611961014</v>
       </c>
     </row>
     <row r="172">
@@ -12727,10 +12727,10 @@
         <v>23</v>
       </c>
       <c r="M172">
-        <v>13.5760105604497010</v>
+        <v>13.5760105604497188</v>
       </c>
       <c r="N172">
-        <v>52.4193452590939231</v>
+        <v>52.4193452590939160</v>
       </c>
     </row>
     <row r="173">
@@ -12762,10 +12762,10 @@
         <v>617</v>
       </c>
       <c r="M173">
-        <v>13.4796609972101926</v>
+        <v>13.4796609972102086</v>
       </c>
       <c r="N173">
-        <v>52.6095894669101938</v>
+        <v>52.6095894669101725</v>
       </c>
     </row>
     <row r="174">
@@ -12797,10 +12797,10 @@
         <v>620</v>
       </c>
       <c r="M174">
-        <v>13.1670364621665179</v>
+        <v>13.1670364621665339</v>
       </c>
       <c r="N174">
-        <v>52.5129618810274010</v>
+        <v>52.5129618810273939</v>
       </c>
     </row>
     <row r="175">
@@ -12832,10 +12832,10 @@
         <v>623</v>
       </c>
       <c r="M175">
-        <v>13.4002294035781642</v>
+        <v>13.4002294035781802</v>
       </c>
       <c r="N175">
-        <v>52.5371969873891587</v>
+        <v>52.5371969873891516</v>
       </c>
     </row>
     <row r="176">
@@ -12867,7 +12867,7 @@
         <v>626</v>
       </c>
       <c r="M176">
-        <v>13.3497240273050153</v>
+        <v>13.3497240273050313</v>
       </c>
       <c r="N176">
         <v>52.4923078111116794</v>
@@ -12902,10 +12902,10 @@
         <v>629</v>
       </c>
       <c r="M177">
-        <v>13.1799839393032912</v>
+        <v>13.1799839393033071</v>
       </c>
       <c r="N177">
-        <v>52.5256034659691693</v>
+        <v>52.5256034659691622</v>
       </c>
     </row>
     <row r="178">
@@ -12937,10 +12937,10 @@
         <v>632</v>
       </c>
       <c r="M178">
-        <v>13.3827865713644290</v>
+        <v>13.3827865713644449</v>
       </c>
       <c r="N178">
-        <v>52.5131224719929293</v>
+        <v>52.5131224719929222</v>
       </c>
     </row>
     <row r="179">
@@ -12972,7 +12972,7 @@
         <v>635</v>
       </c>
       <c r="M179">
-        <v>13.1529321835086659</v>
+        <v>13.1529321835086819</v>
       </c>
       <c r="N179">
         <v>52.5358687776710340</v>
@@ -13007,7 +13007,7 @@
         <v>638</v>
       </c>
       <c r="M180">
-        <v>13.5648689436290031</v>
+        <v>13.5648689436290191</v>
       </c>
       <c r="N180">
         <v>52.5506912159765065</v>
@@ -13042,10 +13042,10 @@
         <v>641</v>
       </c>
       <c r="M181">
-        <v>13.2435658566659740</v>
+        <v>13.2435658566659917</v>
       </c>
       <c r="N181">
-        <v>52.4224027983761260</v>
+        <v>52.4224027983761189</v>
       </c>
     </row>
     <row r="182">
@@ -13077,7 +13077,7 @@
         <v>644</v>
       </c>
       <c r="M182">
-        <v>13.4082105284691799</v>
+        <v>13.4082105284691977</v>
       </c>
       <c r="N182">
         <v>52.4119927270312900</v>
@@ -13112,10 +13112,10 @@
         <v>647</v>
       </c>
       <c r="M183">
-        <v>13.1990821357585286</v>
+        <v>13.1990821357585446</v>
       </c>
       <c r="N183">
-        <v>52.5583742449557576</v>
+        <v>52.5583742449557505</v>
       </c>
     </row>
     <row r="184">
@@ -13147,10 +13147,10 @@
         <v>650</v>
       </c>
       <c r="M184">
-        <v>13.3209327130534394</v>
+        <v>13.3209327130534572</v>
       </c>
       <c r="N184">
-        <v>52.6152287621135386</v>
+        <v>52.6152287621135315</v>
       </c>
     </row>
     <row r="185">
@@ -13182,10 +13182,10 @@
         <v>654</v>
       </c>
       <c r="M185">
-        <v>13.5559568847102341</v>
+        <v>13.5559568847102501</v>
       </c>
       <c r="N185">
-        <v>52.4904370426697824</v>
+        <v>52.4904370426697682</v>
       </c>
     </row>
     <row r="186">
@@ -13217,7 +13217,7 @@
         <v>657</v>
       </c>
       <c r="M186">
-        <v>13.4962951198225927</v>
+        <v>13.4962951198226104</v>
       </c>
       <c r="N186">
         <v>52.6149504543346325</v>
@@ -13252,10 +13252,10 @@
         <v>660</v>
       </c>
       <c r="M187">
-        <v>13.5950891458358853</v>
+        <v>13.5950891458359013</v>
       </c>
       <c r="N187">
-        <v>52.5258582152411932</v>
+        <v>52.5258582152411861</v>
       </c>
     </row>
     <row r="188">
@@ -13287,10 +13287,10 @@
         <v>663</v>
       </c>
       <c r="M188">
-        <v>13.3496310952364095</v>
+        <v>13.3496310952364272</v>
       </c>
       <c r="N188">
-        <v>52.4518031338385740</v>
+        <v>52.4518031338385597</v>
       </c>
     </row>
     <row r="189">
@@ -13322,10 +13322,10 @@
         <v>666</v>
       </c>
       <c r="M189">
-        <v>13.3328546005192727</v>
+        <v>13.3328546005192905</v>
       </c>
       <c r="N189">
-        <v>52.4174083883616291</v>
+        <v>52.4174083883616149</v>
       </c>
     </row>
     <row r="190">
@@ -13357,10 +13357,10 @@
         <v>669</v>
       </c>
       <c r="M190">
-        <v>13.4148686032453917</v>
+        <v>13.4148686032454076</v>
       </c>
       <c r="N190">
-        <v>52.5377677763630686</v>
+        <v>52.5377677763630544</v>
       </c>
     </row>
     <row r="191">
@@ -13392,10 +13392,10 @@
         <v>672</v>
       </c>
       <c r="M191">
-        <v>13.3473327310682048</v>
+        <v>13.3473327310682208</v>
       </c>
       <c r="N191">
-        <v>52.4230988105911564</v>
+        <v>52.4230988105911422</v>
       </c>
     </row>
     <row r="192">
@@ -13427,10 +13427,10 @@
         <v>675</v>
       </c>
       <c r="M192">
-        <v>13.4309448010370094</v>
+        <v>13.4309448010370254</v>
       </c>
       <c r="N192">
-        <v>52.5413963459903641</v>
+        <v>52.5413963459903499</v>
       </c>
     </row>
     <row r="193">
@@ -13462,10 +13462,10 @@
         <v>679</v>
       </c>
       <c r="M193">
-        <v>13.1386073964322367</v>
+        <v>13.1386073964322545</v>
       </c>
       <c r="N193">
-        <v>52.4554152529151523</v>
+        <v>52.4554152529151452</v>
       </c>
     </row>
     <row r="194">
@@ -13497,10 +13497,10 @@
         <v>683</v>
       </c>
       <c r="M194">
-        <v>13.4821865629724478</v>
+        <v>13.4821865629724638</v>
       </c>
       <c r="N194">
-        <v>52.5289131717206388</v>
+        <v>52.5289131717206317</v>
       </c>
     </row>
     <row r="195">
@@ -13532,10 +13532,10 @@
         <v>686</v>
       </c>
       <c r="M195">
-        <v>13.2252117998615901</v>
+        <v>13.2252117998616079</v>
       </c>
       <c r="N195">
-        <v>52.4256562003564497</v>
+        <v>52.4256562003564426</v>
       </c>
     </row>
     <row r="196">
@@ -13567,10 +13567,10 @@
         <v>689</v>
       </c>
       <c r="M196">
-        <v>13.3133308749474963</v>
+        <v>13.3133308749475123</v>
       </c>
       <c r="N196">
-        <v>52.4711658926865070</v>
+        <v>52.4711658926864928</v>
       </c>
     </row>
     <row r="197">
@@ -13602,10 +13602,10 @@
         <v>693</v>
       </c>
       <c r="M197">
-        <v>13.4913616534893475</v>
+        <v>13.4913616534893634</v>
       </c>
       <c r="N197">
-        <v>52.6372517548363135</v>
+        <v>52.6372517548363206</v>
       </c>
     </row>
     <row r="198">
@@ -13637,7 +13637,7 @@
         <v>696</v>
       </c>
       <c r="M198">
-        <v>13.3554260607114372</v>
+        <v>13.3554260607114514</v>
       </c>
       <c r="N198">
         <v>52.5626244214387270</v>
@@ -13672,7 +13672,7 @@
         <v>699</v>
       </c>
       <c r="M199">
-        <v>13.6081611675743961</v>
+        <v>13.6081611675744121</v>
       </c>
       <c r="N199">
         <v>52.5290601825720387</v>
@@ -13707,7 +13707,7 @@
         <v>702</v>
       </c>
       <c r="M200">
-        <v>13.2269668281346533</v>
+        <v>13.2269668281346693</v>
       </c>
       <c r="N200">
         <v>52.5764958960628022</v>
@@ -13742,10 +13742,10 @@
         <v>705</v>
       </c>
       <c r="M201">
-        <v>13.4200213540306663</v>
+        <v>13.4200213540306823</v>
       </c>
       <c r="N201">
-        <v>52.5395714901365096</v>
+        <v>52.5395714901365025</v>
       </c>
     </row>
     <row r="202">
@@ -13777,10 +13777,10 @@
         <v>708</v>
       </c>
       <c r="M202">
-        <v>13.4720230656442670</v>
+        <v>13.4720230656442830</v>
       </c>
       <c r="N202">
-        <v>52.5115311769480684</v>
+        <v>52.5115311769480613</v>
       </c>
     </row>
     <row r="203">
@@ -13812,7 +13812,7 @@
         <v>712</v>
       </c>
       <c r="M203">
-        <v>13.3389864285226025</v>
+        <v>13.3389864285226185</v>
       </c>
       <c r="N203">
         <v>52.6183338573640000</v>
@@ -13847,7 +13847,7 @@
         <v>715</v>
       </c>
       <c r="M204">
-        <v>13.5061326875840653</v>
+        <v>13.5061326875840813</v>
       </c>
       <c r="N204">
         <v>52.5685640511445840</v>
@@ -13882,7 +13882,7 @@
         <v>719</v>
       </c>
       <c r="M205">
-        <v>13.4368165093150118</v>
+        <v>13.4368165093150278</v>
       </c>
       <c r="N205">
         <v>52.5653836224996382</v>
@@ -13917,7 +13917,7 @@
         <v>722</v>
       </c>
       <c r="M206">
-        <v>13.1645127860350151</v>
+        <v>13.1645127860350311</v>
       </c>
       <c r="N206">
         <v>52.5562984184944995</v>
@@ -13952,10 +13952,10 @@
         <v>725</v>
       </c>
       <c r="M207">
-        <v>13.1743092761383842</v>
+        <v>13.1743092761384020</v>
       </c>
       <c r="N207">
-        <v>52.5081623063474865</v>
+        <v>52.5081623063474581</v>
       </c>
     </row>
     <row r="208">
@@ -13987,7 +13987,7 @@
         <v>729</v>
       </c>
       <c r="M208">
-        <v>13.4576516910570607</v>
+        <v>13.4576516910570767</v>
       </c>
       <c r="N208">
         <v>52.5556954512056009</v>
@@ -14022,7 +14022,7 @@
         <v>732</v>
       </c>
       <c r="M209">
-        <v>13.4835142931578673</v>
+        <v>13.4835142931578815</v>
       </c>
       <c r="N209">
         <v>52.5370313923413761</v>
@@ -14057,10 +14057,10 @@
         <v>736</v>
       </c>
       <c r="M210">
-        <v>13.1743551088876814</v>
+        <v>13.1743551088876991</v>
       </c>
       <c r="N210">
-        <v>52.4853337710542789</v>
+        <v>52.4853337710542647</v>
       </c>
     </row>
     <row r="211">
@@ -14092,10 +14092,10 @@
         <v>739</v>
       </c>
       <c r="M211">
-        <v>13.3949111931891167</v>
+        <v>13.3949111931891327</v>
       </c>
       <c r="N211">
-        <v>52.5795938582936202</v>
+        <v>52.5795938582936131</v>
       </c>
     </row>
     <row r="212">
@@ -14127,10 +14127,10 @@
         <v>742</v>
       </c>
       <c r="M212">
-        <v>13.3189816740228668</v>
+        <v>13.3189816740228828</v>
       </c>
       <c r="N212">
-        <v>52.4479628503289987</v>
+        <v>52.4479628503289916</v>
       </c>
     </row>
     <row r="213">
@@ -14162,10 +14162,10 @@
         <v>745</v>
       </c>
       <c r="M213">
-        <v>13.5522021963983743</v>
+        <v>13.5522021963983903</v>
       </c>
       <c r="N213">
-        <v>52.5377838308589631</v>
+        <v>52.5377838308589560</v>
       </c>
     </row>
     <row r="214">
@@ -14197,10 +14197,10 @@
         <v>748</v>
       </c>
       <c r="M214">
-        <v>13.4256896063970963</v>
+        <v>13.4256896063971123</v>
       </c>
       <c r="N214">
-        <v>52.5360630376407229</v>
+        <v>52.5360630376407087</v>
       </c>
     </row>
     <row r="215">
@@ -14232,7 +14232,7 @@
         <v>751</v>
       </c>
       <c r="M215">
-        <v>13.5658409307750496</v>
+        <v>13.5658409307750656</v>
       </c>
       <c r="N215">
         <v>52.5396958684865751</v>
@@ -14267,10 +14267,10 @@
         <v>754</v>
       </c>
       <c r="M216">
-        <v>13.3479782357194736</v>
+        <v>13.3479782357194914</v>
       </c>
       <c r="N216">
-        <v>52.5920772948279449</v>
+        <v>52.5920772948279378</v>
       </c>
     </row>
     <row r="217">
@@ -14302,10 +14302,10 @@
         <v>757</v>
       </c>
       <c r="M217">
-        <v>13.2268019248743052</v>
+        <v>13.2268019248743229</v>
       </c>
       <c r="N217">
-        <v>52.5440333768344416</v>
+        <v>52.5440333768344274</v>
       </c>
     </row>
     <row r="218">
@@ -14337,10 +14337,10 @@
         <v>760</v>
       </c>
       <c r="M218">
-        <v>13.5807918434002115</v>
+        <v>13.5807918434002275</v>
       </c>
       <c r="N218">
-        <v>52.5211841398265591</v>
+        <v>52.5211841398265520</v>
       </c>
     </row>
     <row r="219">
@@ -14372,10 +14372,10 @@
         <v>763</v>
       </c>
       <c r="M219">
-        <v>13.4942401288119243</v>
+        <v>13.4942401288119420</v>
       </c>
       <c r="N219">
-        <v>52.5170300312448077</v>
+        <v>52.5170300312448006</v>
       </c>
     </row>
     <row r="220">
@@ -14407,7 +14407,7 @@
         <v>766</v>
       </c>
       <c r="M220">
-        <v>13.3820125818789624</v>
+        <v>13.3820125818789766</v>
       </c>
       <c r="N220">
         <v>52.4808896470704767</v>
@@ -14442,10 +14442,10 @@
         <v>769</v>
       </c>
       <c r="M221">
-        <v>13.1568984131991407</v>
+        <v>13.1568984131991584</v>
       </c>
       <c r="N221">
-        <v>52.5486742539331431</v>
+        <v>52.5486742539331360</v>
       </c>
     </row>
     <row r="222">
@@ -14477,10 +14477,10 @@
         <v>772</v>
       </c>
       <c r="M222">
-        <v>13.4578445216766607</v>
+        <v>13.4578445216766767</v>
       </c>
       <c r="N222">
-        <v>52.5338873250303919</v>
+        <v>52.5338873250303848</v>
       </c>
     </row>
     <row r="223">
@@ -14512,10 +14512,10 @@
         <v>775</v>
       </c>
       <c r="M223">
-        <v>13.4226967589275734</v>
+        <v>13.4226967589275894</v>
       </c>
       <c r="N223">
-        <v>52.5407650451419386</v>
+        <v>52.5407650451419244</v>
       </c>
     </row>
     <row r="224">
@@ -14547,10 +14547,10 @@
         <v>778</v>
       </c>
       <c r="M224">
-        <v>13.4830427181725376</v>
+        <v>13.4830427181725536</v>
       </c>
       <c r="N224">
-        <v>52.5225751291765164</v>
+        <v>52.5225751291765093</v>
       </c>
     </row>
     <row r="225">
@@ -14582,7 +14582,7 @@
         <v>781</v>
       </c>
       <c r="M225">
-        <v>13.4107988274712557</v>
+        <v>13.4107988274712717</v>
       </c>
       <c r="N225">
         <v>52.5904471497732047</v>
@@ -14617,7 +14617,7 @@
         <v>784</v>
       </c>
       <c r="M226">
-        <v>13.4769406167556163</v>
+        <v>13.4769406167556323</v>
       </c>
       <c r="N226">
         <v>52.5593142143581105</v>
@@ -14652,10 +14652,10 @@
         <v>787</v>
       </c>
       <c r="M227">
-        <v>13.4862487251737431</v>
+        <v>13.4862487251737608</v>
       </c>
       <c r="N227">
-        <v>52.6208313296825096</v>
+        <v>52.6208313296825025</v>
       </c>
     </row>
     <row r="228">
@@ -14687,7 +14687,7 @@
         <v>790</v>
       </c>
       <c r="M228">
-        <v>13.4194806034881555</v>
+        <v>13.4194806034881715</v>
       </c>
       <c r="N228">
         <v>52.4004480335390141</v>
@@ -14722,7 +14722,7 @@
         <v>794</v>
       </c>
       <c r="M229">
-        <v>13.3369242231539378</v>
+        <v>13.3369242231539538</v>
       </c>
       <c r="N229">
         <v>52.6095428276382151</v>
@@ -14757,7 +14757,7 @@
         <v>797</v>
       </c>
       <c r="M230">
-        <v>13.3805595374524273</v>
+        <v>13.3805595374524433</v>
       </c>
       <c r="N230">
         <v>52.5273372524682145</v>
@@ -14792,10 +14792,10 @@
         <v>800</v>
       </c>
       <c r="M231">
-        <v>13.5423668553216690</v>
+        <v>13.5423668553216832</v>
       </c>
       <c r="N231">
-        <v>52.5297190405826058</v>
+        <v>52.5297190405825916</v>
       </c>
     </row>
     <row r="232">
@@ -14827,10 +14827,10 @@
         <v>804</v>
       </c>
       <c r="M232">
-        <v>13.4544539625920709</v>
+        <v>13.4544539625920869</v>
       </c>
       <c r="N232">
-        <v>52.5921416431721624</v>
+        <v>52.5921416431721553</v>
       </c>
     </row>
     <row r="233">
@@ -14862,10 +14862,10 @@
         <v>807</v>
       </c>
       <c r="M233">
-        <v>13.3247011398151596</v>
+        <v>13.3247011398151756</v>
       </c>
       <c r="N233">
-        <v>52.4256663855295528</v>
+        <v>52.4256663855295457</v>
       </c>
     </row>
     <row r="234">
@@ -14897,7 +14897,7 @@
         <v>811</v>
       </c>
       <c r="M234">
-        <v>13.3644348056843683</v>
+        <v>13.3644348056843842</v>
       </c>
       <c r="N234">
         <v>52.5902681725087788</v>
@@ -14932,10 +14932,10 @@
         <v>814</v>
       </c>
       <c r="M235">
-        <v>13.4203085127086350</v>
+        <v>13.4203085127086510</v>
       </c>
       <c r="N235">
-        <v>52.5650711235875150</v>
+        <v>52.5650711235875079</v>
       </c>
     </row>
     <row r="236">
@@ -14970,10 +14970,10 @@
         <v>23</v>
       </c>
       <c r="M236">
-        <v>13.4844111238287301</v>
+        <v>13.4844111238287461</v>
       </c>
       <c r="N236">
-        <v>52.5718757034488249</v>
+        <v>52.5718757034488178</v>
       </c>
     </row>
     <row r="237">
@@ -15005,10 +15005,10 @@
         <v>821</v>
       </c>
       <c r="M237">
-        <v>13.5902775468129366</v>
+        <v>13.5902775468129544</v>
       </c>
       <c r="N237">
-        <v>52.4380193896319184</v>
+        <v>52.4380193896318971</v>
       </c>
     </row>
     <row r="238">
@@ -15040,10 +15040,10 @@
         <v>825</v>
       </c>
       <c r="M238">
-        <v>13.2811855263605700</v>
+        <v>13.2811855263605860</v>
       </c>
       <c r="N238">
-        <v>52.4845356256506435</v>
+        <v>52.4845356256506363</v>
       </c>
     </row>
     <row r="239">
@@ -15075,10 +15075,10 @@
         <v>828</v>
       </c>
       <c r="M239">
-        <v>13.3040946700351732</v>
+        <v>13.3040946700351892</v>
       </c>
       <c r="N239">
-        <v>52.6139826177852044</v>
+        <v>52.6139826177851972</v>
       </c>
     </row>
     <row r="240">
@@ -15116,10 +15116,10 @@
         <v>833</v>
       </c>
       <c r="M240">
-        <v>13.4485590583953769</v>
+        <v>13.4485590583953947</v>
       </c>
       <c r="N240">
-        <v>52.5407861265997198</v>
+        <v>52.5407861265997127</v>
       </c>
     </row>
     <row r="241">
@@ -15151,10 +15151,10 @@
         <v>836</v>
       </c>
       <c r="M241">
-        <v>13.3916405921373372</v>
+        <v>13.3916405921373531</v>
       </c>
       <c r="N241">
-        <v>52.5379593717492099</v>
+        <v>52.5379593717492028</v>
       </c>
     </row>
     <row r="242">
@@ -15186,7 +15186,7 @@
         <v>839</v>
       </c>
       <c r="M242">
-        <v>13.3654090801366081</v>
+        <v>13.3654090801366259</v>
       </c>
       <c r="N242">
         <v>52.5703536682146932</v>
@@ -15221,10 +15221,10 @@
         <v>843</v>
       </c>
       <c r="M243">
-        <v>13.3474543416235711</v>
+        <v>13.3474543416235889</v>
       </c>
       <c r="N243">
-        <v>52.4064107958763330</v>
+        <v>52.4064107958763188</v>
       </c>
     </row>
     <row r="244">
@@ -15256,10 +15256,10 @@
         <v>846</v>
       </c>
       <c r="M244">
-        <v>13.3503625879352708</v>
+        <v>13.3503625879352850</v>
       </c>
       <c r="N244">
-        <v>52.4857967250815705</v>
+        <v>52.4857967250815634</v>
       </c>
     </row>
     <row r="245">
@@ -15291,10 +15291,10 @@
         <v>849</v>
       </c>
       <c r="M245">
-        <v>13.4165489413916799</v>
+        <v>13.4165489413916958</v>
       </c>
       <c r="N245">
-        <v>52.4969746121611323</v>
+        <v>52.4969746121611252</v>
       </c>
     </row>
     <row r="246">
@@ -15326,10 +15326,10 @@
         <v>852</v>
       </c>
       <c r="M246">
-        <v>13.4843941066379109</v>
+        <v>13.4843941066379269</v>
       </c>
       <c r="N246">
-        <v>52.5365831288287310</v>
+        <v>52.5365831288287382</v>
       </c>
     </row>
     <row r="247">
@@ -15361,10 +15361,10 @@
         <v>855</v>
       </c>
       <c r="M247">
-        <v>13.4244030954260296</v>
+        <v>13.4244030954260456</v>
       </c>
       <c r="N247">
-        <v>52.5161700876194075</v>
+        <v>52.5161700876194004</v>
       </c>
     </row>
     <row r="248">
@@ -15396,10 +15396,10 @@
         <v>858</v>
       </c>
       <c r="M248">
-        <v>13.3266014444040231</v>
+        <v>13.3266014444040408</v>
       </c>
       <c r="N248">
-        <v>52.4568998809885443</v>
+        <v>52.4568998809885372</v>
       </c>
     </row>
     <row r="249">
@@ -15431,7 +15431,7 @@
         <v>861</v>
       </c>
       <c r="M249">
-        <v>13.4474919340789487</v>
+        <v>13.4474919340789665</v>
       </c>
       <c r="N249">
         <v>52.5588841817771097</v>
@@ -15466,10 +15466,10 @@
         <v>865</v>
       </c>
       <c r="M250">
-        <v>13.2962565079508739</v>
+        <v>13.2962565079508881</v>
       </c>
       <c r="N250">
-        <v>52.5001928861235854</v>
+        <v>52.5001928861235783</v>
       </c>
     </row>
     <row r="251">
@@ -15501,7 +15501,7 @@
         <v>868</v>
       </c>
       <c r="M251">
-        <v>13.5081500995974011</v>
+        <v>13.5081500995974153</v>
       </c>
       <c r="N251">
         <v>52.4038530631810460</v>
@@ -15536,10 +15536,10 @@
         <v>871</v>
       </c>
       <c r="M252">
-        <v>13.3447390289941552</v>
+        <v>13.3447390289941712</v>
       </c>
       <c r="N252">
-        <v>52.6010758211669511</v>
+        <v>52.6010758211669369</v>
       </c>
     </row>
     <row r="253">
@@ -15571,10 +15571,10 @@
         <v>875</v>
       </c>
       <c r="M253">
-        <v>13.3402874062014316</v>
+        <v>13.3402874062014494</v>
       </c>
       <c r="N253">
-        <v>52.5214278630891158</v>
+        <v>52.5214278630891087</v>
       </c>
     </row>
     <row r="254">
@@ -15606,7 +15606,7 @@
         <v>878</v>
       </c>
       <c r="M254">
-        <v>13.1301962654459050</v>
+        <v>13.1301962654459210</v>
       </c>
       <c r="N254">
         <v>52.4725061673312823</v>
@@ -15641,10 +15641,10 @@
         <v>881</v>
       </c>
       <c r="M255">
-        <v>13.4523876533690867</v>
+        <v>13.4523876533691027</v>
       </c>
       <c r="N255">
-        <v>52.4834705108421602</v>
+        <v>52.4834705108421531</v>
       </c>
     </row>
     <row r="256">
@@ -15676,10 +15676,10 @@
         <v>884</v>
       </c>
       <c r="M256">
-        <v>13.4518840050291573</v>
+        <v>13.4518840050291733</v>
       </c>
       <c r="N256">
-        <v>52.4837284057344462</v>
+        <v>52.4837284057344391</v>
       </c>
     </row>
     <row r="257">
@@ -15711,10 +15711,10 @@
         <v>887</v>
       </c>
       <c r="M257">
-        <v>13.4988410725401664</v>
+        <v>13.4988410725401824</v>
       </c>
       <c r="N257">
-        <v>52.4442842485307068</v>
+        <v>52.4442842485306997</v>
       </c>
     </row>
     <row r="258">
@@ -15746,10 +15746,10 @@
         <v>891</v>
       </c>
       <c r="M258">
-        <v>13.5232322671675487</v>
+        <v>13.5232322671675647</v>
       </c>
       <c r="N258">
-        <v>52.4918804482534469</v>
+        <v>52.4918804482534398</v>
       </c>
     </row>
     <row r="259">
@@ -15781,10 +15781,10 @@
         <v>894</v>
       </c>
       <c r="M259">
-        <v>13.5807053232349375</v>
+        <v>13.5807053232349535</v>
       </c>
       <c r="N259">
-        <v>52.4559317863801056</v>
+        <v>52.4559317863800985</v>
       </c>
     </row>
     <row r="260">
@@ -15816,10 +15816,10 @@
         <v>897</v>
       </c>
       <c r="M260">
-        <v>13.4542733222102822</v>
+        <v>13.4542733222102981</v>
       </c>
       <c r="N260">
-        <v>52.5242396515328593</v>
+        <v>52.5242396515328522</v>
       </c>
     </row>
     <row r="261">
@@ -15851,10 +15851,10 @@
         <v>900</v>
       </c>
       <c r="M261">
-        <v>13.3749808317974104</v>
+        <v>13.3749808317974264</v>
       </c>
       <c r="N261">
-        <v>52.5696285289156009</v>
+        <v>52.5696285289155938</v>
       </c>
     </row>
     <row r="262">
@@ -15886,7 +15886,7 @@
         <v>903</v>
       </c>
       <c r="M262">
-        <v>13.3677063926971513</v>
+        <v>13.3677063926971691</v>
       </c>
       <c r="N262">
         <v>52.4847935213894772</v>
@@ -15921,10 +15921,10 @@
         <v>906</v>
       </c>
       <c r="M263">
-        <v>13.2861558630205199</v>
+        <v>13.2861558630205359</v>
       </c>
       <c r="N263">
-        <v>52.5783380206323585</v>
+        <v>52.5783380206323443</v>
       </c>
     </row>
     <row r="264">
@@ -15956,10 +15956,10 @@
         <v>909</v>
       </c>
       <c r="M264">
-        <v>13.3842547773424663</v>
+        <v>13.3842547773424823</v>
       </c>
       <c r="N264">
-        <v>52.4984657222950872</v>
+        <v>52.4984657222950659</v>
       </c>
     </row>
     <row r="265">
@@ -15991,10 +15991,10 @@
         <v>912</v>
       </c>
       <c r="M265">
-        <v>13.3465364158660016</v>
+        <v>13.3465364158660176</v>
       </c>
       <c r="N265">
-        <v>52.5335494732331085</v>
+        <v>52.5335494732331014</v>
       </c>
     </row>
     <row r="266">
@@ -16026,10 +16026,10 @@
         <v>915</v>
       </c>
       <c r="M266">
-        <v>13.5439000143012827</v>
+        <v>13.5439000143012986</v>
       </c>
       <c r="N266">
-        <v>52.4384426363442770</v>
+        <v>52.4384426363442699</v>
       </c>
     </row>
     <row r="267">
@@ -16061,7 +16061,7 @@
         <v>918</v>
       </c>
       <c r="M267">
-        <v>13.1978384471518666</v>
+        <v>13.1978384471518826</v>
       </c>
       <c r="N267">
         <v>52.5653989976224665</v>
@@ -16096,10 +16096,10 @@
         <v>921</v>
       </c>
       <c r="M268">
-        <v>13.4628149650625826</v>
+        <v>13.4628149650625986</v>
       </c>
       <c r="N268">
-        <v>52.5169259769381611</v>
+        <v>52.5169259769381540</v>
       </c>
     </row>
     <row r="269">
@@ -16131,10 +16131,10 @@
         <v>924</v>
       </c>
       <c r="M269">
-        <v>13.4331762055486905</v>
+        <v>13.4331762055487083</v>
       </c>
       <c r="N269">
-        <v>52.4156461842451407</v>
+        <v>52.4156461842451336</v>
       </c>
     </row>
     <row r="270">
@@ -16166,7 +16166,7 @@
         <v>927</v>
       </c>
       <c r="M270">
-        <v>13.4235852671869313</v>
+        <v>13.4235852671869473</v>
       </c>
       <c r="N270">
         <v>52.5306010408163147</v>
@@ -16201,10 +16201,10 @@
         <v>930</v>
       </c>
       <c r="M271">
-        <v>13.4239901182329540</v>
+        <v>13.4239901182329699</v>
       </c>
       <c r="N271">
-        <v>52.5463595606943841</v>
+        <v>52.5463595606943770</v>
       </c>
     </row>
     <row r="272">
@@ -16236,10 +16236,10 @@
         <v>933</v>
       </c>
       <c r="M272">
-        <v>13.3929887185089935</v>
+        <v>13.3929887185090113</v>
       </c>
       <c r="N272">
-        <v>52.5471920729720381</v>
+        <v>52.5471920729720310</v>
       </c>
     </row>
     <row r="273">
@@ -16271,7 +16271,7 @@
         <v>936</v>
       </c>
       <c r="M273">
-        <v>13.3166024492971626</v>
+        <v>13.3166024492971786</v>
       </c>
       <c r="N273">
         <v>52.5247012803995901</v>
@@ -16306,7 +16306,7 @@
         <v>939</v>
       </c>
       <c r="M274">
-        <v>13.4291742590025169</v>
+        <v>13.4291742590025329</v>
       </c>
       <c r="N274">
         <v>52.5007563402056121</v>
@@ -16341,7 +16341,7 @@
         <v>942</v>
       </c>
       <c r="M275">
-        <v>13.2667564477512183</v>
+        <v>13.2667564477512343</v>
       </c>
       <c r="N275">
         <v>52.5114353058520038</v>
@@ -16376,10 +16376,10 @@
         <v>945</v>
       </c>
       <c r="M276">
-        <v>13.4417678747498108</v>
+        <v>13.4417678747498268</v>
       </c>
       <c r="N276">
-        <v>52.5511838573492582</v>
+        <v>52.5511838573492511</v>
       </c>
     </row>
     <row r="277">
@@ -16411,10 +16411,10 @@
         <v>948</v>
       </c>
       <c r="M277">
-        <v>13.4200745840870006</v>
+        <v>13.4200745840870166</v>
       </c>
       <c r="N277">
-        <v>52.5266651608718220</v>
+        <v>52.5266651608718078</v>
       </c>
     </row>
     <row r="278">
@@ -16449,10 +16449,10 @@
         <v>23</v>
       </c>
       <c r="M278">
-        <v>13.2650208642817145</v>
+        <v>13.2650208642817287</v>
       </c>
       <c r="N278">
-        <v>52.4978584779060071</v>
+        <v>52.4978584779060000</v>
       </c>
     </row>
     <row r="279">
@@ -16484,10 +16484,10 @@
         <v>954</v>
       </c>
       <c r="M279">
-        <v>13.3012617866791967</v>
+        <v>13.3012617866792144</v>
       </c>
       <c r="N279">
-        <v>52.5392515223477972</v>
+        <v>52.5392515223477830</v>
       </c>
     </row>
     <row r="280">
@@ -16519,10 +16519,10 @@
         <v>957</v>
       </c>
       <c r="M280">
-        <v>13.3916175613680455</v>
+        <v>13.3916175613680615</v>
       </c>
       <c r="N280">
-        <v>52.5304070626129871</v>
+        <v>52.5304070626129800</v>
       </c>
     </row>
     <row r="281">
@@ -16554,10 +16554,10 @@
         <v>960</v>
       </c>
       <c r="M281">
-        <v>13.3730938257589447</v>
+        <v>13.3730938257589607</v>
       </c>
       <c r="N281">
-        <v>52.5464762350629968</v>
+        <v>52.5464762350629897</v>
       </c>
     </row>
     <row r="282">
@@ -16589,10 +16589,10 @@
         <v>963</v>
       </c>
       <c r="M282">
-        <v>13.2584356753092560</v>
+        <v>13.2584356753092720</v>
       </c>
       <c r="N282">
-        <v>52.5105811418111514</v>
+        <v>52.5105811418111443</v>
       </c>
     </row>
     <row r="283">
@@ -16624,10 +16624,10 @@
         <v>966</v>
       </c>
       <c r="M283">
-        <v>13.4312199811052508</v>
+        <v>13.4312199811052668</v>
       </c>
       <c r="N283">
-        <v>52.4804276213549556</v>
+        <v>52.4804276213549485</v>
       </c>
     </row>
     <row r="284">
@@ -16659,10 +16659,10 @@
         <v>969</v>
       </c>
       <c r="M284">
-        <v>13.3337007664914360</v>
+        <v>13.3337007664914520</v>
       </c>
       <c r="N284">
-        <v>52.4529401935971293</v>
+        <v>52.4529401935971222</v>
       </c>
     </row>
     <row r="285">
@@ -16694,10 +16694,10 @@
         <v>972</v>
       </c>
       <c r="M285">
-        <v>13.4859866329298583</v>
+        <v>13.4859866329298761</v>
       </c>
       <c r="N285">
-        <v>52.5100343760107791</v>
+        <v>52.5100343760107648</v>
       </c>
     </row>
     <row r="286">
@@ -16729,7 +16729,7 @@
         <v>975</v>
       </c>
       <c r="M286">
-        <v>13.4192202451537970</v>
+        <v>13.4192202451538147</v>
       </c>
       <c r="N286">
         <v>52.4934664784440841</v>
@@ -16764,7 +16764,7 @@
         <v>978</v>
       </c>
       <c r="M287">
-        <v>13.4395382856025645</v>
+        <v>13.4395382856025805</v>
       </c>
       <c r="N287">
         <v>52.4541976236900140</v>
@@ -16799,10 +16799,10 @@
         <v>978</v>
       </c>
       <c r="M288">
-        <v>13.4389501505980213</v>
+        <v>13.4389501505980373</v>
       </c>
       <c r="N288">
-        <v>52.4541353193721136</v>
+        <v>52.4541353193721065</v>
       </c>
     </row>
     <row r="289">
@@ -16834,10 +16834,10 @@
         <v>983</v>
       </c>
       <c r="M289">
-        <v>13.4301989432471860</v>
+        <v>13.4301989432472020</v>
       </c>
       <c r="N289">
-        <v>52.4641413141641948</v>
+        <v>52.4641413141641877</v>
       </c>
     </row>
     <row r="290">
@@ -16869,10 +16869,10 @@
         <v>986</v>
       </c>
       <c r="M290">
-        <v>13.3253705561873446</v>
+        <v>13.3253705561873588</v>
       </c>
       <c r="N290">
-        <v>52.5735350045969909</v>
+        <v>52.5735350045969838</v>
       </c>
     </row>
     <row r="291">
@@ -16904,10 +16904,10 @@
         <v>990</v>
       </c>
       <c r="M291">
-        <v>13.4727423843015988</v>
+        <v>13.4727423843016147</v>
       </c>
       <c r="N291">
-        <v>52.4224119866146552</v>
+        <v>52.4224119866146410</v>
       </c>
     </row>
     <row r="292">
@@ -16939,10 +16939,10 @@
         <v>993</v>
       </c>
       <c r="M292">
-        <v>13.2766529828163371</v>
+        <v>13.2766529828163549</v>
       </c>
       <c r="N292">
-        <v>52.4849293948219682</v>
+        <v>52.4849293948219540</v>
       </c>
     </row>
     <row r="293">
@@ -16974,10 +16974,10 @@
         <v>996</v>
       </c>
       <c r="M293">
-        <v>13.2951720214394058</v>
+        <v>13.2951720214394236</v>
       </c>
       <c r="N293">
-        <v>52.5873365836250457</v>
+        <v>52.5873365836250528</v>
       </c>
     </row>
     <row r="294">
@@ -17009,10 +17009,10 @@
         <v>999</v>
       </c>
       <c r="M294">
-        <v>13.4323842555153146</v>
+        <v>13.4323842555153306</v>
       </c>
       <c r="N294">
-        <v>52.5338464641534983</v>
+        <v>52.5338464641534912</v>
       </c>
     </row>
     <row r="295">
@@ -17044,10 +17044,10 @@
         <v>1002</v>
       </c>
       <c r="M295">
-        <v>13.4929923089893204</v>
+        <v>13.4929923089893382</v>
       </c>
       <c r="N295">
-        <v>52.6329239862684517</v>
+        <v>52.6329239862684304</v>
       </c>
     </row>
     <row r="296">
@@ -17079,10 +17079,10 @@
         <v>1005</v>
       </c>
       <c r="M296">
-        <v>13.3758979493457542</v>
+        <v>13.3758979493457701</v>
       </c>
       <c r="N296">
-        <v>52.4783694058103123</v>
+        <v>52.4783694058102981</v>
       </c>
     </row>
     <row r="297">
@@ -17114,10 +17114,10 @@
         <v>1008</v>
       </c>
       <c r="M297">
-        <v>13.4569118333635576</v>
+        <v>13.4569118333635735</v>
       </c>
       <c r="N297">
-        <v>52.4252876135963959</v>
+        <v>52.4252876135963888</v>
       </c>
     </row>
     <row r="298">
@@ -17149,7 +17149,7 @@
         <v>1011</v>
       </c>
       <c r="M298">
-        <v>13.2886379550391052</v>
+        <v>13.2886379550391212</v>
       </c>
       <c r="N298">
         <v>52.5918382937064166</v>
@@ -17184,7 +17184,7 @@
         <v>1014</v>
       </c>
       <c r="M299">
-        <v>13.3801919281183768</v>
+        <v>13.3801919281183928</v>
       </c>
       <c r="N299">
         <v>52.5435158009042311</v>
@@ -17219,7 +17219,7 @@
         <v>1017</v>
       </c>
       <c r="M300">
-        <v>13.4265648349897724</v>
+        <v>13.4265648349897901</v>
       </c>
       <c r="N300">
         <v>52.4978510940886025</v>
@@ -17254,7 +17254,7 @@
         <v>1020</v>
       </c>
       <c r="M301">
-        <v>13.3836878224361406</v>
+        <v>13.3836878224361566</v>
       </c>
       <c r="N301">
         <v>52.4335578303083949</v>
@@ -17289,10 +17289,10 @@
         <v>1024</v>
       </c>
       <c r="M302">
-        <v>13.4894272675760725</v>
+        <v>13.4894272675760902</v>
       </c>
       <c r="N302">
-        <v>52.5019900723020854</v>
+        <v>52.5019900723020712</v>
       </c>
     </row>
     <row r="303">
@@ -17324,10 +17324,10 @@
         <v>1027</v>
       </c>
       <c r="M303">
-        <v>13.3052384566754274</v>
+        <v>13.3052384566754451</v>
       </c>
       <c r="N303">
-        <v>52.4923984018643566</v>
+        <v>52.4923984018643424</v>
       </c>
     </row>
     <row r="304">
@@ -17359,10 +17359,10 @@
         <v>1030</v>
       </c>
       <c r="M304">
-        <v>13.5184252637914017</v>
+        <v>13.5184252637914177</v>
       </c>
       <c r="N304">
-        <v>52.4657662087321270</v>
+        <v>52.4657662087321128</v>
       </c>
     </row>
     <row r="305">
@@ -17394,7 +17394,7 @@
         <v>1033</v>
       </c>
       <c r="M305">
-        <v>13.4076832352439634</v>
+        <v>13.4076832352439794</v>
       </c>
       <c r="N305">
         <v>52.5630597364187793</v>
@@ -17429,10 +17429,10 @@
         <v>1036</v>
       </c>
       <c r="M306">
-        <v>13.4573478164034501</v>
+        <v>13.4573478164034661</v>
       </c>
       <c r="N306">
-        <v>52.4211549843830937</v>
+        <v>52.4211549843830866</v>
       </c>
     </row>
     <row r="307">
@@ -17473,10 +17473,10 @@
         <v>367</v>
       </c>
       <c r="M307">
-        <v>13.3151377430078579</v>
+        <v>13.3151377430078739</v>
       </c>
       <c r="N307">
-        <v>52.4557774624190216</v>
+        <v>52.4557774624190145</v>
       </c>
     </row>
     <row r="308">
@@ -17508,7 +17508,7 @@
         <v>1042</v>
       </c>
       <c r="M308">
-        <v>13.3355290973391583</v>
+        <v>13.3355290973391742</v>
       </c>
       <c r="N308">
         <v>52.5897513063957547</v>
@@ -17543,7 +17543,7 @@
         <v>1046</v>
       </c>
       <c r="M309">
-        <v>13.4340391977769666</v>
+        <v>13.4340391977769826</v>
       </c>
       <c r="N309">
         <v>52.6041663519978187</v>
@@ -17578,10 +17578,10 @@
         <v>1049</v>
       </c>
       <c r="M310">
-        <v>13.5959211537979812</v>
+        <v>13.5959211537979971</v>
       </c>
       <c r="N310">
-        <v>52.5454570687077762</v>
+        <v>52.5454570687077620</v>
       </c>
     </row>
     <row r="311">
@@ -17613,10 +17613,10 @@
         <v>1052</v>
       </c>
       <c r="M311">
-        <v>13.4159800775072231</v>
+        <v>13.4159800775072391</v>
       </c>
       <c r="N311">
-        <v>52.4970805404662784</v>
+        <v>52.4970805404662642</v>
       </c>
     </row>
     <row r="312">
@@ -17648,10 +17648,10 @@
         <v>1055</v>
       </c>
       <c r="M312">
-        <v>13.3199690196925857</v>
+        <v>13.3199690196926017</v>
       </c>
       <c r="N312">
-        <v>52.5035584000141498</v>
+        <v>52.5035584000141426</v>
       </c>
     </row>
     <row r="313">
@@ -17683,10 +17683,10 @@
         <v>1058</v>
       </c>
       <c r="M313">
-        <v>13.2126682984509127</v>
+        <v>13.2126682984509287</v>
       </c>
       <c r="N313">
-        <v>52.4315549573005768</v>
+        <v>52.4315549573005697</v>
       </c>
     </row>
     <row r="314">
@@ -17718,10 +17718,10 @@
         <v>1061</v>
       </c>
       <c r="M314">
-        <v>13.4670504673815277</v>
+        <v>13.4670504673815454</v>
       </c>
       <c r="N314">
-        <v>52.5269840870001801</v>
+        <v>52.5269840870001730</v>
       </c>
     </row>
     <row r="315">
@@ -17753,10 +17753,10 @@
         <v>1064</v>
       </c>
       <c r="M315">
-        <v>13.5785727628899586</v>
+        <v>13.5785727628899746</v>
       </c>
       <c r="N315">
-        <v>52.5700247458647993</v>
+        <v>52.5700247458647922</v>
       </c>
     </row>
     <row r="316">
@@ -17788,10 +17788,10 @@
         <v>1067</v>
       </c>
       <c r="M316">
-        <v>13.3195267596849085</v>
+        <v>13.3195267596849245</v>
       </c>
       <c r="N316">
-        <v>52.4951745735660680</v>
+        <v>52.4951745735660538</v>
       </c>
     </row>
     <row r="317">
@@ -17823,10 +17823,10 @@
         <v>1070</v>
       </c>
       <c r="M317">
-        <v>13.5598216078537064</v>
+        <v>13.5598216078537224</v>
       </c>
       <c r="N317">
-        <v>52.5300752760322496</v>
+        <v>52.5300752760322567</v>
       </c>
     </row>
     <row r="318">
@@ -17861,10 +17861,10 @@
         <v>23</v>
       </c>
       <c r="M318">
-        <v>13.2618966364529349</v>
+        <v>13.2618966364529527</v>
       </c>
       <c r="N318">
-        <v>52.4257346327802694</v>
+        <v>52.4257346327802622</v>
       </c>
     </row>
     <row r="319">
@@ -17896,7 +17896,7 @@
         <v>1076</v>
       </c>
       <c r="M319">
-        <v>13.4043188611830839</v>
+        <v>13.4043188611830999</v>
       </c>
       <c r="N319">
         <v>52.5308333069714806</v>
@@ -17931,7 +17931,7 @@
         <v>1079</v>
       </c>
       <c r="M320">
-        <v>13.2932299980673854</v>
+        <v>13.2932299980674014</v>
       </c>
       <c r="N320">
         <v>52.4761155842628852</v>
@@ -17966,7 +17966,7 @@
         <v>513</v>
       </c>
       <c r="M321">
-        <v>13.2825513616457158</v>
+        <v>13.2825513616457318</v>
       </c>
       <c r="N321">
         <v>52.5882966940044270</v>
@@ -18001,10 +18001,10 @@
         <v>1084</v>
       </c>
       <c r="M322">
-        <v>13.4581424914616985</v>
+        <v>13.4581424914617127</v>
       </c>
       <c r="N322">
-        <v>52.5188038878055679</v>
+        <v>52.5188038878055607</v>
       </c>
     </row>
     <row r="323">
@@ -18036,7 +18036,7 @@
         <v>1087</v>
       </c>
       <c r="M323">
-        <v>13.2005462496136463</v>
+        <v>13.2005462496136641</v>
       </c>
       <c r="N323">
         <v>52.5430116592030814</v>
@@ -18071,7 +18071,7 @@
         <v>1090</v>
       </c>
       <c r="M324">
-        <v>13.5640280902815444</v>
+        <v>13.5640280902815586</v>
       </c>
       <c r="N324">
         <v>52.5531440786968105</v>
@@ -18106,7 +18106,7 @@
         <v>1093</v>
       </c>
       <c r="M325">
-        <v>13.4209790103518838</v>
+        <v>13.4209790103518980</v>
       </c>
       <c r="N325">
         <v>52.4822480118725281</v>
@@ -18141,10 +18141,10 @@
         <v>1096</v>
       </c>
       <c r="M326">
-        <v>13.5200410242605518</v>
+        <v>13.5200410242605695</v>
       </c>
       <c r="N326">
-        <v>52.4891978211288830</v>
+        <v>52.4891978211288759</v>
       </c>
     </row>
     <row r="327">
@@ -18176,10 +18176,10 @@
         <v>1099</v>
       </c>
       <c r="M327">
-        <v>13.4240320228192971</v>
+        <v>13.4240320228193131</v>
       </c>
       <c r="N327">
-        <v>52.4764362627621921</v>
+        <v>52.4764362627621850</v>
       </c>
     </row>
     <row r="328">
@@ -18211,7 +18211,7 @@
         <v>1102</v>
       </c>
       <c r="M328">
-        <v>13.4018660592308549</v>
+        <v>13.4018660592308727</v>
       </c>
       <c r="N328">
         <v>52.5266616248217204</v>
@@ -18246,7 +18246,7 @@
         <v>1105</v>
       </c>
       <c r="M329">
-        <v>13.3063846196342865</v>
+        <v>13.3063846196343025</v>
       </c>
       <c r="N329">
         <v>52.4939193454190800</v>
@@ -18281,10 +18281,10 @@
         <v>1108</v>
       </c>
       <c r="M330">
-        <v>13.4048731406995199</v>
+        <v>13.4048731406995358</v>
       </c>
       <c r="N330">
-        <v>52.3862018323322758</v>
+        <v>52.3862018323322616</v>
       </c>
     </row>
     <row r="331">
@@ -18316,10 +18316,10 @@
         <v>1111</v>
       </c>
       <c r="M331">
-        <v>13.4233051850525786</v>
+        <v>13.4233051850525946</v>
       </c>
       <c r="N331">
-        <v>52.5456107099700134</v>
+        <v>52.5456107099699992</v>
       </c>
     </row>
     <row r="332">
@@ -18351,10 +18351,10 @@
         <v>1114</v>
       </c>
       <c r="M332">
-        <v>13.3101169896736771</v>
+        <v>13.3101169896736931</v>
       </c>
       <c r="N332">
-        <v>52.4381394946782677</v>
+        <v>52.4381394946782606</v>
       </c>
     </row>
     <row r="333">
@@ -18386,10 +18386,10 @@
         <v>1117</v>
       </c>
       <c r="M333">
-        <v>13.4642925401809102</v>
+        <v>13.4642925401809261</v>
       </c>
       <c r="N333">
-        <v>52.4673626190835307</v>
+        <v>52.4673626190835236</v>
       </c>
     </row>
     <row r="334">
@@ -18424,10 +18424,10 @@
         <v>832</v>
       </c>
       <c r="M334">
-        <v>13.5794715404766748</v>
+        <v>13.5794715404766908</v>
       </c>
       <c r="N334">
-        <v>52.5667387670112731</v>
+        <v>52.5667387670112589</v>
       </c>
     </row>
     <row r="335">
@@ -18459,7 +18459,7 @@
         <v>1123</v>
       </c>
       <c r="M335">
-        <v>13.6095143169862851</v>
+        <v>13.6095143169863011</v>
       </c>
       <c r="N335">
         <v>52.4939158826564380</v>
@@ -18494,7 +18494,7 @@
         <v>1126</v>
       </c>
       <c r="M336">
-        <v>13.3735570931791177</v>
+        <v>13.3735570931791337</v>
       </c>
       <c r="N336">
         <v>52.4158957232643701</v>
@@ -18529,10 +18529,10 @@
         <v>1129</v>
       </c>
       <c r="M337">
-        <v>13.4075406837048430</v>
+        <v>13.4075406837048590</v>
       </c>
       <c r="N337">
-        <v>52.5597075205972502</v>
+        <v>52.5597075205972430</v>
       </c>
     </row>
     <row r="338">
@@ -18564,10 +18564,10 @@
         <v>1132</v>
       </c>
       <c r="M338">
-        <v>13.5579809792722408</v>
+        <v>13.5579809792722568</v>
       </c>
       <c r="N338">
-        <v>52.4905568586595948</v>
+        <v>52.4905568586595876</v>
       </c>
     </row>
     <row r="339">
@@ -18599,10 +18599,10 @@
         <v>1135</v>
       </c>
       <c r="M339">
-        <v>13.1803666835166968</v>
+        <v>13.1803666835167146</v>
       </c>
       <c r="N339">
-        <v>52.5385716240809799</v>
+        <v>52.5385716240809728</v>
       </c>
     </row>
     <row r="340">
@@ -18634,10 +18634,10 @@
         <v>1138</v>
       </c>
       <c r="M340">
-        <v>13.6189627238290925</v>
+        <v>13.6189627238291084</v>
       </c>
       <c r="N340">
-        <v>52.5326667668316745</v>
+        <v>52.5326667668316674</v>
       </c>
     </row>
     <row r="341">
@@ -18669,7 +18669,7 @@
         <v>1141</v>
       </c>
       <c r="M341">
-        <v>13.3411056308976956</v>
+        <v>13.3411056308977116</v>
       </c>
       <c r="N341">
         <v>52.5033929303233933</v>
@@ -18704,7 +18704,7 @@
         <v>1144</v>
       </c>
       <c r="M342">
-        <v>13.3670702968565269</v>
+        <v>13.3670702968565447</v>
       </c>
       <c r="N342">
         <v>52.5755137510430970</v>
@@ -18739,10 +18739,10 @@
         <v>1147</v>
       </c>
       <c r="M343">
-        <v>13.1919906859955596</v>
+        <v>13.1919906859955756</v>
       </c>
       <c r="N343">
-        <v>52.5302340208815437</v>
+        <v>52.5302340208815366</v>
       </c>
     </row>
     <row r="344">
@@ -18774,10 +18774,10 @@
         <v>1150</v>
       </c>
       <c r="M344">
-        <v>13.4354914913729750</v>
+        <v>13.4354914913729910</v>
       </c>
       <c r="N344">
-        <v>52.4725902071925390</v>
+        <v>52.4725902071925248</v>
       </c>
     </row>
     <row r="345">
@@ -18809,10 +18809,10 @@
         <v>1153</v>
       </c>
       <c r="M345">
-        <v>13.4175767861159763</v>
+        <v>13.4175767861159940</v>
       </c>
       <c r="N345">
-        <v>52.5819293967134200</v>
+        <v>52.5819293967134058</v>
       </c>
     </row>
     <row r="346">
@@ -18844,10 +18844,10 @@
         <v>1156</v>
       </c>
       <c r="M346">
-        <v>13.6209908960214232</v>
+        <v>13.6209908960214392</v>
       </c>
       <c r="N346">
-        <v>52.5290129733008726</v>
+        <v>52.5290129733008655</v>
       </c>
     </row>
     <row r="347">
@@ -18879,7 +18879,7 @@
         <v>1159</v>
       </c>
       <c r="M347">
-        <v>13.3200829302450874</v>
+        <v>13.3200829302451034</v>
       </c>
       <c r="N347">
         <v>52.4638990286821425</v>
@@ -18914,10 +18914,10 @@
         <v>1162</v>
       </c>
       <c r="M348">
-        <v>13.3126119054155225</v>
+        <v>13.3126119054155385</v>
       </c>
       <c r="N348">
-        <v>52.4415152498917294</v>
+        <v>52.4415152498917152</v>
       </c>
     </row>
     <row r="349">
@@ -18949,10 +18949,10 @@
         <v>1165</v>
       </c>
       <c r="M349">
-        <v>13.3885777643348423</v>
+        <v>13.3885777643348582</v>
       </c>
       <c r="N349">
-        <v>52.5050454745204647</v>
+        <v>52.5050454745204576</v>
       </c>
     </row>
     <row r="350">
@@ -18984,10 +18984,10 @@
         <v>1168</v>
       </c>
       <c r="M350">
-        <v>13.4282268930360047</v>
+        <v>13.4282268930360225</v>
       </c>
       <c r="N350">
-        <v>52.5315956346069228</v>
+        <v>52.5315956346069086</v>
       </c>
     </row>
     <row r="351">
@@ -19019,10 +19019,10 @@
         <v>1171</v>
       </c>
       <c r="M351">
-        <v>13.3531291129295049</v>
+        <v>13.3531291129295209</v>
       </c>
       <c r="N351">
-        <v>52.5303009907513143</v>
+        <v>52.5303009907513001</v>
       </c>
     </row>
     <row r="352">
@@ -19054,7 +19054,7 @@
         <v>1174</v>
       </c>
       <c r="M352">
-        <v>13.4233523168897886</v>
+        <v>13.4233523168898046</v>
       </c>
       <c r="N352">
         <v>52.5577362469179050</v>
@@ -19089,10 +19089,10 @@
         <v>1177</v>
       </c>
       <c r="M353">
-        <v>13.3591264794329483</v>
+        <v>13.3591264794329643</v>
       </c>
       <c r="N353">
-        <v>52.6036939114614910</v>
+        <v>52.6036939114614768</v>
       </c>
     </row>
     <row r="354">
@@ -19127,10 +19127,10 @@
         <v>23</v>
       </c>
       <c r="M354">
-        <v>13.3596447553203088</v>
+        <v>13.3596447553203266</v>
       </c>
       <c r="N354">
-        <v>52.6037148074905261</v>
+        <v>52.6037148074905190</v>
       </c>
     </row>
     <row r="355">
@@ -19162,7 +19162,7 @@
         <v>1182</v>
       </c>
       <c r="M355">
-        <v>13.3974852536396316</v>
+        <v>13.3974852536396476</v>
       </c>
       <c r="N355">
         <v>52.4899251959518978</v>
@@ -19197,7 +19197,7 @@
         <v>1185</v>
       </c>
       <c r="M356">
-        <v>13.4164341193450287</v>
+        <v>13.4164341193450447</v>
       </c>
       <c r="N356">
         <v>52.4941912689049914</v>
@@ -19232,7 +19232,7 @@
         <v>1188</v>
       </c>
       <c r="M357">
-        <v>13.3916796700719392</v>
+        <v>13.3916796700719551</v>
       </c>
       <c r="N357">
         <v>52.4939263110610312</v>
@@ -19267,10 +19267,10 @@
         <v>1191</v>
       </c>
       <c r="M358">
-        <v>13.3619141925338969</v>
+        <v>13.3619141925339129</v>
       </c>
       <c r="N358">
-        <v>52.5445421242810653</v>
+        <v>52.5445421242810582</v>
       </c>
     </row>
     <row r="359">
@@ -19302,7 +19302,7 @@
         <v>1194</v>
       </c>
       <c r="M359">
-        <v>13.4258050224431056</v>
+        <v>13.4258050224431216</v>
       </c>
       <c r="N359">
         <v>52.4164139323201610</v>
@@ -19337,10 +19337,10 @@
         <v>1197</v>
       </c>
       <c r="M360">
-        <v>13.3438918903604389</v>
+        <v>13.3438918903604549</v>
       </c>
       <c r="N360">
-        <v>52.5572909142978304</v>
+        <v>52.5572909142978233</v>
       </c>
     </row>
     <row r="361">
@@ -19372,10 +19372,10 @@
         <v>1200</v>
       </c>
       <c r="M361">
-        <v>13.5381044737868148</v>
+        <v>13.5381044737868308</v>
       </c>
       <c r="N361">
-        <v>52.4921279703962398</v>
+        <v>52.4921279703962327</v>
       </c>
     </row>
     <row r="362">
@@ -19407,7 +19407,7 @@
         <v>1203</v>
       </c>
       <c r="M362">
-        <v>13.4734686947868756</v>
+        <v>13.4734686947868916</v>
       </c>
       <c r="N362">
         <v>52.4272352847209149</v>
@@ -19445,10 +19445,10 @@
         <v>23</v>
       </c>
       <c r="M363">
-        <v>13.3915115729890637</v>
+        <v>13.3915115729890797</v>
       </c>
       <c r="N363">
-        <v>52.5015644703564632</v>
+        <v>52.5015644703564490</v>
       </c>
     </row>
     <row r="364">
@@ -19480,10 +19480,10 @@
         <v>1208</v>
       </c>
       <c r="M364">
-        <v>13.2947384548603846</v>
+        <v>13.2947384548604006</v>
       </c>
       <c r="N364">
-        <v>52.5093612335893738</v>
+        <v>52.5093612335893667</v>
       </c>
     </row>
     <row r="365">
@@ -19515,10 +19515,10 @@
         <v>1211</v>
       </c>
       <c r="M365">
-        <v>13.3124468367767115</v>
+        <v>13.3124468367767257</v>
       </c>
       <c r="N365">
-        <v>52.4357795179398138</v>
+        <v>52.4357795179398067</v>
       </c>
     </row>
     <row r="366">
@@ -19550,10 +19550,10 @@
         <v>1214</v>
       </c>
       <c r="M366">
-        <v>13.1992170754020144</v>
+        <v>13.1992170754020322</v>
       </c>
       <c r="N366">
-        <v>52.5382709570218509</v>
+        <v>52.5382709570218438</v>
       </c>
     </row>
     <row r="367">
@@ -19585,10 +19585,10 @@
         <v>1217</v>
       </c>
       <c r="M367">
-        <v>13.3896449888723730</v>
+        <v>13.3896449888723890</v>
       </c>
       <c r="N367">
-        <v>52.4914482479741551</v>
+        <v>52.4914482479741480</v>
       </c>
     </row>
     <row r="368">
@@ -19620,7 +19620,7 @@
         <v>1220</v>
       </c>
       <c r="M368">
-        <v>13.1407284853550355</v>
+        <v>13.1407284853550514</v>
       </c>
       <c r="N368">
         <v>52.5351587890284293</v>
@@ -19655,10 +19655,10 @@
         <v>1223</v>
       </c>
       <c r="M369">
-        <v>13.3632060352717179</v>
+        <v>13.3632060352717339</v>
       </c>
       <c r="N369">
-        <v>52.4580025843111173</v>
+        <v>52.4580025843111031</v>
       </c>
     </row>
     <row r="370">
@@ -19690,7 +19690,7 @@
         <v>1226</v>
       </c>
       <c r="M370">
-        <v>13.4445282192225655</v>
+        <v>13.4445282192225815</v>
       </c>
       <c r="N370">
         <v>52.4225885011929478</v>
@@ -19725,10 +19725,10 @@
         <v>1229</v>
       </c>
       <c r="M371">
-        <v>13.3434955396017294</v>
+        <v>13.3434955396017454</v>
       </c>
       <c r="N371">
-        <v>52.4894461156850198</v>
+        <v>52.4894461156850056</v>
       </c>
     </row>
     <row r="372">
@@ -19760,7 +19760,7 @@
         <v>1232</v>
       </c>
       <c r="M372">
-        <v>13.4486660795712467</v>
+        <v>13.4486660795712645</v>
       </c>
       <c r="N372">
         <v>52.4724148627927391</v>
@@ -19795,10 +19795,10 @@
         <v>1235</v>
       </c>
       <c r="M373">
-        <v>13.3624318863418665</v>
+        <v>13.3624318863418825</v>
       </c>
       <c r="N373">
-        <v>52.4325021340623394</v>
+        <v>52.4325021340623323</v>
       </c>
     </row>
     <row r="374">
@@ -19830,10 +19830,10 @@
         <v>1238</v>
       </c>
       <c r="M374">
-        <v>13.3160362463814792</v>
+        <v>13.3160362463814952</v>
       </c>
       <c r="N374">
-        <v>52.5159918323319417</v>
+        <v>52.5159918323319275</v>
       </c>
     </row>
     <row r="375">
@@ -19865,10 +19865,10 @@
         <v>1241</v>
       </c>
       <c r="M375">
-        <v>13.3839246638787301</v>
+        <v>13.3839246638787444</v>
       </c>
       <c r="N375">
-        <v>52.4471784903016101</v>
+        <v>52.4471784903016029</v>
       </c>
     </row>
     <row r="376">
@@ -19900,10 +19900,10 @@
         <v>1244</v>
       </c>
       <c r="M376">
-        <v>13.4488592641204718</v>
+        <v>13.4488592641204878</v>
       </c>
       <c r="N376">
-        <v>52.5142772656454753</v>
+        <v>52.5142772656454611</v>
       </c>
     </row>
     <row r="377">
@@ -19935,10 +19935,10 @@
         <v>1247</v>
       </c>
       <c r="M377">
-        <v>13.3909021191351698</v>
+        <v>13.3909021191351858</v>
       </c>
       <c r="N377">
-        <v>52.4653285246096601</v>
+        <v>52.4653285246096530</v>
       </c>
     </row>
     <row r="378">
@@ -19970,10 +19970,10 @@
         <v>1250</v>
       </c>
       <c r="M378">
-        <v>13.2067520597948480</v>
+        <v>13.2067520597948622</v>
       </c>
       <c r="N378">
-        <v>52.5477652493196459</v>
+        <v>52.5477652493196388</v>
       </c>
     </row>
     <row r="379">
@@ -20005,10 +20005,10 @@
         <v>1253</v>
       </c>
       <c r="M379">
-        <v>13.6292891983847131</v>
+        <v>13.6292891983847309</v>
       </c>
       <c r="N379">
-        <v>52.5218903817871094</v>
+        <v>52.5218903817871023</v>
       </c>
     </row>
     <row r="380">
@@ -20040,7 +20040,7 @@
         <v>1256</v>
       </c>
       <c r="M380">
-        <v>13.4930735094361012</v>
+        <v>13.4930735094361172</v>
       </c>
       <c r="N380">
         <v>52.5417595799840171</v>
@@ -20078,10 +20078,10 @@
         <v>23</v>
       </c>
       <c r="M381">
-        <v>13.5656244570031284</v>
+        <v>13.5656244570031443</v>
       </c>
       <c r="N381">
-        <v>52.5639735919768256</v>
+        <v>52.5639735919768114</v>
       </c>
     </row>
     <row r="382">
@@ -20116,10 +20116,10 @@
         <v>23</v>
       </c>
       <c r="M382">
-        <v>13.4346192861837341</v>
+        <v>13.4346192861837501</v>
       </c>
       <c r="N382">
-        <v>52.5197808244741395</v>
+        <v>52.5197808244741324</v>
       </c>
     </row>
     <row r="383">
@@ -20151,10 +20151,10 @@
         <v>1265</v>
       </c>
       <c r="M383">
-        <v>13.3808345963466060</v>
+        <v>13.3808345963466202</v>
       </c>
       <c r="N383">
-        <v>52.4582670074224353</v>
+        <v>52.4582670074224424</v>
       </c>
     </row>
     <row r="384">
@@ -20189,10 +20189,10 @@
         <v>23</v>
       </c>
       <c r="M384">
-        <v>13.4913667124984862</v>
+        <v>13.4913667124985022</v>
       </c>
       <c r="N384">
-        <v>52.6293914034037940</v>
+        <v>52.6293914034037797</v>
       </c>
     </row>
     <row r="385">
@@ -20224,7 +20224,7 @@
         <v>1271</v>
       </c>
       <c r="M385">
-        <v>13.4182233442979051</v>
+        <v>13.4182233442979211</v>
       </c>
       <c r="N385">
         <v>52.4642313470376180</v>
@@ -20259,10 +20259,10 @@
         <v>1274</v>
       </c>
       <c r="M386">
-        <v>13.3245662618982479</v>
+        <v>13.3245662618982639</v>
       </c>
       <c r="N386">
-        <v>52.4804162858917778</v>
+        <v>52.4804162858917707</v>
       </c>
     </row>
     <row r="387">
@@ -20294,7 +20294,7 @@
         <v>1277</v>
       </c>
       <c r="M387">
-        <v>13.3524068634341493</v>
+        <v>13.3524068634341635</v>
       </c>
       <c r="N387">
         <v>52.4120004401492068</v>
@@ -20329,10 +20329,10 @@
         <v>1280</v>
       </c>
       <c r="M388">
-        <v>13.3600408989277035</v>
+        <v>13.3600408989277195</v>
       </c>
       <c r="N388">
-        <v>52.5953222114956276</v>
+        <v>52.5953222114956205</v>
       </c>
     </row>
     <row r="389">
@@ -20364,10 +20364,10 @@
         <v>1283</v>
       </c>
       <c r="M389">
-        <v>13.3264512071179322</v>
+        <v>13.3264512071179482</v>
       </c>
       <c r="N389">
-        <v>52.5695091171286251</v>
+        <v>52.5695091171286109</v>
       </c>
     </row>
     <row r="390">
@@ -20399,10 +20399,10 @@
         <v>1286</v>
       </c>
       <c r="M390">
-        <v>13.3425262319102966</v>
+        <v>13.3425262319103144</v>
       </c>
       <c r="N390">
-        <v>52.4495629792427422</v>
+        <v>52.4495629792427351</v>
       </c>
     </row>
     <row r="391">
@@ -20434,10 +20434,10 @@
         <v>1289</v>
       </c>
       <c r="M391">
-        <v>13.1558509976958007</v>
+        <v>13.1558509976958167</v>
       </c>
       <c r="N391">
-        <v>52.5476420314117618</v>
+        <v>52.5476420314117547</v>
       </c>
     </row>
     <row r="392">
@@ -20469,7 +20469,7 @@
         <v>1292</v>
       </c>
       <c r="M392">
-        <v>13.4727941891733956</v>
+        <v>13.4727941891734115</v>
       </c>
       <c r="N392">
         <v>52.4210433841302219</v>
@@ -20504,7 +20504,7 @@
         <v>1295</v>
       </c>
       <c r="M393">
-        <v>13.3079354894650486</v>
+        <v>13.3079354894650645</v>
       </c>
       <c r="N393">
         <v>52.6203751580149799</v>
@@ -20539,10 +20539,10 @@
         <v>1298</v>
       </c>
       <c r="M394">
-        <v>13.5125654751043101</v>
+        <v>13.5125654751043260</v>
       </c>
       <c r="N394">
-        <v>52.5635991256703008</v>
+        <v>52.5635991256702937</v>
       </c>
     </row>
     <row r="395">
@@ -20574,10 +20574,10 @@
         <v>1301</v>
       </c>
       <c r="M395">
-        <v>13.1275140156131549</v>
+        <v>13.1275140156131709</v>
       </c>
       <c r="N395">
-        <v>52.4721974201072712</v>
+        <v>52.4721974201072570</v>
       </c>
     </row>
     <row r="396">
@@ -20609,10 +20609,10 @@
         <v>1304</v>
       </c>
       <c r="M396">
-        <v>13.5211384390336793</v>
+        <v>13.5211384390336953</v>
       </c>
       <c r="N396">
-        <v>52.5712482550252531</v>
+        <v>52.5712482550252460</v>
       </c>
     </row>
     <row r="397">
@@ -20644,10 +20644,10 @@
         <v>1307</v>
       </c>
       <c r="M397">
-        <v>13.5011119550482839</v>
+        <v>13.5011119550482999</v>
       </c>
       <c r="N397">
-        <v>52.4204370075475978</v>
+        <v>52.4204370075475907</v>
       </c>
     </row>
     <row r="398">
@@ -20679,10 +20679,10 @@
         <v>1310</v>
       </c>
       <c r="M398">
-        <v>13.3144147344933934</v>
+        <v>13.3144147344934094</v>
       </c>
       <c r="N398">
-        <v>52.5713929990300457</v>
+        <v>52.5713929990300386</v>
       </c>
     </row>
     <row r="399">
@@ -20714,7 +20714,7 @@
         <v>1313</v>
       </c>
       <c r="M399">
-        <v>13.4021136337460600</v>
+        <v>13.4021136337460760</v>
       </c>
       <c r="N399">
         <v>52.5838187826124752</v>
@@ -20749,10 +20749,10 @@
         <v>1316</v>
       </c>
       <c r="M400">
-        <v>13.4233424978010110</v>
+        <v>13.4233424978010270</v>
       </c>
       <c r="N400">
-        <v>52.5164863929771784</v>
+        <v>52.5164863929771712</v>
       </c>
     </row>
     <row r="401">
@@ -20784,10 +20784,10 @@
         <v>1319</v>
       </c>
       <c r="M401">
-        <v>13.3057034588491412</v>
+        <v>13.3057034588491572</v>
       </c>
       <c r="N401">
-        <v>52.4372154491380016</v>
+        <v>52.4372154491379874</v>
       </c>
     </row>
     <row r="402">
@@ -20819,7 +20819,7 @@
         <v>1322</v>
       </c>
       <c r="M402">
-        <v>13.6186868520704625</v>
+        <v>13.6186868520704785</v>
       </c>
       <c r="N402">
         <v>52.5343382359298445</v>
@@ -20854,7 +20854,7 @@
         <v>1325</v>
       </c>
       <c r="M403">
-        <v>13.5106581688971943</v>
+        <v>13.5106581688972103</v>
       </c>
       <c r="N403">
         <v>52.4469726549232220</v>
@@ -20889,7 +20889,7 @@
         <v>1328</v>
       </c>
       <c r="M404">
-        <v>13.4156685673125686</v>
+        <v>13.4156685673125846</v>
       </c>
       <c r="N404">
         <v>52.5737798031811749</v>
@@ -20924,7 +20924,7 @@
         <v>1331</v>
       </c>
       <c r="M405">
-        <v>13.3170495997785956</v>
+        <v>13.3170495997786134</v>
       </c>
       <c r="N405">
         <v>52.4122231612634977</v>
@@ -20959,10 +20959,10 @@
         <v>1334</v>
       </c>
       <c r="M406">
-        <v>13.5769078803360355</v>
+        <v>13.5769078803360514</v>
       </c>
       <c r="N406">
-        <v>52.4643309257642727</v>
+        <v>52.4643309257642585</v>
       </c>
     </row>
     <row r="407">
@@ -20994,10 +20994,10 @@
         <v>1337</v>
       </c>
       <c r="M407">
-        <v>13.5099540711802089</v>
+        <v>13.5099540711802231</v>
       </c>
       <c r="N407">
-        <v>52.4134472484894758</v>
+        <v>52.4134472484894687</v>
       </c>
     </row>
     <row r="408">
@@ -21029,7 +21029,7 @@
         <v>1340</v>
       </c>
       <c r="M408">
-        <v>13.3030000581330903</v>
+        <v>13.3030000581331080</v>
       </c>
       <c r="N408">
         <v>52.5233393428556639</v>
@@ -21064,7 +21064,7 @@
         <v>1343</v>
       </c>
       <c r="M409">
-        <v>13.4815226524036085</v>
+        <v>13.4815226524036262</v>
       </c>
       <c r="N409">
         <v>52.5112951856308428</v>
@@ -21099,10 +21099,10 @@
         <v>1346</v>
       </c>
       <c r="M410">
-        <v>13.3314922860106329</v>
+        <v>13.3314922860106506</v>
       </c>
       <c r="N410">
-        <v>52.5233769988948751</v>
+        <v>52.5233769988948680</v>
       </c>
     </row>
     <row r="411">
@@ -21134,10 +21134,10 @@
         <v>1349</v>
       </c>
       <c r="M411">
-        <v>13.3568330443122498</v>
+        <v>13.3568330443122658</v>
       </c>
       <c r="N411">
-        <v>52.5222207198214193</v>
+        <v>52.5222207198214122</v>
       </c>
     </row>
     <row r="412">
@@ -21169,10 +21169,10 @@
         <v>1352</v>
       </c>
       <c r="M412">
-        <v>13.4601611992005150</v>
+        <v>13.4601611992005310</v>
       </c>
       <c r="N412">
-        <v>52.5069894551808716</v>
+        <v>52.5069894551808574</v>
       </c>
     </row>
     <row r="413">
@@ -21204,10 +21204,10 @@
         <v>1355</v>
       </c>
       <c r="M413">
-        <v>13.3348997198561392</v>
+        <v>13.3348997198561552</v>
       </c>
       <c r="N413">
-        <v>52.5547690506240244</v>
+        <v>52.5547690506240173</v>
       </c>
     </row>
     <row r="414">
@@ -21239,10 +21239,10 @@
         <v>1359</v>
       </c>
       <c r="M414">
-        <v>13.6674123067145388</v>
+        <v>13.6674123067145548</v>
       </c>
       <c r="N414">
-        <v>52.4146050775887034</v>
+        <v>52.4146050775887105</v>
       </c>
     </row>
     <row r="415">
@@ -21274,10 +21274,10 @@
         <v>1362</v>
       </c>
       <c r="M415">
-        <v>13.6059829227012266</v>
+        <v>13.6059829227012425</v>
       </c>
       <c r="N415">
-        <v>52.4392318906108628</v>
+        <v>52.4392318906108486</v>
       </c>
     </row>
     <row r="416">
@@ -21309,10 +21309,10 @@
         <v>1365</v>
       </c>
       <c r="M416">
-        <v>13.6273317477217297</v>
+        <v>13.6273317477217457</v>
       </c>
       <c r="N416">
-        <v>52.4505667448102884</v>
+        <v>52.4505667448102741</v>
       </c>
     </row>
     <row r="417">
@@ -21344,10 +21344,10 @@
         <v>1368</v>
       </c>
       <c r="M417">
-        <v>13.2759311163116465</v>
+        <v>13.2759311163116624</v>
       </c>
       <c r="N417">
-        <v>52.4431699314397477</v>
+        <v>52.4431699314397406</v>
       </c>
     </row>
     <row r="418">
@@ -21379,10 +21379,10 @@
         <v>1371</v>
       </c>
       <c r="M418">
-        <v>13.3171639015820968</v>
+        <v>13.3171639015821128</v>
       </c>
       <c r="N418">
-        <v>52.6084683846419949</v>
+        <v>52.6084683846419878</v>
       </c>
     </row>
     <row r="419">
@@ -21414,10 +21414,10 @@
         <v>1374</v>
       </c>
       <c r="M419">
-        <v>13.3955605110860585</v>
+        <v>13.3955605110860745</v>
       </c>
       <c r="N419">
-        <v>52.5366307983897656</v>
+        <v>52.5366307983897727</v>
       </c>
     </row>
     <row r="420">
@@ -21449,7 +21449,7 @@
         <v>1377</v>
       </c>
       <c r="M420">
-        <v>13.4195812276392044</v>
+        <v>13.4195812276392221</v>
       </c>
       <c r="N420">
         <v>52.3911963851206224</v>
@@ -21484,7 +21484,7 @@
         <v>1380</v>
       </c>
       <c r="M421">
-        <v>13.2921990525755156</v>
+        <v>13.2921990525755316</v>
       </c>
       <c r="N421">
         <v>52.5145071683509315</v>
@@ -21522,10 +21522,10 @@
         <v>23</v>
       </c>
       <c r="M422">
-        <v>13.3217031562331893</v>
+        <v>13.3217031562332053</v>
       </c>
       <c r="N422">
-        <v>52.4936524845975683</v>
+        <v>52.4936524845975612</v>
       </c>
     </row>
     <row r="423">
@@ -21557,7 +21557,7 @@
         <v>1386</v>
       </c>
       <c r="M423">
-        <v>13.3638978348576956</v>
+        <v>13.3638978348577115</v>
       </c>
       <c r="N423">
         <v>52.4930150360279768</v>
@@ -21592,10 +21592,10 @@
         <v>1389</v>
       </c>
       <c r="M424">
-        <v>13.3099050738873288</v>
+        <v>13.3099050738873448</v>
       </c>
       <c r="N424">
-        <v>52.4387778795254320</v>
+        <v>52.4387778795254178</v>
       </c>
     </row>
     <row r="425">
@@ -21627,7 +21627,7 @@
         <v>1392</v>
       </c>
       <c r="M425">
-        <v>13.5089811098073582</v>
+        <v>13.5089811098073742</v>
       </c>
       <c r="N425">
         <v>52.5028064540414832</v>
@@ -21662,10 +21662,10 @@
         <v>1395</v>
       </c>
       <c r="M426">
-        <v>13.2570962528715945</v>
+        <v>13.2570962528716123</v>
       </c>
       <c r="N426">
-        <v>52.4363527833420164</v>
+        <v>52.4363527833420093</v>
       </c>
     </row>
     <row r="427">
@@ -21697,10 +21697,10 @@
         <v>1398</v>
       </c>
       <c r="M427">
-        <v>13.4273810856656208</v>
+        <v>13.4273810856656368</v>
       </c>
       <c r="N427">
-        <v>52.5052259400664951</v>
+        <v>52.5052259400664880</v>
       </c>
     </row>
     <row r="428">
@@ -21732,7 +21732,7 @@
         <v>1401</v>
       </c>
       <c r="M428">
-        <v>13.4880722412182816</v>
+        <v>13.4880722412182994</v>
       </c>
       <c r="N428">
         <v>52.5437092866581210</v>
@@ -21767,7 +21767,7 @@
         <v>1404</v>
       </c>
       <c r="M429">
-        <v>13.4723932522816519</v>
+        <v>13.4723932522816678</v>
       </c>
       <c r="N429">
         <v>52.4403057607273198</v>
@@ -21802,10 +21802,10 @@
         <v>1407</v>
       </c>
       <c r="M430">
-        <v>13.2271816104134761</v>
+        <v>13.2271816104134903</v>
       </c>
       <c r="N430">
-        <v>52.6130598124591842</v>
+        <v>52.6130598124591771</v>
       </c>
     </row>
     <row r="431">
@@ -21837,10 +21837,10 @@
         <v>1410</v>
       </c>
       <c r="M431">
-        <v>13.4487567911730039</v>
+        <v>13.4487567911730199</v>
       </c>
       <c r="N431">
-        <v>52.4579528524760903</v>
+        <v>52.4579528524760761</v>
       </c>
     </row>
     <row r="432">
@@ -21872,10 +21872,10 @@
         <v>1413</v>
       </c>
       <c r="M432">
-        <v>13.5495682997159488</v>
+        <v>13.5495682997159648</v>
       </c>
       <c r="N432">
-        <v>52.5118560697361829</v>
+        <v>52.5118560697361758</v>
       </c>
     </row>
     <row r="433">
@@ -21907,10 +21907,10 @@
         <v>1416</v>
       </c>
       <c r="M433">
-        <v>13.4015031081171756</v>
+        <v>13.4015031081171916</v>
       </c>
       <c r="N433">
-        <v>52.4999646186467501</v>
+        <v>52.4999646186467430</v>
       </c>
     </row>
     <row r="434">
@@ -21942,10 +21942,10 @@
         <v>1419</v>
       </c>
       <c r="M434">
-        <v>13.5762976698464790</v>
+        <v>13.5762976698464950</v>
       </c>
       <c r="N434">
-        <v>52.5707624838151659</v>
+        <v>52.5707624838151517</v>
       </c>
     </row>
     <row r="435">
@@ -21977,10 +21977,10 @@
         <v>1422</v>
       </c>
       <c r="M435">
-        <v>13.4172717366381988</v>
+        <v>13.4172717366382148</v>
       </c>
       <c r="N435">
-        <v>52.5787647333949479</v>
+        <v>52.5787647333949408</v>
       </c>
     </row>
     <row r="436">
@@ -22012,10 +22012,10 @@
         <v>1425</v>
       </c>
       <c r="M436">
-        <v>13.3912232249801573</v>
+        <v>13.3912232249801733</v>
       </c>
       <c r="N436">
-        <v>52.5327787185010706</v>
+        <v>52.5327787185010635</v>
       </c>
     </row>
     <row r="437">
@@ -22050,10 +22050,10 @@
         <v>23</v>
       </c>
       <c r="M437">
-        <v>13.3078272571393068</v>
+        <v>13.3078272571393246</v>
       </c>
       <c r="N437">
-        <v>52.4324645465280028</v>
+        <v>52.4324645465279957</v>
       </c>
     </row>
     <row r="438">
@@ -22085,10 +22085,10 @@
         <v>1431</v>
       </c>
       <c r="M438">
-        <v>13.4318234331337898</v>
+        <v>13.4318234331338058</v>
       </c>
       <c r="N438">
-        <v>52.4941261311270608</v>
+        <v>52.4941261311270537</v>
       </c>
     </row>
     <row r="439">
@@ -22120,10 +22120,10 @@
         <v>1434</v>
       </c>
       <c r="M439">
-        <v>13.3754695788668929</v>
+        <v>13.3754695788669089</v>
       </c>
       <c r="N439">
-        <v>52.4538334113099651</v>
+        <v>52.4538334113099580</v>
       </c>
     </row>
     <row r="440">
@@ -22155,10 +22155,10 @@
         <v>1437</v>
       </c>
       <c r="M440">
-        <v>13.4458516684263838</v>
+        <v>13.4458516684263998</v>
       </c>
       <c r="N440">
-        <v>52.5411082304365209</v>
+        <v>52.5411082304365138</v>
       </c>
     </row>
     <row r="441">
@@ -22190,10 +22190,10 @@
         <v>1440</v>
       </c>
       <c r="M441">
-        <v>13.3541400447009302</v>
+        <v>13.3541400447009462</v>
       </c>
       <c r="N441">
-        <v>52.5733679218541070</v>
+        <v>52.5733679218540928</v>
       </c>
     </row>
     <row r="442">
@@ -22225,10 +22225,10 @@
         <v>1443</v>
       </c>
       <c r="M442">
-        <v>13.1900382614679330</v>
+        <v>13.1900382614679490</v>
       </c>
       <c r="N442">
-        <v>52.5211020447304477</v>
+        <v>52.5211020447304406</v>
       </c>
     </row>
     <row r="443">
@@ -22260,10 +22260,10 @@
         <v>1443</v>
       </c>
       <c r="M443">
-        <v>13.1904982530304622</v>
+        <v>13.1904982530304782</v>
       </c>
       <c r="N443">
-        <v>52.5210971654963501</v>
+        <v>52.5210971654963572</v>
       </c>
     </row>
     <row r="444">
@@ -22295,10 +22295,10 @@
         <v>1447</v>
       </c>
       <c r="M444">
-        <v>13.3242541399213241</v>
+        <v>13.3242541399213419</v>
       </c>
       <c r="N444">
-        <v>52.4692675943944664</v>
+        <v>52.4692675943944451</v>
       </c>
     </row>
     <row r="445">
@@ -22330,7 +22330,7 @@
         <v>1450</v>
       </c>
       <c r="M445">
-        <v>13.3402400539306054</v>
+        <v>13.3402400539306232</v>
       </c>
       <c r="N445">
         <v>52.4305920102694856</v>
@@ -22365,10 +22365,10 @@
         <v>1453</v>
       </c>
       <c r="M446">
-        <v>13.3142624326763990</v>
+        <v>13.3142624326764150</v>
       </c>
       <c r="N446">
-        <v>52.4616002935101591</v>
+        <v>52.4616002935101520</v>
       </c>
     </row>
     <row r="447">
@@ -22400,7 +22400,7 @@
         <v>1456</v>
       </c>
       <c r="M447">
-        <v>13.3938952916507610</v>
+        <v>13.3938952916507770</v>
       </c>
       <c r="N447">
         <v>52.4613488888195576</v>
@@ -22435,10 +22435,10 @@
         <v>1459</v>
       </c>
       <c r="M448">
-        <v>13.5194398760314325</v>
+        <v>13.5194398760314485</v>
       </c>
       <c r="N448">
-        <v>52.4990546308337400</v>
+        <v>52.4990546308337329</v>
       </c>
     </row>
     <row r="449">
@@ -22473,10 +22473,10 @@
         <v>23</v>
       </c>
       <c r="M449">
-        <v>13.5197066697810211</v>
+        <v>13.5197066697810371</v>
       </c>
       <c r="N449">
-        <v>52.4986318470929376</v>
+        <v>52.4986318470929305</v>
       </c>
     </row>
     <row r="450">
@@ -22514,10 +22514,10 @@
         <v>36</v>
       </c>
       <c r="M450">
-        <v>13.2484054696286311</v>
+        <v>13.2484054696286471</v>
       </c>
       <c r="N450">
-        <v>52.4434616268016640</v>
+        <v>52.4434616268016569</v>
       </c>
     </row>
     <row r="451">
@@ -22549,10 +22549,10 @@
         <v>531</v>
       </c>
       <c r="M451">
-        <v>13.3195513781544577</v>
+        <v>13.3195513781544737</v>
       </c>
       <c r="N451">
-        <v>52.4842253739370648</v>
+        <v>52.4842253739370577</v>
       </c>
     </row>
     <row r="452">
@@ -22584,7 +22584,7 @@
         <v>1469</v>
       </c>
       <c r="M452">
-        <v>13.3549536547405303</v>
+        <v>13.3549536547405481</v>
       </c>
       <c r="N452">
         <v>52.4351919692611830</v>
@@ -22625,7 +22625,7 @@
         <v>23</v>
       </c>
       <c r="M453">
-        <v>13.2928359966757910</v>
+        <v>13.2928359966758070</v>
       </c>
       <c r="N453">
         <v>52.5145294242661009</v>
@@ -22660,10 +22660,10 @@
         <v>1475</v>
       </c>
       <c r="M454">
-        <v>13.5520740909749851</v>
+        <v>13.5520740909750010</v>
       </c>
       <c r="N454">
-        <v>52.5481415664261533</v>
+        <v>52.5481415664261462</v>
       </c>
     </row>
     <row r="455">
@@ -22695,10 +22695,10 @@
         <v>1478</v>
       </c>
       <c r="M455">
-        <v>13.4357718091934490</v>
+        <v>13.4357718091934650</v>
       </c>
       <c r="N455">
-        <v>52.4717459197779661</v>
+        <v>52.4717459197779519</v>
       </c>
     </row>
     <row r="456">
@@ -22736,7 +22736,7 @@
         <v>832</v>
       </c>
       <c r="M456">
-        <v>13.2905383930873597</v>
+        <v>13.2905383930873739</v>
       </c>
       <c r="N456">
         <v>52.5052407159179495</v>
@@ -22771,10 +22771,10 @@
         <v>1484</v>
       </c>
       <c r="M457">
-        <v>13.3296769064594667</v>
+        <v>13.3296769064594827</v>
       </c>
       <c r="N457">
-        <v>52.5867245179819989</v>
+        <v>52.5867245179819918</v>
       </c>
     </row>
     <row r="458">
@@ -22806,10 +22806,10 @@
         <v>1487</v>
       </c>
       <c r="M458">
-        <v>13.4707198450394916</v>
+        <v>13.4707198450395094</v>
       </c>
       <c r="N458">
-        <v>52.5189307708090638</v>
+        <v>52.5189307708090567</v>
       </c>
     </row>
     <row r="459">
@@ -22841,7 +22841,7 @@
         <v>1490</v>
       </c>
       <c r="M459">
-        <v>13.4957728719041619</v>
+        <v>13.4957728719041778</v>
       </c>
       <c r="N459">
         <v>52.5395734887269228</v>
@@ -22876,10 +22876,10 @@
         <v>1493</v>
       </c>
       <c r="M460">
-        <v>13.4618707779264515</v>
+        <v>13.4618707779264692</v>
       </c>
       <c r="N460">
-        <v>52.5476000948942996</v>
+        <v>52.5476000948942925</v>
       </c>
     </row>
     <row r="461">
@@ -22911,7 +22911,7 @@
         <v>1497</v>
       </c>
       <c r="M461">
-        <v>13.3893272148003266</v>
+        <v>13.3893272148003426</v>
       </c>
       <c r="N461">
         <v>52.6181533766957301</v>
@@ -22946,7 +22946,7 @@
         <v>1500</v>
       </c>
       <c r="M462">
-        <v>13.2880394382258853</v>
+        <v>13.2880394382258995</v>
       </c>
       <c r="N462">
         <v>52.5383490277719361</v>
@@ -22984,10 +22984,10 @@
         <v>23</v>
       </c>
       <c r="M463">
-        <v>13.3452514693779918</v>
+        <v>13.3452514693780095</v>
       </c>
       <c r="N463">
-        <v>52.4687496668672182</v>
+        <v>52.4687496668672111</v>
       </c>
     </row>
     <row r="464">
@@ -23019,10 +23019,10 @@
         <v>1506</v>
       </c>
       <c r="M464">
-        <v>13.4542556693860185</v>
+        <v>13.4542556693860345</v>
       </c>
       <c r="N464">
-        <v>52.5513105461934984</v>
+        <v>52.5513105461934913</v>
       </c>
     </row>
     <row r="465">
@@ -23054,10 +23054,10 @@
         <v>1509</v>
       </c>
       <c r="M465">
-        <v>13.6000797380934664</v>
+        <v>13.6000797380934841</v>
       </c>
       <c r="N465">
-        <v>52.5425195002969474</v>
+        <v>52.5425195002969403</v>
       </c>
     </row>
     <row r="466">
@@ -23089,10 +23089,10 @@
         <v>212</v>
       </c>
       <c r="M466">
-        <v>13.2693084814078031</v>
+        <v>13.2693084814078208</v>
       </c>
       <c r="N466">
-        <v>52.4544304503722643</v>
+        <v>52.4544304503722572</v>
       </c>
     </row>
     <row r="467">
@@ -23124,10 +23124,10 @@
         <v>1514</v>
       </c>
       <c r="M467">
-        <v>13.5190205752384838</v>
+        <v>13.5190205752384998</v>
       </c>
       <c r="N467">
-        <v>52.5639808074321309</v>
+        <v>52.5639808074321166</v>
       </c>
     </row>
     <row r="468">
@@ -23159,10 +23159,10 @@
         <v>1517</v>
       </c>
       <c r="M468">
-        <v>13.4333748835466977</v>
+        <v>13.4333748835467137</v>
       </c>
       <c r="N468">
-        <v>52.4757096086253938</v>
+        <v>52.4757096086253867</v>
       </c>
     </row>
     <row r="469">
@@ -23194,10 +23194,10 @@
         <v>1520</v>
       </c>
       <c r="M469">
-        <v>13.3698580373015794</v>
+        <v>13.3698580373015972</v>
       </c>
       <c r="N469">
-        <v>52.5634195618567261</v>
+        <v>52.5634195618567190</v>
       </c>
     </row>
     <row r="470">
@@ -23229,7 +23229,7 @@
         <v>1523</v>
       </c>
       <c r="M470">
-        <v>13.3102972875533005</v>
+        <v>13.3102972875533183</v>
       </c>
       <c r="N470">
         <v>52.5737751640827895</v>
@@ -23267,10 +23267,10 @@
         <v>23</v>
       </c>
       <c r="M471">
-        <v>13.2635352601880800</v>
+        <v>13.2635352601880960</v>
       </c>
       <c r="N471">
-        <v>52.4967719415819474</v>
+        <v>52.4967719415819403</v>
       </c>
     </row>
     <row r="472">
@@ -23302,10 +23302,10 @@
         <v>1529</v>
       </c>
       <c r="M472">
-        <v>13.3996573122594995</v>
+        <v>13.3996573122595173</v>
       </c>
       <c r="N472">
-        <v>52.4909574485704127</v>
+        <v>52.4909574485704056</v>
       </c>
     </row>
     <row r="473">
@@ -23337,10 +23337,10 @@
         <v>1532</v>
       </c>
       <c r="M473">
-        <v>13.4021895465904883</v>
+        <v>13.4021895465905043</v>
       </c>
       <c r="N473">
-        <v>52.5680962420628788</v>
+        <v>52.5680962420628646</v>
       </c>
     </row>
     <row r="474">
@@ -23372,10 +23372,10 @@
         <v>1535</v>
       </c>
       <c r="M474">
-        <v>13.2683973906394410</v>
+        <v>13.2683973906394570</v>
       </c>
       <c r="N474">
-        <v>52.5132331063475490</v>
+        <v>52.5132331063475348</v>
       </c>
     </row>
     <row r="475">
@@ -23407,10 +23407,10 @@
         <v>1539</v>
       </c>
       <c r="M475">
-        <v>13.2724697921039194</v>
+        <v>13.2724697921039372</v>
       </c>
       <c r="N475">
-        <v>52.6368129688135511</v>
+        <v>52.6368129688135440</v>
       </c>
     </row>
     <row r="476">
@@ -23442,10 +23442,10 @@
         <v>1542</v>
       </c>
       <c r="M476">
-        <v>13.3222341164152738</v>
+        <v>13.3222341164152898</v>
       </c>
       <c r="N476">
-        <v>52.4702814951126300</v>
+        <v>52.4702814951126228</v>
       </c>
     </row>
     <row r="477">
@@ -23477,7 +23477,7 @@
         <v>1295</v>
       </c>
       <c r="M477">
-        <v>13.3079354894650486</v>
+        <v>13.3079354894650645</v>
       </c>
       <c r="N477">
         <v>52.6203751580149799</v>
@@ -23512,10 +23512,10 @@
         <v>1547</v>
       </c>
       <c r="M478">
-        <v>13.4444461188394495</v>
+        <v>13.4444461188394655</v>
       </c>
       <c r="N478">
-        <v>52.4729799833521895</v>
+        <v>52.4729799833521753</v>
       </c>
     </row>
     <row r="479">
@@ -23547,10 +23547,10 @@
         <v>1550</v>
       </c>
       <c r="M479">
-        <v>13.5340566544415246</v>
+        <v>13.5340566544415424</v>
       </c>
       <c r="N479">
-        <v>52.4790925484333286</v>
+        <v>52.4790925484333215</v>
       </c>
     </row>
     <row r="480">
@@ -23582,7 +23582,7 @@
         <v>1553</v>
       </c>
       <c r="M480">
-        <v>13.3375880571157950</v>
+        <v>13.3375880571158110</v>
       </c>
       <c r="N480">
         <v>52.5860764042388666</v>
@@ -23617,10 +23617,10 @@
         <v>1556</v>
       </c>
       <c r="M481">
-        <v>13.4317612471233367</v>
+        <v>13.4317612471233545</v>
       </c>
       <c r="N481">
-        <v>52.4848427239943618</v>
+        <v>52.4848427239943476</v>
       </c>
     </row>
     <row r="482">
@@ -23652,10 +23652,10 @@
         <v>1559</v>
       </c>
       <c r="M482">
-        <v>13.3647099958741844</v>
+        <v>13.3647099958742004</v>
       </c>
       <c r="N482">
-        <v>52.4849325063752445</v>
+        <v>52.4849325063752303</v>
       </c>
     </row>
     <row r="483">
@@ -23687,7 +23687,7 @@
         <v>1562</v>
       </c>
       <c r="M483">
-        <v>13.4931056980374926</v>
+        <v>13.4931056980375086</v>
       </c>
       <c r="N483">
         <v>52.6159827216321929</v>
@@ -23722,10 +23722,10 @@
         <v>1562</v>
       </c>
       <c r="M484">
-        <v>13.4925865246014851</v>
+        <v>13.4925865246015011</v>
       </c>
       <c r="N484">
-        <v>52.6161881639056759</v>
+        <v>52.6161881639056688</v>
       </c>
     </row>
     <row r="485">
@@ -23757,7 +23757,7 @@
         <v>1567</v>
       </c>
       <c r="M485">
-        <v>13.3178411783030288</v>
+        <v>13.3178411783030448</v>
       </c>
       <c r="N485">
         <v>52.4940828086672582</v>
@@ -23792,10 +23792,10 @@
         <v>1570</v>
       </c>
       <c r="M486">
-        <v>13.4157140112136872</v>
+        <v>13.4157140112137050</v>
       </c>
       <c r="N486">
-        <v>52.4929893813752102</v>
+        <v>52.4929893813752031</v>
       </c>
     </row>
     <row r="487">
@@ -23827,10 +23827,10 @@
         <v>1573</v>
       </c>
       <c r="M487">
-        <v>13.2728766907574620</v>
+        <v>13.2728766907574780</v>
       </c>
       <c r="N487">
-        <v>52.5405557990387635</v>
+        <v>52.5405557990387564</v>
       </c>
     </row>
     <row r="488">
@@ -23862,10 +23862,10 @@
         <v>1576</v>
       </c>
       <c r="M488">
-        <v>13.5007616268602533</v>
+        <v>13.5007616268602693</v>
       </c>
       <c r="N488">
-        <v>52.5097814294207481</v>
+        <v>52.5097814294207410</v>
       </c>
     </row>
     <row r="489">
@@ -23897,7 +23897,7 @@
         <v>1579</v>
       </c>
       <c r="M489">
-        <v>13.3176122588850401</v>
+        <v>13.3176122588850561</v>
       </c>
       <c r="N489">
         <v>52.5995100961303166</v>
@@ -23932,7 +23932,7 @@
         <v>1582</v>
       </c>
       <c r="M490">
-        <v>13.4497669565350240</v>
+        <v>13.4497669565350400</v>
       </c>
       <c r="N490">
         <v>52.4888934154241937</v>
@@ -23967,10 +23967,10 @@
         <v>1585</v>
       </c>
       <c r="M491">
-        <v>13.4195646582749912</v>
+        <v>13.4195646582750072</v>
       </c>
       <c r="N491">
-        <v>52.5667637717507645</v>
+        <v>52.5667637717507574</v>
       </c>
     </row>
     <row r="492">
@@ -24002,7 +24002,7 @@
         <v>1588</v>
       </c>
       <c r="M492">
-        <v>13.4314820411152507</v>
+        <v>13.4314820411152667</v>
       </c>
       <c r="N492">
         <v>52.4947077223662859</v>
@@ -24037,10 +24037,10 @@
         <v>1591</v>
       </c>
       <c r="M493">
-        <v>13.5020323527830453</v>
+        <v>13.5020323527830612</v>
       </c>
       <c r="N493">
-        <v>52.4010662847184605</v>
+        <v>52.4010662847184463</v>
       </c>
     </row>
     <row r="494">
@@ -24072,10 +24072,10 @@
         <v>492</v>
       </c>
       <c r="M494">
-        <v>13.3128357434699556</v>
+        <v>13.3128357434699716</v>
       </c>
       <c r="N494">
-        <v>52.4538454061377095</v>
+        <v>52.4538454061377024</v>
       </c>
     </row>
     <row r="495">
@@ -24107,10 +24107,10 @@
         <v>1596</v>
       </c>
       <c r="M495">
-        <v>13.3382649775236146</v>
+        <v>13.3382649775236306</v>
       </c>
       <c r="N495">
-        <v>52.4796776310659610</v>
+        <v>52.4796776310659467</v>
       </c>
     </row>
     <row r="496">
@@ -24142,10 +24142,10 @@
         <v>1600</v>
       </c>
       <c r="M496">
-        <v>13.3761001113421063</v>
+        <v>13.3761001113421223</v>
       </c>
       <c r="N496">
-        <v>52.5911219815534423</v>
+        <v>52.5911219815534352</v>
       </c>
     </row>
     <row r="497">
@@ -24177,10 +24177,10 @@
         <v>1603</v>
       </c>
       <c r="M497">
-        <v>13.3853607171659021</v>
+        <v>13.3853607171659181</v>
       </c>
       <c r="N497">
-        <v>52.4387303837210510</v>
+        <v>52.4387303837210368</v>
       </c>
     </row>
     <row r="498">
@@ -24212,10 +24212,10 @@
         <v>1606</v>
       </c>
       <c r="M498">
-        <v>13.5757948968321145</v>
+        <v>13.5757948968321305</v>
       </c>
       <c r="N498">
-        <v>52.5553442199753746</v>
+        <v>52.5553442199753675</v>
       </c>
     </row>
     <row r="499">
@@ -24247,7 +24247,7 @@
         <v>1609</v>
       </c>
       <c r="M499">
-        <v>13.3956261309510971</v>
+        <v>13.3956261309511149</v>
       </c>
       <c r="N499">
         <v>52.5516383725536542</v>
@@ -24282,10 +24282,10 @@
         <v>1612</v>
       </c>
       <c r="M500">
-        <v>13.3207708042213930</v>
+        <v>13.3207708042214090</v>
       </c>
       <c r="N500">
-        <v>52.4752169836628042</v>
+        <v>52.4752169836627971</v>
       </c>
     </row>
     <row r="501">
@@ -24317,10 +24317,10 @@
         <v>1615</v>
       </c>
       <c r="M501">
-        <v>13.3364735313446232</v>
+        <v>13.3364735313446392</v>
       </c>
       <c r="N501">
-        <v>52.4618896331758080</v>
+        <v>52.4618896331758009</v>
       </c>
     </row>
     <row r="502">
@@ -24352,7 +24352,7 @@
         <v>1618</v>
       </c>
       <c r="M502">
-        <v>13.5906597143702950</v>
+        <v>13.5906597143703110</v>
       </c>
       <c r="N502">
         <v>52.5425628355468177</v>
@@ -24387,10 +24387,10 @@
         <v>1621</v>
       </c>
       <c r="M503">
-        <v>13.2548046753343485</v>
+        <v>13.2548046753343645</v>
       </c>
       <c r="N503">
-        <v>52.4315413132255586</v>
+        <v>52.4315413132255514</v>
       </c>
     </row>
     <row r="504">
@@ -24422,10 +24422,10 @@
         <v>1624</v>
       </c>
       <c r="M504">
-        <v>13.3432517702265567</v>
+        <v>13.3432517702265745</v>
       </c>
       <c r="N504">
-        <v>52.4941589951156473</v>
+        <v>52.4941589951156402</v>
       </c>
     </row>
     <row r="505">
@@ -24457,10 +24457,10 @@
         <v>1627</v>
       </c>
       <c r="M505">
-        <v>13.4004896385824246</v>
+        <v>13.4004896385824406</v>
       </c>
       <c r="N505">
-        <v>52.4486716654595071</v>
+        <v>52.4486716654595000</v>
       </c>
     </row>
     <row r="506">
@@ -24492,7 +24492,7 @@
         <v>1630</v>
       </c>
       <c r="M506">
-        <v>13.3215371465746646</v>
+        <v>13.3215371465746824</v>
       </c>
       <c r="N506">
         <v>52.5110365803711971</v>
@@ -24530,7 +24530,7 @@
         <v>23</v>
       </c>
       <c r="M507">
-        <v>13.4438399713244436</v>
+        <v>13.4438399713244596</v>
       </c>
       <c r="N507">
         <v>52.4427615417919668</v>
@@ -24565,7 +24565,7 @@
         <v>1636</v>
       </c>
       <c r="M508">
-        <v>13.2985756305616629</v>
+        <v>13.2985756305616789</v>
       </c>
       <c r="N508">
         <v>52.5176126117300228</v>
@@ -24600,10 +24600,10 @@
         <v>1639</v>
       </c>
       <c r="M509">
-        <v>13.4851266895415058</v>
+        <v>13.4851266895415218</v>
       </c>
       <c r="N509">
-        <v>52.4118402623331576</v>
+        <v>52.4118402623331434</v>
       </c>
     </row>
     <row r="510">
@@ -24635,7 +24635,7 @@
         <v>1643</v>
       </c>
       <c r="M510">
-        <v>13.6475140594861237</v>
+        <v>13.6475140594861397</v>
       </c>
       <c r="N510">
         <v>52.3764751770843802</v>
@@ -24673,10 +24673,10 @@
         <v>23</v>
       </c>
       <c r="M511">
-        <v>13.4760071827633183</v>
+        <v>13.4760071827633343</v>
       </c>
       <c r="N511">
-        <v>52.5455655260313250</v>
+        <v>52.5455655260313179</v>
       </c>
     </row>
     <row r="512">
@@ -24708,7 +24708,7 @@
         <v>1649</v>
       </c>
       <c r="M512">
-        <v>13.5543380348006846</v>
+        <v>13.5543380348007005</v>
       </c>
       <c r="N512">
         <v>52.4106204090538768</v>
@@ -24743,10 +24743,10 @@
         <v>1649</v>
       </c>
       <c r="M513">
-        <v>13.5538536944406651</v>
+        <v>13.5538536944406829</v>
       </c>
       <c r="N513">
-        <v>52.4109028631810077</v>
+        <v>52.4109028631810006</v>
       </c>
     </row>
     <row r="514">
@@ -24778,10 +24778,10 @@
         <v>1654</v>
       </c>
       <c r="M514">
-        <v>13.5379915825004016</v>
+        <v>13.5379915825004176</v>
       </c>
       <c r="N514">
-        <v>52.4187162383779324</v>
+        <v>52.4187162383779253</v>
       </c>
     </row>
     <row r="515">
@@ -24813,7 +24813,7 @@
         <v>1657</v>
       </c>
       <c r="M515">
-        <v>13.4252261466633893</v>
+        <v>13.4252261466634053</v>
       </c>
       <c r="N515">
         <v>52.4215281658763246</v>
@@ -24848,7 +24848,7 @@
         <v>1660</v>
       </c>
       <c r="M516">
-        <v>13.4240441235917523</v>
+        <v>13.4240441235917682</v>
       </c>
       <c r="N516">
         <v>52.6079892069351729</v>
@@ -24883,10 +24883,10 @@
         <v>1660</v>
       </c>
       <c r="M517">
-        <v>13.4244137256934710</v>
+        <v>13.4244137256934888</v>
       </c>
       <c r="N517">
-        <v>52.6082572387683030</v>
+        <v>52.6082572387682958</v>
       </c>
     </row>
     <row r="518">
@@ -24918,7 +24918,7 @@
         <v>1664</v>
       </c>
       <c r="M518">
-        <v>13.5134286183647845</v>
+        <v>13.5134286183648022</v>
       </c>
       <c r="N518">
         <v>52.5628441942280418</v>
@@ -24953,10 +24953,10 @@
         <v>1667</v>
       </c>
       <c r="M519">
-        <v>13.5743832783054525</v>
+        <v>13.5743832783054685</v>
       </c>
       <c r="N519">
-        <v>52.4058393712479216</v>
+        <v>52.4058393712479145</v>
       </c>
     </row>
     <row r="520">
@@ -24988,10 +24988,10 @@
         <v>1670</v>
       </c>
       <c r="M520">
-        <v>13.4062011340819041</v>
+        <v>13.4062011340819200</v>
       </c>
       <c r="N520">
-        <v>52.5471976520129758</v>
+        <v>52.5471976520129687</v>
       </c>
     </row>
     <row r="521">
@@ -25023,10 +25023,10 @@
         <v>1673</v>
       </c>
       <c r="M521">
-        <v>13.4982647371712812</v>
+        <v>13.4982647371712972</v>
       </c>
       <c r="N521">
-        <v>52.5518319794327340</v>
+        <v>52.5518319794327198</v>
       </c>
     </row>
     <row r="522">
@@ -25058,10 +25058,10 @@
         <v>1676</v>
       </c>
       <c r="M522">
-        <v>13.4730913606783140</v>
+        <v>13.4730913606783300</v>
       </c>
       <c r="N522">
-        <v>52.5236535928708932</v>
+        <v>52.5236535928708861</v>
       </c>
     </row>
     <row r="523">
@@ -25093,7 +25093,7 @@
         <v>1679</v>
       </c>
       <c r="M523">
-        <v>13.4871572260893302</v>
+        <v>13.4871572260893462</v>
       </c>
       <c r="N523">
         <v>52.4236152213086868</v>
@@ -25137,7 +25137,7 @@
         <v>23</v>
       </c>
       <c r="M524">
-        <v>13.4489780872540639</v>
+        <v>13.4489780872540781</v>
       </c>
       <c r="N524">
         <v>52.5143987623538138</v>
@@ -25172,10 +25172,10 @@
         <v>1685</v>
       </c>
       <c r="M525">
-        <v>13.2425881282436446</v>
+        <v>13.2425881282436606</v>
       </c>
       <c r="N525">
-        <v>52.5432499072836023</v>
+        <v>52.5432499072835952</v>
       </c>
     </row>
     <row r="526">
@@ -25207,10 +25207,10 @@
         <v>1688</v>
       </c>
       <c r="M526">
-        <v>13.4978678746434220</v>
+        <v>13.4978678746434380</v>
       </c>
       <c r="N526">
-        <v>52.4401205819533871</v>
+        <v>52.4401205819533729</v>
       </c>
     </row>
     <row r="527">
@@ -25245,10 +25245,10 @@
         <v>23</v>
       </c>
       <c r="M527">
-        <v>13.5060625627208282</v>
+        <v>13.5060625627208442</v>
       </c>
       <c r="N527">
-        <v>52.5263985364507846</v>
+        <v>52.5263985364507704</v>
       </c>
     </row>
     <row r="528">
@@ -25280,7 +25280,7 @@
         <v>1694</v>
       </c>
       <c r="M528">
-        <v>13.5619544652432307</v>
+        <v>13.5619544652432467</v>
       </c>
       <c r="N528">
         <v>52.5696735389130652</v>
@@ -25315,7 +25315,7 @@
         <v>1697</v>
       </c>
       <c r="M529">
-        <v>13.1937625497550091</v>
+        <v>13.1937625497550250</v>
       </c>
       <c r="N529">
         <v>52.5492006431266319</v>
@@ -25350,10 +25350,10 @@
         <v>1697</v>
       </c>
       <c r="M530">
-        <v>13.1939704884180351</v>
+        <v>13.1939704884180529</v>
       </c>
       <c r="N530">
-        <v>52.5488967379781116</v>
+        <v>52.5488967379781045</v>
       </c>
     </row>
     <row r="531">
@@ -25385,7 +25385,7 @@
         <v>1701</v>
       </c>
       <c r="M531">
-        <v>13.4369384374538967</v>
+        <v>13.4369384374539127</v>
       </c>
       <c r="N531">
         <v>52.5538766497000935</v>
@@ -25420,7 +25420,7 @@
         <v>1226</v>
       </c>
       <c r="M532">
-        <v>13.4450847293256057</v>
+        <v>13.4450847293256235</v>
       </c>
       <c r="N532">
         <v>52.4223942808333661</v>
@@ -25455,10 +25455,10 @@
         <v>1706</v>
       </c>
       <c r="M533">
-        <v>13.4262053047345447</v>
+        <v>13.4262053047345624</v>
       </c>
       <c r="N533">
-        <v>52.5257348176775238</v>
+        <v>52.5257348176775096</v>
       </c>
     </row>
     <row r="534">
@@ -25490,7 +25490,7 @@
         <v>1709</v>
       </c>
       <c r="M534">
-        <v>13.5372153954514669</v>
+        <v>13.5372153954514829</v>
       </c>
       <c r="N534">
         <v>52.4071641765582115</v>
@@ -25525,10 +25525,10 @@
         <v>1712</v>
       </c>
       <c r="M535">
-        <v>13.6292209886537492</v>
+        <v>13.6292209886537652</v>
       </c>
       <c r="N535">
-        <v>52.5401886860821250</v>
+        <v>52.5401886860821179</v>
       </c>
     </row>
     <row r="536">
@@ -25560,10 +25560,10 @@
         <v>1715</v>
       </c>
       <c r="M536">
-        <v>13.5534188513667537</v>
+        <v>13.5534188513667715</v>
       </c>
       <c r="N536">
-        <v>52.5311220051500669</v>
+        <v>52.5311220051500598</v>
       </c>
     </row>
     <row r="537">
@@ -25595,7 +25595,7 @@
         <v>1718</v>
       </c>
       <c r="M537">
-        <v>13.3298682195546903</v>
+        <v>13.3298682195547062</v>
       </c>
       <c r="N537">
         <v>52.5940031127736418</v>
@@ -25630,7 +25630,7 @@
         <v>1721</v>
       </c>
       <c r="M538">
-        <v>13.5291027930160741</v>
+        <v>13.5291027930160901</v>
       </c>
       <c r="N538">
         <v>52.4064406182422857</v>
@@ -25665,10 +25665,10 @@
         <v>1725</v>
       </c>
       <c r="M539">
-        <v>13.4844110360328386</v>
+        <v>13.4844110360328546</v>
       </c>
       <c r="N539">
-        <v>52.4766303458426009</v>
+        <v>52.4766303458425867</v>
       </c>
     </row>
     <row r="540">
@@ -25700,10 +25700,10 @@
         <v>1728</v>
       </c>
       <c r="M540">
-        <v>13.4805923795443050</v>
+        <v>13.4805923795443210</v>
       </c>
       <c r="N540">
-        <v>52.5155536557628437</v>
+        <v>52.5155536557628366</v>
       </c>
     </row>
     <row r="541">
@@ -25735,7 +25735,7 @@
         <v>1731</v>
       </c>
       <c r="M541">
-        <v>13.4514018911847373</v>
+        <v>13.4514018911847515</v>
       </c>
       <c r="N541">
         <v>52.4297953711574038</v>
@@ -25770,10 +25770,10 @@
         <v>1734</v>
       </c>
       <c r="M542">
-        <v>13.6025998785144804</v>
+        <v>13.6025998785144964</v>
       </c>
       <c r="N542">
-        <v>52.5296406058712648</v>
+        <v>52.5296406058712577</v>
       </c>
     </row>
     <row r="543">
@@ -25805,7 +25805,7 @@
         <v>1737</v>
       </c>
       <c r="M543">
-        <v>13.4054438873541102</v>
+        <v>13.4054438873541262</v>
       </c>
       <c r="N543">
         <v>52.4192110817779096</v>
@@ -25846,10 +25846,10 @@
         <v>833</v>
       </c>
       <c r="M544">
-        <v>13.3458115888232758</v>
+        <v>13.3458115888232935</v>
       </c>
       <c r="N544">
-        <v>52.5563734713974497</v>
+        <v>52.5563734713974426</v>
       </c>
     </row>
     <row r="545">
@@ -25881,10 +25881,10 @@
         <v>1743</v>
       </c>
       <c r="M545">
-        <v>13.2979070228258411</v>
+        <v>13.2979070228258571</v>
       </c>
       <c r="N545">
-        <v>52.5164029629930695</v>
+        <v>52.5164029629930624</v>
       </c>
     </row>
     <row r="546">
@@ -25916,7 +25916,7 @@
         <v>1746</v>
       </c>
       <c r="M546">
-        <v>13.4120307457528298</v>
+        <v>13.4120307457528458</v>
       </c>
       <c r="N546">
         <v>52.5351180668123519</v>
@@ -25954,10 +25954,10 @@
         <v>42</v>
       </c>
       <c r="M547">
-        <v>13.4120827556893012</v>
+        <v>13.4120827556893172</v>
       </c>
       <c r="N547">
-        <v>52.5347718518775650</v>
+        <v>52.5347718518775508</v>
       </c>
     </row>
     <row r="548">
@@ -25989,10 +25989,10 @@
         <v>1750</v>
       </c>
       <c r="M548">
-        <v>13.1344328809327262</v>
+        <v>13.1344328809327422</v>
       </c>
       <c r="N548">
-        <v>52.5364600905960231</v>
+        <v>52.5364600905960089</v>
       </c>
     </row>
     <row r="549">
@@ -26027,10 +26027,10 @@
         <v>23</v>
       </c>
       <c r="M549">
-        <v>13.1650117270763669</v>
+        <v>13.1650117270763829</v>
       </c>
       <c r="N549">
-        <v>52.5562284864443470</v>
+        <v>52.5562284864443328</v>
       </c>
     </row>
     <row r="550">
@@ -26062,10 +26062,10 @@
         <v>1755</v>
       </c>
       <c r="M550">
-        <v>13.4406071867995038</v>
+        <v>13.4406071867995216</v>
       </c>
       <c r="N550">
-        <v>52.4592469640271659</v>
+        <v>52.4592469640271517</v>
       </c>
     </row>
     <row r="551">
@@ -26097,10 +26097,10 @@
         <v>1758</v>
       </c>
       <c r="M551">
-        <v>13.3956729548667326</v>
+        <v>13.3956729548667486</v>
       </c>
       <c r="N551">
-        <v>52.5298093572323452</v>
+        <v>52.5298093572323310</v>
       </c>
     </row>
     <row r="552">
@@ -26132,10 +26132,10 @@
         <v>1761</v>
       </c>
       <c r="M552">
-        <v>13.4831819916429296</v>
+        <v>13.4831819916429474</v>
       </c>
       <c r="N552">
-        <v>52.4219308541272966</v>
+        <v>52.4219308541272895</v>
       </c>
     </row>
     <row r="553">
@@ -26167,10 +26167,10 @@
         <v>1765</v>
       </c>
       <c r="M553">
-        <v>13.7030246346934454</v>
+        <v>13.7030246346934614</v>
       </c>
       <c r="N553">
-        <v>52.4336643463395973</v>
+        <v>52.4336643463395831</v>
       </c>
     </row>
     <row r="554">
@@ -26202,7 +26202,7 @@
         <v>1768</v>
       </c>
       <c r="M554">
-        <v>13.5143029814519213</v>
+        <v>13.5143029814519373</v>
       </c>
       <c r="N554">
         <v>52.4549500056356166</v>
@@ -26237,10 +26237,10 @@
         <v>1771</v>
       </c>
       <c r="M555">
-        <v>13.5671925027086324</v>
+        <v>13.5671925027086484</v>
       </c>
       <c r="N555">
-        <v>52.4404570817250288</v>
+        <v>52.4404570817250217</v>
       </c>
     </row>
     <row r="556">
@@ -26272,10 +26272,10 @@
         <v>1774</v>
       </c>
       <c r="M556">
-        <v>13.1860712037984875</v>
+        <v>13.1860712037985053</v>
       </c>
       <c r="N556">
-        <v>52.5111120544215737</v>
+        <v>52.5111120544215595</v>
       </c>
     </row>
     <row r="557">
@@ -26307,10 +26307,10 @@
         <v>1777</v>
       </c>
       <c r="M557">
-        <v>13.3944815891572873</v>
+        <v>13.3944815891573050</v>
       </c>
       <c r="N557">
-        <v>52.5779799501731233</v>
+        <v>52.5779799501731162</v>
       </c>
     </row>
     <row r="558">
@@ -26342,10 +26342,10 @@
         <v>1780</v>
       </c>
       <c r="M558">
-        <v>13.2669998752863734</v>
+        <v>13.2669998752863894</v>
       </c>
       <c r="N558">
-        <v>52.5380784733917707</v>
+        <v>52.5380784733917778</v>
       </c>
     </row>
     <row r="559">
@@ -26377,10 +26377,10 @@
         <v>1783</v>
       </c>
       <c r="M559">
-        <v>13.4925788826994140</v>
+        <v>13.4925788826994300</v>
       </c>
       <c r="N559">
-        <v>52.5686294504110805</v>
+        <v>52.5686294504110663</v>
       </c>
     </row>
     <row r="560">
@@ -26415,7 +26415,7 @@
         <v>23</v>
       </c>
       <c r="M560">
-        <v>13.4178616504122967</v>
+        <v>13.4178616504123127</v>
       </c>
       <c r="N560">
         <v>52.5779566451083511</v>
@@ -26450,10 +26450,10 @@
         <v>1789</v>
       </c>
       <c r="M561">
-        <v>13.4799808006591650</v>
+        <v>13.4799808006591810</v>
       </c>
       <c r="N561">
-        <v>52.5015155766568498</v>
+        <v>52.5015155766568427</v>
       </c>
     </row>
     <row r="562">
@@ -26485,7 +26485,7 @@
         <v>1789</v>
       </c>
       <c r="M562">
-        <v>13.4806092425763850</v>
+        <v>13.4806092425764010</v>
       </c>
       <c r="N562">
         <v>52.5015448482725944</v>
@@ -26523,10 +26523,10 @@
         <v>23</v>
       </c>
       <c r="M563">
-        <v>13.4344742219690687</v>
+        <v>13.4344742219690847</v>
       </c>
       <c r="N563">
-        <v>52.4274145560877969</v>
+        <v>52.4274145560877898</v>
       </c>
     </row>
     <row r="564">
@@ -26558,7 +26558,7 @@
         <v>1796</v>
       </c>
       <c r="M564">
-        <v>13.5239746265500358</v>
+        <v>13.5239746265500518</v>
       </c>
       <c r="N564">
         <v>52.4626720100625192</v>
@@ -26593,10 +26593,10 @@
         <v>1799</v>
       </c>
       <c r="M565">
-        <v>13.4598859586637385</v>
+        <v>13.4598859586637545</v>
       </c>
       <c r="N565">
-        <v>52.5477725506376814</v>
+        <v>52.5477725506376743</v>
       </c>
     </row>
     <row r="566">
@@ -26628,10 +26628,10 @@
         <v>1802</v>
       </c>
       <c r="M566">
-        <v>13.4999241458632149</v>
+        <v>13.4999241458632309</v>
       </c>
       <c r="N566">
-        <v>52.5643159618233966</v>
+        <v>52.5643159618233895</v>
       </c>
     </row>
     <row r="567">
@@ -26666,10 +26666,10 @@
         <v>23</v>
       </c>
       <c r="M567">
-        <v>13.3478456185190488</v>
+        <v>13.3478456185190648</v>
       </c>
       <c r="N567">
-        <v>52.5422937458872212</v>
+        <v>52.5422937458872141</v>
       </c>
     </row>
     <row r="568">
@@ -26701,10 +26701,10 @@
         <v>1808</v>
       </c>
       <c r="M568">
-        <v>13.4732568902064003</v>
+        <v>13.4732568902064163</v>
       </c>
       <c r="N568">
-        <v>52.4670753787348190</v>
+        <v>52.4670753787348048</v>
       </c>
     </row>
     <row r="569">
@@ -26736,7 +26736,7 @@
         <v>1811</v>
       </c>
       <c r="M569">
-        <v>13.5644680325831235</v>
+        <v>13.5644680325831413</v>
       </c>
       <c r="N569">
         <v>52.4391040887324920</v>
@@ -26771,7 +26771,7 @@
         <v>1814</v>
       </c>
       <c r="M570">
-        <v>13.2453658042133533</v>
+        <v>13.2453658042133711</v>
       </c>
       <c r="N570">
         <v>52.5727588918504694</v>
@@ -26806,10 +26806,10 @@
         <v>1817</v>
       </c>
       <c r="M571">
-        <v>13.2645431768611157</v>
+        <v>13.2645431768611335</v>
       </c>
       <c r="N571">
-        <v>52.4224545332709368</v>
+        <v>52.4224545332709155</v>
       </c>
     </row>
     <row r="572">
@@ -26841,10 +26841,10 @@
         <v>1820</v>
       </c>
       <c r="M572">
-        <v>13.5699920171851378</v>
+        <v>13.5699920171851538</v>
       </c>
       <c r="N572">
-        <v>52.5677105315484496</v>
+        <v>52.5677105315484425</v>
       </c>
     </row>
     <row r="573">
@@ -26879,10 +26879,10 @@
         <v>23</v>
       </c>
       <c r="M573">
-        <v>13.4811546234041781</v>
+        <v>13.4811546234041941</v>
       </c>
       <c r="N573">
-        <v>52.5317363652915006</v>
+        <v>52.5317363652914864</v>
       </c>
     </row>
     <row r="574">
@@ -26914,7 +26914,7 @@
         <v>1826</v>
       </c>
       <c r="M574">
-        <v>13.1777824877525056</v>
+        <v>13.1777824877525216</v>
       </c>
       <c r="N574">
         <v>52.5513389224061100</v>
@@ -26949,10 +26949,10 @@
         <v>1829</v>
       </c>
       <c r="M575">
-        <v>13.4349540427317820</v>
+        <v>13.4349540427317979</v>
       </c>
       <c r="N575">
-        <v>52.4669062101059609</v>
+        <v>52.4669062101059538</v>
       </c>
     </row>
     <row r="576">
@@ -26984,7 +26984,7 @@
         <v>1832</v>
       </c>
       <c r="M576">
-        <v>13.3652879835918039</v>
+        <v>13.3652879835918217</v>
       </c>
       <c r="N576">
         <v>52.4139770422368443</v>
@@ -27019,10 +27019,10 @@
         <v>1836</v>
       </c>
       <c r="M577">
-        <v>13.4885234562482559</v>
+        <v>13.4885234562482736</v>
       </c>
       <c r="N577">
-        <v>52.4619520215609398</v>
+        <v>52.4619520215609327</v>
       </c>
     </row>
     <row r="578">
@@ -27054,10 +27054,10 @@
         <v>1839</v>
       </c>
       <c r="M578">
-        <v>13.4669544158121486</v>
+        <v>13.4669544158121646</v>
       </c>
       <c r="N578">
-        <v>52.4718200023489061</v>
+        <v>52.4718200023488990</v>
       </c>
     </row>
     <row r="579">
@@ -27089,10 +27089,10 @@
         <v>1842</v>
       </c>
       <c r="M579">
-        <v>13.4670292890395267</v>
+        <v>13.4670292890395427</v>
       </c>
       <c r="N579">
-        <v>52.5291668815337616</v>
+        <v>52.5291668815337545</v>
       </c>
     </row>
     <row r="580">
@@ -27127,10 +27127,10 @@
         <v>23</v>
       </c>
       <c r="M580">
-        <v>13.4785330671864276</v>
+        <v>13.4785330671864436</v>
       </c>
       <c r="N580">
-        <v>52.4818317520140951</v>
+        <v>52.4818317520140880</v>
       </c>
     </row>
     <row r="581">
@@ -27162,7 +27162,7 @@
         <v>1848</v>
       </c>
       <c r="M581">
-        <v>13.3124535220336266</v>
+        <v>13.3124535220336426</v>
       </c>
       <c r="N581">
         <v>52.5021879972319212</v>
@@ -27197,10 +27197,10 @@
         <v>1851</v>
       </c>
       <c r="M582">
-        <v>13.3568335638785207</v>
+        <v>13.3568335638785367</v>
       </c>
       <c r="N582">
-        <v>52.4940056303069653</v>
+        <v>52.4940056303069724</v>
       </c>
     </row>
     <row r="583">
@@ -27232,10 +27232,10 @@
         <v>1854</v>
       </c>
       <c r="M583">
-        <v>13.4358838200910657</v>
+        <v>13.4358838200910817</v>
       </c>
       <c r="N583">
-        <v>52.5210167200997091</v>
+        <v>52.5210167200997020</v>
       </c>
     </row>
     <row r="584">
@@ -27267,7 +27267,7 @@
         <v>1857</v>
       </c>
       <c r="M584">
-        <v>13.3566003776716204</v>
+        <v>13.3566003776716364</v>
       </c>
       <c r="N584">
         <v>52.4955382081767539</v>
@@ -27302,10 +27302,10 @@
         <v>1860</v>
       </c>
       <c r="M585">
-        <v>13.3223997001556853</v>
+        <v>13.3223997001557031</v>
       </c>
       <c r="N585">
-        <v>52.4695297409935222</v>
+        <v>52.4695297409935293</v>
       </c>
     </row>
     <row r="586">
@@ -27337,10 +27337,10 @@
         <v>1863</v>
       </c>
       <c r="M586">
-        <v>13.3646101052437647</v>
+        <v>13.3646101052437789</v>
       </c>
       <c r="N586">
-        <v>52.4177562440123666</v>
+        <v>52.4177562440123594</v>
       </c>
     </row>
     <row r="587">
@@ -27372,10 +27372,10 @@
         <v>1596</v>
       </c>
       <c r="M587">
-        <v>13.3378185886925849</v>
+        <v>13.3378185886926026</v>
       </c>
       <c r="N587">
-        <v>52.4798672331749145</v>
+        <v>52.4798672331749003</v>
       </c>
     </row>
     <row r="588">
@@ -27407,7 +27407,7 @@
         <v>1868</v>
       </c>
       <c r="M588">
-        <v>13.3048901390837475</v>
+        <v>13.3048901390837635</v>
       </c>
       <c r="N588">
         <v>52.5842181344069175</v>
@@ -27442,7 +27442,7 @@
         <v>1871</v>
       </c>
       <c r="M589">
-        <v>13.2577626658088956</v>
+        <v>13.2577626658089116</v>
       </c>
       <c r="N589">
         <v>52.4192369972920105</v>
@@ -27477,7 +27477,7 @@
         <v>1874</v>
       </c>
       <c r="M590">
-        <v>13.5566936500375999</v>
+        <v>13.5566936500376176</v>
       </c>
       <c r="N590">
         <v>52.5530096631880070</v>
@@ -27512,10 +27512,10 @@
         <v>1877</v>
       </c>
       <c r="M591">
-        <v>13.3561258697514695</v>
+        <v>13.3561258697514855</v>
       </c>
       <c r="N591">
-        <v>52.4843299550429236</v>
+        <v>52.4843299550429094</v>
       </c>
     </row>
     <row r="592">
@@ -27547,10 +27547,10 @@
         <v>1005</v>
       </c>
       <c r="M592">
-        <v>13.3758999685945756</v>
+        <v>13.3758999685945916</v>
       </c>
       <c r="N592">
-        <v>52.4780143298749948</v>
+        <v>52.4780143298749877</v>
       </c>
     </row>
     <row r="593">
@@ -27582,7 +27582,7 @@
         <v>1882</v>
       </c>
       <c r="M593">
-        <v>13.4461590584345529</v>
+        <v>13.4461590584345689</v>
       </c>
       <c r="N593">
         <v>52.5290542070227602</v>
@@ -27617,10 +27617,10 @@
         <v>1885</v>
       </c>
       <c r="M594">
-        <v>13.4761094797220871</v>
+        <v>13.4761094797221048</v>
       </c>
       <c r="N594">
-        <v>52.4928417332952435</v>
+        <v>52.4928417332952364</v>
       </c>
     </row>
     <row r="595">
@@ -27652,10 +27652,10 @@
         <v>1888</v>
       </c>
       <c r="M595">
-        <v>13.4037874944662665</v>
+        <v>13.4037874944662807</v>
       </c>
       <c r="N595">
-        <v>52.3982033578763691</v>
+        <v>52.3982033578763620</v>
       </c>
     </row>
     <row r="596">
@@ -27687,7 +27687,7 @@
         <v>1891</v>
       </c>
       <c r="M596">
-        <v>13.3536560900734766</v>
+        <v>13.3536560900734944</v>
       </c>
       <c r="N596">
         <v>52.5353786923976500</v>
@@ -27722,7 +27722,7 @@
         <v>1894</v>
       </c>
       <c r="M597">
-        <v>13.4267177190189209</v>
+        <v>13.4267177190189368</v>
       </c>
       <c r="N597">
         <v>52.4868733601533179</v>
@@ -27757,7 +27757,7 @@
         <v>1897</v>
       </c>
       <c r="M598">
-        <v>13.4148933187404751</v>
+        <v>13.4148933187404911</v>
       </c>
       <c r="N598">
         <v>52.5467174704584750</v>
@@ -27792,10 +27792,10 @@
         <v>1900</v>
       </c>
       <c r="M599">
-        <v>13.3508433545519782</v>
+        <v>13.3508433545519942</v>
       </c>
       <c r="N599">
-        <v>52.5987402484197304</v>
+        <v>52.5987402484197162</v>
       </c>
     </row>
     <row r="600">
@@ -27827,10 +27827,10 @@
         <v>1903</v>
       </c>
       <c r="M600">
-        <v>13.5601242728364877</v>
+        <v>13.5601242728365037</v>
       </c>
       <c r="N600">
-        <v>52.5579227435581231</v>
+        <v>52.5579227435581160</v>
       </c>
     </row>
     <row r="601">
@@ -27862,10 +27862,10 @@
         <v>1906</v>
       </c>
       <c r="M601">
-        <v>13.3428736391748579</v>
+        <v>13.3428736391748739</v>
       </c>
       <c r="N601">
-        <v>52.5738739095590972</v>
+        <v>52.5738739095590901</v>
       </c>
     </row>
     <row r="602">
@@ -27903,10 +27903,10 @@
         <v>23</v>
       </c>
       <c r="M602">
-        <v>13.3045522806041969</v>
+        <v>13.3045522806042129</v>
       </c>
       <c r="N602">
-        <v>52.5884435424338506</v>
+        <v>52.5884435424338434</v>
       </c>
     </row>
     <row r="603">
@@ -27938,10 +27938,10 @@
         <v>1912</v>
       </c>
       <c r="M603">
-        <v>13.4220582900840082</v>
+        <v>13.4220582900840260</v>
       </c>
       <c r="N603">
-        <v>52.5560337766943704</v>
+        <v>52.5560337766943562</v>
       </c>
     </row>
     <row r="604">
@@ -27973,7 +27973,7 @@
         <v>1915</v>
       </c>
       <c r="M604">
-        <v>13.4839223348754356</v>
+        <v>13.4839223348754516</v>
       </c>
       <c r="N604">
         <v>52.4680179055828759</v>
@@ -28008,10 +28008,10 @@
         <v>1918</v>
       </c>
       <c r="M605">
-        <v>13.4392582873439181</v>
+        <v>13.4392582873439359</v>
       </c>
       <c r="N605">
-        <v>52.5350239987143723</v>
+        <v>52.5350239987143652</v>
       </c>
     </row>
     <row r="606">
@@ -28043,10 +28043,10 @@
         <v>1921</v>
       </c>
       <c r="M606">
-        <v>13.5797793531155850</v>
+        <v>13.5797793531156010</v>
       </c>
       <c r="N606">
-        <v>52.4676319782735590</v>
+        <v>52.4676319782735519</v>
       </c>
     </row>
     <row r="607">
@@ -28078,10 +28078,10 @@
         <v>1924</v>
       </c>
       <c r="M607">
-        <v>13.5803517694794689</v>
+        <v>13.5803517694794849</v>
       </c>
       <c r="N607">
-        <v>52.4858039660903941</v>
+        <v>52.4858039660903870</v>
       </c>
     </row>
     <row r="608">
@@ -28113,10 +28113,10 @@
         <v>1927</v>
       </c>
       <c r="M608">
-        <v>13.4039253989272762</v>
+        <v>13.4039253989272922</v>
       </c>
       <c r="N608">
-        <v>52.3856985900228196</v>
+        <v>52.3856985900228054</v>
       </c>
     </row>
     <row r="609">
@@ -28148,10 +28148,10 @@
         <v>1930</v>
       </c>
       <c r="M609">
-        <v>13.2876041911756815</v>
+        <v>13.2876041911756992</v>
       </c>
       <c r="N609">
-        <v>52.6381854380970040</v>
+        <v>52.6381854380969969</v>
       </c>
     </row>
     <row r="610">
@@ -28183,10 +28183,10 @@
         <v>1933</v>
       </c>
       <c r="M610">
-        <v>13.5389205276886084</v>
+        <v>13.5389205276886262</v>
       </c>
       <c r="N610">
-        <v>52.5362515135283203</v>
+        <v>52.5362515135283132</v>
       </c>
     </row>
     <row r="611">
@@ -28218,7 +28218,7 @@
         <v>1936</v>
       </c>
       <c r="M611">
-        <v>13.5068688907825241</v>
+        <v>13.5068688907825383</v>
       </c>
       <c r="N611">
         <v>52.5679249638346491</v>
@@ -28253,7 +28253,7 @@
         <v>1939</v>
       </c>
       <c r="M612">
-        <v>13.3970734640559943</v>
+        <v>13.3970734640560085</v>
       </c>
       <c r="N612">
         <v>52.5421110161026803</v>
@@ -28288,10 +28288,10 @@
         <v>1943</v>
       </c>
       <c r="M613">
-        <v>13.3384858160858055</v>
+        <v>13.3384858160858215</v>
       </c>
       <c r="N613">
-        <v>52.5270247966812249</v>
+        <v>52.5270247966812107</v>
       </c>
     </row>
     <row r="614">
@@ -28323,10 +28323,10 @@
         <v>831</v>
       </c>
       <c r="M614">
-        <v>13.4491566150160029</v>
+        <v>13.4491566150160207</v>
       </c>
       <c r="N614">
-        <v>52.5405853763521620</v>
+        <v>52.5405853763521549</v>
       </c>
     </row>
     <row r="615">
@@ -28358,7 +28358,7 @@
         <v>1948</v>
       </c>
       <c r="M615">
-        <v>13.2019103014969392</v>
+        <v>13.2019103014969552</v>
       </c>
       <c r="N615">
         <v>52.5380622798109940</v>
@@ -28393,10 +28393,10 @@
         <v>1951</v>
       </c>
       <c r="M616">
-        <v>13.3164361133436131</v>
+        <v>13.3164361133436291</v>
       </c>
       <c r="N616">
-        <v>52.4292765069231024</v>
+        <v>52.4292765069230953</v>
       </c>
     </row>
     <row r="617">
@@ -28428,10 +28428,10 @@
         <v>1612</v>
       </c>
       <c r="M617">
-        <v>13.3213378342660196</v>
+        <v>13.3213378342660373</v>
       </c>
       <c r="N617">
-        <v>52.4752337917430154</v>
+        <v>52.4752337917430083</v>
       </c>
     </row>
     <row r="618">
@@ -28463,7 +28463,7 @@
         <v>1956</v>
       </c>
       <c r="M618">
-        <v>13.5190423087017315</v>
+        <v>13.5190423087017493</v>
       </c>
       <c r="N618">
         <v>52.4656069903266911</v>
@@ -28498,10 +28498,10 @@
         <v>1959</v>
       </c>
       <c r="M619">
-        <v>13.2585752322174351</v>
+        <v>13.2585752322174493</v>
       </c>
       <c r="N619">
-        <v>52.5025170185194128</v>
+        <v>52.5025170185193986</v>
       </c>
     </row>
     <row r="620">
@@ -28533,10 +28533,10 @@
         <v>1962</v>
       </c>
       <c r="M620">
-        <v>13.2555901895697570</v>
+        <v>13.2555901895697748</v>
       </c>
       <c r="N620">
-        <v>52.5033946702123941</v>
+        <v>52.5033946702123870</v>
       </c>
     </row>
     <row r="621">
@@ -28568,7 +28568,7 @@
         <v>1203</v>
       </c>
       <c r="M621">
-        <v>13.4728447554067721</v>
+        <v>13.4728447554067881</v>
       </c>
       <c r="N621">
         <v>52.4272476256190316</v>
@@ -28606,10 +28606,10 @@
         <v>23</v>
       </c>
       <c r="M622">
-        <v>13.4634723791152719</v>
+        <v>13.4634723791152897</v>
       </c>
       <c r="N622">
-        <v>52.4293282702717818</v>
+        <v>52.4293282702717605</v>
       </c>
     </row>
     <row r="623">
@@ -28641,10 +28641,10 @@
         <v>1970</v>
       </c>
       <c r="M623">
-        <v>13.2812132593110448</v>
+        <v>13.2812132593110608</v>
       </c>
       <c r="N623">
-        <v>52.4913286800606400</v>
+        <v>52.4913286800606329</v>
       </c>
     </row>
     <row r="624">
@@ -28676,10 +28676,10 @@
         <v>1973</v>
       </c>
       <c r="M624">
-        <v>13.3637097491969570</v>
+        <v>13.3637097491969730</v>
       </c>
       <c r="N624">
-        <v>52.5469751775711202</v>
+        <v>52.5469751775711131</v>
       </c>
     </row>
     <row r="625">
@@ -28711,7 +28711,7 @@
         <v>1976</v>
       </c>
       <c r="M625">
-        <v>13.5953059738195492</v>
+        <v>13.5953059738195652</v>
       </c>
       <c r="N625">
         <v>52.4284356770622324</v>
@@ -28746,7 +28746,7 @@
         <v>1979</v>
       </c>
       <c r="M626">
-        <v>13.3482070784500291</v>
+        <v>13.3482070784500451</v>
       </c>
       <c r="N626">
         <v>52.4949507979387562</v>
@@ -28781,10 +28781,10 @@
         <v>1982</v>
       </c>
       <c r="M627">
-        <v>13.2116010001291002</v>
+        <v>13.2116010001291162</v>
       </c>
       <c r="N627">
-        <v>52.4320122335410943</v>
+        <v>52.4320122335410872</v>
       </c>
     </row>
     <row r="628">
@@ -28816,10 +28816,10 @@
         <v>1985</v>
       </c>
       <c r="M628">
-        <v>13.4433023203479962</v>
+        <v>13.4433023203480122</v>
       </c>
       <c r="N628">
-        <v>52.4309324790664633</v>
+        <v>52.4309324790664562</v>
       </c>
     </row>
     <row r="629">
@@ -28854,10 +28854,10 @@
         <v>23</v>
       </c>
       <c r="M629">
-        <v>13.2933155735795836</v>
+        <v>13.2933155735795996</v>
       </c>
       <c r="N629">
-        <v>52.6227012520608000</v>
+        <v>52.6227012520607857</v>
       </c>
     </row>
     <row r="630">
@@ -28889,10 +28889,10 @@
         <v>1990</v>
       </c>
       <c r="M630">
-        <v>13.6192418748277024</v>
+        <v>13.6192418748277184</v>
       </c>
       <c r="N630">
-        <v>52.4509484403312243</v>
+        <v>52.4509484403312172</v>
       </c>
     </row>
     <row r="631">
@@ -28924,10 +28924,10 @@
         <v>1993</v>
       </c>
       <c r="M631">
-        <v>13.5813055933174933</v>
+        <v>13.5813055933175111</v>
       </c>
       <c r="N631">
-        <v>52.5529929084338505</v>
+        <v>52.5529929084338434</v>
       </c>
     </row>
     <row r="632">
@@ -28959,7 +28959,7 @@
         <v>1996</v>
       </c>
       <c r="M632">
-        <v>13.3836975979610493</v>
+        <v>13.3836975979610653</v>
       </c>
       <c r="N632">
         <v>52.5572966386343623</v>
@@ -28994,10 +28994,10 @@
         <v>1999</v>
       </c>
       <c r="M633">
-        <v>13.3835130687610135</v>
+        <v>13.3835130687610295</v>
       </c>
       <c r="N633">
-        <v>52.5576035972078230</v>
+        <v>52.5576035972078159</v>
       </c>
     </row>
     <row r="634">
@@ -29032,7 +29032,7 @@
         <v>23</v>
       </c>
       <c r="M634">
-        <v>13.4233385710437787</v>
+        <v>13.4233385710437947</v>
       </c>
       <c r="N634">
         <v>52.5485924833376572</v>
@@ -29067,10 +29067,10 @@
         <v>2005</v>
       </c>
       <c r="M635">
-        <v>13.5507435318341773</v>
+        <v>13.5507435318341933</v>
       </c>
       <c r="N635">
-        <v>52.5332923539900634</v>
+        <v>52.5332923539900563</v>
       </c>
     </row>
     <row r="636">
@@ -29102,10 +29102,10 @@
         <v>2008</v>
       </c>
       <c r="M636">
-        <v>13.3211030550481091</v>
+        <v>13.3211030550481269</v>
       </c>
       <c r="N636">
-        <v>52.4347166149220953</v>
+        <v>52.4347166149220882</v>
       </c>
     </row>
     <row r="637">
@@ -29137,10 +29137,10 @@
         <v>2011</v>
       </c>
       <c r="M637">
-        <v>13.3858041379991572</v>
+        <v>13.3858041379991732</v>
       </c>
       <c r="N637">
-        <v>52.5511874409363600</v>
+        <v>52.5511874409363529</v>
       </c>
     </row>
     <row r="638">
@@ -29172,10 +29172,10 @@
         <v>2014</v>
       </c>
       <c r="M638">
-        <v>13.2610938232393618</v>
+        <v>13.2610938232393796</v>
       </c>
       <c r="N638">
-        <v>52.4547088064883482</v>
+        <v>52.4547088064883411</v>
       </c>
     </row>
     <row r="639">
@@ -29210,7 +29210,7 @@
         <v>23</v>
       </c>
       <c r="M639">
-        <v>13.5965049129851216</v>
+        <v>13.5965049129851376</v>
       </c>
       <c r="N639">
         <v>52.5368194139167528</v>
@@ -29245,7 +29245,7 @@
         <v>2020</v>
       </c>
       <c r="M640">
-        <v>13.1970429445021011</v>
+        <v>13.1970429445021171</v>
       </c>
       <c r="N640">
         <v>52.5456913627039270</v>
@@ -29280,7 +29280,7 @@
         <v>2023</v>
       </c>
       <c r="M641">
-        <v>13.1463637486595140</v>
+        <v>13.1463637486595299</v>
       </c>
       <c r="N641">
         <v>52.5409916069768386</v>
@@ -29315,10 +29315,10 @@
         <v>2026</v>
       </c>
       <c r="M642">
-        <v>13.4650739194613109</v>
+        <v>13.4650739194613287</v>
       </c>
       <c r="N642">
-        <v>52.5091081049951072</v>
+        <v>52.5091081049951001</v>
       </c>
     </row>
     <row r="643">
@@ -29350,7 +29350,7 @@
         <v>2029</v>
       </c>
       <c r="M643">
-        <v>13.2466649461771002</v>
+        <v>13.2466649461771162</v>
       </c>
       <c r="N643">
         <v>52.4454268248801156</v>
@@ -29388,10 +29388,10 @@
         <v>833</v>
       </c>
       <c r="M644">
-        <v>13.4314179862808558</v>
+        <v>13.4314179862808718</v>
       </c>
       <c r="N644">
-        <v>52.4759319576435885</v>
+        <v>52.4759319576435814</v>
       </c>
     </row>
     <row r="645">
@@ -29423,10 +29423,10 @@
         <v>2035</v>
       </c>
       <c r="M645">
-        <v>13.4382739742649484</v>
+        <v>13.4382739742649662</v>
       </c>
       <c r="N645">
-        <v>52.4623337667263527</v>
+        <v>52.4623337667263456</v>
       </c>
     </row>
     <row r="646">
@@ -29461,7 +29461,7 @@
         <v>23</v>
       </c>
       <c r="M646">
-        <v>13.3440800213728590</v>
+        <v>13.3440800213728750</v>
       </c>
       <c r="N646">
         <v>52.4696904686092864</v>
@@ -29499,10 +29499,10 @@
         <v>23</v>
       </c>
       <c r="M647">
-        <v>13.4342914580807324</v>
+        <v>13.4342914580807484</v>
       </c>
       <c r="N647">
-        <v>52.4875859750204867</v>
+        <v>52.4875859750204796</v>
       </c>
     </row>
     <row r="648">
@@ -29534,7 +29534,7 @@
         <v>1431</v>
       </c>
       <c r="M648">
-        <v>13.4322111288265642</v>
+        <v>13.4322111288265802</v>
       </c>
       <c r="N648">
         <v>52.4941574549336494</v>
@@ -29569,10 +29569,10 @@
         <v>2047</v>
       </c>
       <c r="M649">
-        <v>13.4045269782039380</v>
+        <v>13.4045269782039540</v>
       </c>
       <c r="N649">
-        <v>52.3965616495081932</v>
+        <v>52.3965616495081861</v>
       </c>
     </row>
     <row r="650">
@@ -29604,10 +29604,10 @@
         <v>2050</v>
       </c>
       <c r="M650">
-        <v>13.5783560989200183</v>
+        <v>13.5783560989200343</v>
       </c>
       <c r="N650">
-        <v>52.4407611012040604</v>
+        <v>52.4407611012040533</v>
       </c>
     </row>
     <row r="651">
@@ -29639,10 +29639,10 @@
         <v>2053</v>
       </c>
       <c r="M651">
-        <v>13.3082997065409252</v>
+        <v>13.3082997065409412</v>
       </c>
       <c r="N651">
-        <v>52.5169513739261689</v>
+        <v>52.5169513739261546</v>
       </c>
     </row>
     <row r="652">
@@ -29674,7 +29674,7 @@
         <v>2056</v>
       </c>
       <c r="M652">
-        <v>13.5871511394860747</v>
+        <v>13.5871511394860889</v>
       </c>
       <c r="N652">
         <v>52.5427680746193957</v>
@@ -29709,10 +29709,10 @@
         <v>2059</v>
       </c>
       <c r="M653">
-        <v>13.3581294889209889</v>
+        <v>13.3581294889210049</v>
       </c>
       <c r="N653">
-        <v>52.5407175117372987</v>
+        <v>52.5407175117372915</v>
       </c>
     </row>
     <row r="654">
@@ -29744,7 +29744,7 @@
         <v>1036</v>
       </c>
       <c r="M654">
-        <v>13.4574710108433493</v>
+        <v>13.4574710108433653</v>
       </c>
       <c r="N654">
         <v>52.4208154206932235</v>
@@ -29779,10 +29779,10 @@
         <v>1440</v>
       </c>
       <c r="M655">
-        <v>13.3537061375142176</v>
+        <v>13.3537061375142336</v>
       </c>
       <c r="N655">
-        <v>52.5731433566742723</v>
+        <v>52.5731433566742581</v>
       </c>
     </row>
     <row r="656">
@@ -29814,10 +29814,10 @@
         <v>2066</v>
       </c>
       <c r="M656">
-        <v>13.1749194878837201</v>
+        <v>13.1749194878837361</v>
       </c>
       <c r="N656">
-        <v>52.5454118619271426</v>
+        <v>52.5454118619271284</v>
       </c>
     </row>
     <row r="657">
@@ -29849,7 +29849,7 @@
         <v>2069</v>
       </c>
       <c r="M657">
-        <v>13.2465941882772889</v>
+        <v>13.2465941882773048</v>
       </c>
       <c r="N657">
         <v>52.4443748274359010</v>
@@ -29884,10 +29884,10 @@
         <v>2072</v>
       </c>
       <c r="M658">
-        <v>13.4014371037665612</v>
+        <v>13.4014371037665772</v>
       </c>
       <c r="N658">
-        <v>52.4889667295498157</v>
+        <v>52.4889667295498086</v>
       </c>
     </row>
     <row r="659">
@@ -29919,10 +29919,10 @@
         <v>2074</v>
       </c>
       <c r="M659">
-        <v>13.3358703666832366</v>
+        <v>13.3358703666832525</v>
       </c>
       <c r="N659">
-        <v>52.4527280718649607</v>
+        <v>52.4527280718649536</v>
       </c>
     </row>
     <row r="660">
@@ -29954,10 +29954,10 @@
         <v>2077</v>
       </c>
       <c r="M660">
-        <v>13.5041777491095356</v>
+        <v>13.5041777491095516</v>
       </c>
       <c r="N660">
-        <v>52.5545656408629114</v>
+        <v>52.5545656408629043</v>
       </c>
     </row>
     <row r="661">
@@ -29989,10 +29989,10 @@
         <v>2080</v>
       </c>
       <c r="M661">
-        <v>13.3397463684247182</v>
+        <v>13.3397463684247359</v>
       </c>
       <c r="N661">
-        <v>52.5198997392387383</v>
+        <v>52.5198997392387241</v>
       </c>
     </row>
     <row r="662">
@@ -30024,7 +30024,7 @@
         <v>2056</v>
       </c>
       <c r="M662">
-        <v>13.5871511394860747</v>
+        <v>13.5871511394860889</v>
       </c>
       <c r="N662">
         <v>52.5427680746193957</v>
@@ -30059,10 +30059,10 @@
         <v>1440</v>
       </c>
       <c r="M663">
-        <v>13.3537061375142176</v>
+        <v>13.3537061375142336</v>
       </c>
       <c r="N663">
-        <v>52.5731433566742723</v>
+        <v>52.5731433566742581</v>
       </c>
     </row>
     <row r="664">
@@ -30094,10 +30094,10 @@
         <v>2066</v>
       </c>
       <c r="M664">
-        <v>13.1749194878837201</v>
+        <v>13.1749194878837361</v>
       </c>
       <c r="N664">
-        <v>52.5454118619271426</v>
+        <v>52.5454118619271284</v>
       </c>
     </row>
     <row r="665">
@@ -30129,10 +30129,10 @@
         <v>2053</v>
       </c>
       <c r="M665">
-        <v>13.3082997065409252</v>
+        <v>13.3082997065409412</v>
       </c>
       <c r="N665">
-        <v>52.5169513739261689</v>
+        <v>52.5169513739261546</v>
       </c>
     </row>
     <row r="666">
@@ -30164,7 +30164,7 @@
         <v>1431</v>
       </c>
       <c r="M666">
-        <v>13.4322111288265642</v>
+        <v>13.4322111288265802</v>
       </c>
       <c r="N666">
         <v>52.4941574549336494</v>
@@ -30199,7 +30199,7 @@
         <v>2093</v>
       </c>
       <c r="M667">
-        <v>13.4856473582787189</v>
+        <v>13.4856473582787366</v>
       </c>
       <c r="N667">
         <v>52.5095203473536216</v>
@@ -30234,10 +30234,10 @@
         <v>2059</v>
       </c>
       <c r="M668">
-        <v>13.3581294889209889</v>
+        <v>13.3581294889210049</v>
       </c>
       <c r="N668">
-        <v>52.5407175117372987</v>
+        <v>52.5407175117372915</v>
       </c>
     </row>
     <row r="669">
@@ -30269,7 +30269,7 @@
         <v>1036</v>
       </c>
       <c r="M669">
-        <v>13.4574710108433493</v>
+        <v>13.4574710108433653</v>
       </c>
       <c r="N669">
         <v>52.4208154206932235</v>
@@ -30304,10 +30304,10 @@
         <v>2100</v>
       </c>
       <c r="M670">
-        <v>13.3476017363113417</v>
+        <v>13.3476017363113577</v>
       </c>
       <c r="N670">
-        <v>52.4244327413307829</v>
+        <v>52.4244327413307758</v>
       </c>
     </row>
     <row r="671">
@@ -30339,10 +30339,10 @@
         <v>2047</v>
       </c>
       <c r="M671">
-        <v>13.4045269782039380</v>
+        <v>13.4045269782039540</v>
       </c>
       <c r="N671">
-        <v>52.3965616495081932</v>
+        <v>52.3965616495081861</v>
       </c>
     </row>
     <row r="672">
@@ -30374,10 +30374,10 @@
         <v>2050</v>
       </c>
       <c r="M672">
-        <v>13.5783560989200183</v>
+        <v>13.5783560989200343</v>
       </c>
       <c r="N672">
-        <v>52.4407611012040604</v>
+        <v>52.4407611012040533</v>
       </c>
     </row>
     <row r="673">
@@ -30409,10 +30409,10 @@
         <v>2053</v>
       </c>
       <c r="M673">
-        <v>13.3082997065409252</v>
+        <v>13.3082997065409412</v>
       </c>
       <c r="N673">
-        <v>52.5169513739261689</v>
+        <v>52.5169513739261546</v>
       </c>
     </row>
     <row r="674">
@@ -30444,7 +30444,7 @@
         <v>1431</v>
       </c>
       <c r="M674">
-        <v>13.4322111288265642</v>
+        <v>13.4322111288265802</v>
       </c>
       <c r="N674">
         <v>52.4941574549336494</v>
@@ -30479,7 +30479,7 @@
         <v>2093</v>
       </c>
       <c r="M675">
-        <v>13.4856473582787189</v>
+        <v>13.4856473582787366</v>
       </c>
       <c r="N675">
         <v>52.5095203473536216</v>
@@ -30514,10 +30514,10 @@
         <v>2059</v>
       </c>
       <c r="M676">
-        <v>13.3581294889209889</v>
+        <v>13.3581294889210049</v>
       </c>
       <c r="N676">
-        <v>52.5407175117372987</v>
+        <v>52.5407175117372915</v>
       </c>
     </row>
     <row r="677">
@@ -30549,10 +30549,10 @@
         <v>2115</v>
       </c>
       <c r="M677">
-        <v>13.4727949096622730</v>
+        <v>13.4727949096622890</v>
       </c>
       <c r="N677">
-        <v>52.4667942211572935</v>
+        <v>52.4667942211572864</v>
       </c>
     </row>
     <row r="678">
@@ -30584,10 +30584,10 @@
         <v>2100</v>
       </c>
       <c r="M678">
-        <v>13.3476017363113417</v>
+        <v>13.3476017363113577</v>
       </c>
       <c r="N678">
-        <v>52.4244327413307829</v>
+        <v>52.4244327413307758</v>
       </c>
     </row>
     <row r="679">
@@ -30619,10 +30619,10 @@
         <v>2050</v>
       </c>
       <c r="M679">
-        <v>13.5783560989200183</v>
+        <v>13.5783560989200343</v>
       </c>
       <c r="N679">
-        <v>52.4407611012040604</v>
+        <v>52.4407611012040533</v>
       </c>
     </row>
     <row r="680">
@@ -30654,7 +30654,7 @@
         <v>2056</v>
       </c>
       <c r="M680">
-        <v>13.5871511394860747</v>
+        <v>13.5871511394860889</v>
       </c>
       <c r="N680">
         <v>52.5427680746193957</v>
@@ -30689,10 +30689,10 @@
         <v>1440</v>
       </c>
       <c r="M681">
-        <v>13.3537061375142176</v>
+        <v>13.3537061375142336</v>
       </c>
       <c r="N681">
-        <v>52.5731433566742723</v>
+        <v>52.5731433566742581</v>
       </c>
     </row>
     <row r="682">
@@ -30724,10 +30724,10 @@
         <v>2066</v>
       </c>
       <c r="M682">
-        <v>13.1749194878837201</v>
+        <v>13.1749194878837361</v>
       </c>
       <c r="N682">
-        <v>52.5454118619271426</v>
+        <v>52.5454118619271284</v>
       </c>
     </row>
     <row r="683">
@@ -30759,10 +30759,10 @@
         <v>2047</v>
       </c>
       <c r="M683">
-        <v>13.4045269782039380</v>
+        <v>13.4045269782039540</v>
       </c>
       <c r="N683">
-        <v>52.3965616495081932</v>
+        <v>52.3965616495081861</v>
       </c>
     </row>
     <row r="684">
@@ -30794,10 +30794,10 @@
         <v>2130</v>
       </c>
       <c r="M684">
-        <v>13.4678091132711693</v>
+        <v>13.4678091132711870</v>
       </c>
       <c r="N684">
-        <v>52.5127423698530791</v>
+        <v>52.5127423698530720</v>
       </c>
     </row>
     <row r="685">
@@ -30829,10 +30829,10 @@
         <v>2053</v>
       </c>
       <c r="M685">
-        <v>13.3082997065409252</v>
+        <v>13.3082997065409412</v>
       </c>
       <c r="N685">
-        <v>52.5169513739261689</v>
+        <v>52.5169513739261546</v>
       </c>
     </row>
     <row r="686">
@@ -30864,7 +30864,7 @@
         <v>1431</v>
       </c>
       <c r="M686">
-        <v>13.4322111288265642</v>
+        <v>13.4322111288265802</v>
       </c>
       <c r="N686">
         <v>52.4941574549336494</v>
@@ -30899,10 +30899,10 @@
         <v>1440</v>
       </c>
       <c r="M687">
-        <v>13.3537061375142176</v>
+        <v>13.3537061375142336</v>
       </c>
       <c r="N687">
-        <v>52.5731433566742723</v>
+        <v>52.5731433566742581</v>
       </c>
     </row>
     <row r="688">
@@ -30934,7 +30934,7 @@
         <v>1036</v>
       </c>
       <c r="M688">
-        <v>13.4574710108433493</v>
+        <v>13.4574710108433653</v>
       </c>
       <c r="N688">
         <v>52.4208154206932235</v>
@@ -30969,7 +30969,7 @@
         <v>2141</v>
       </c>
       <c r="M689">
-        <v>13.3458887224897946</v>
+        <v>13.3458887224898106</v>
       </c>
       <c r="N689">
         <v>52.4517939784262097</v>
@@ -31004,10 +31004,10 @@
         <v>2050</v>
       </c>
       <c r="M690">
-        <v>13.5783560989200183</v>
+        <v>13.5783560989200343</v>
       </c>
       <c r="N690">
-        <v>52.4407611012040604</v>
+        <v>52.4407611012040533</v>
       </c>
     </row>
     <row r="691">
@@ -31039,7 +31039,7 @@
         <v>2146</v>
       </c>
       <c r="M691">
-        <v>13.4751278706435400</v>
+        <v>13.4751278706435560</v>
       </c>
       <c r="N691">
         <v>52.5517803494353615</v>
@@ -31074,10 +31074,10 @@
         <v>705</v>
       </c>
       <c r="M692">
-        <v>13.4200213540306663</v>
+        <v>13.4200213540306823</v>
       </c>
       <c r="N692">
-        <v>52.5395714901365096</v>
+        <v>52.5395714901365025</v>
       </c>
     </row>
     <row r="693">
@@ -31109,10 +31109,10 @@
         <v>2151</v>
       </c>
       <c r="M693">
-        <v>13.3975710164280066</v>
+        <v>13.3975710164280208</v>
       </c>
       <c r="N693">
-        <v>52.5277973712267254</v>
+        <v>52.5277973712267183</v>
       </c>
     </row>
     <row r="694">
@@ -31144,10 +31144,10 @@
         <v>1786</v>
       </c>
       <c r="M694">
-        <v>13.4177198844693208</v>
+        <v>13.4177198844693368</v>
       </c>
       <c r="N694">
-        <v>52.5782610572014306</v>
+        <v>52.5782610572014235</v>
       </c>
     </row>
     <row r="695">
@@ -31182,10 +31182,10 @@
         <v>23</v>
       </c>
       <c r="M695">
-        <v>13.3020590921971973</v>
+        <v>13.3020590921972151</v>
       </c>
       <c r="N695">
-        <v>52.5020889411374583</v>
+        <v>52.5020889411374512</v>
       </c>
     </row>
     <row r="696">
@@ -31217,7 +31217,7 @@
         <v>1431</v>
       </c>
       <c r="M696">
-        <v>13.4322111288265642</v>
+        <v>13.4322111288265802</v>
       </c>
       <c r="N696">
         <v>52.4941574549336494</v>
@@ -31252,10 +31252,10 @@
         <v>1440</v>
       </c>
       <c r="M697">
-        <v>13.3537061375142176</v>
+        <v>13.3537061375142336</v>
       </c>
       <c r="N697">
-        <v>52.5731433566742723</v>
+        <v>52.5731433566742581</v>
       </c>
     </row>
     <row r="698">
@@ -31287,10 +31287,10 @@
         <v>2053</v>
       </c>
       <c r="M698">
-        <v>13.3082997065409252</v>
+        <v>13.3082997065409412</v>
       </c>
       <c r="N698">
-        <v>52.5169513739261689</v>
+        <v>52.5169513739261546</v>
       </c>
     </row>
     <row r="699">
@@ -31322,7 +31322,7 @@
         <v>2141</v>
       </c>
       <c r="M699">
-        <v>13.3458887224897946</v>
+        <v>13.3458887224898106</v>
       </c>
       <c r="N699">
         <v>52.4517939784262097</v>
@@ -31357,7 +31357,7 @@
         <v>1431</v>
       </c>
       <c r="M700">
-        <v>13.4322111288265642</v>
+        <v>13.4322111288265802</v>
       </c>
       <c r="N700">
         <v>52.4941574549336494</v>
@@ -31392,10 +31392,10 @@
         <v>1440</v>
       </c>
       <c r="M701">
-        <v>13.3537061375142176</v>
+        <v>13.3537061375142336</v>
       </c>
       <c r="N701">
-        <v>52.5731433566742723</v>
+        <v>52.5731433566742581</v>
       </c>
     </row>
     <row r="702">
@@ -31427,7 +31427,7 @@
         <v>2141</v>
       </c>
       <c r="M702">
-        <v>13.3458887224897946</v>
+        <v>13.3458887224898106</v>
       </c>
       <c r="N702">
         <v>52.4517939784262097</v>
@@ -31465,10 +31465,10 @@
         <v>832</v>
       </c>
       <c r="M703">
-        <v>13.3640889308664974</v>
+        <v>13.3640889308665134</v>
       </c>
       <c r="N703">
-        <v>52.4468395469814723</v>
+        <v>52.4468395469814581</v>
       </c>
     </row>
     <row r="704">
@@ -31500,7 +31500,7 @@
         <v>1431</v>
       </c>
       <c r="M704">
-        <v>13.4322111288265642</v>
+        <v>13.4322111288265802</v>
       </c>
       <c r="N704">
         <v>52.4941574549336494</v>
@@ -31535,10 +31535,10 @@
         <v>1440</v>
       </c>
       <c r="M705">
-        <v>13.3537061375142176</v>
+        <v>13.3537061375142336</v>
       </c>
       <c r="N705">
-        <v>52.5731433566742723</v>
+        <v>52.5731433566742581</v>
       </c>
     </row>
     <row r="706">
@@ -31570,7 +31570,7 @@
         <v>2141</v>
       </c>
       <c r="M706">
-        <v>13.3458887224897946</v>
+        <v>13.3458887224898106</v>
       </c>
       <c r="N706">
         <v>52.4517939784262097</v>
@@ -31611,7 +31611,7 @@
         <v>833</v>
       </c>
       <c r="M707">
-        <v>13.4357333205688256</v>
+        <v>13.4357333205688416</v>
       </c>
       <c r="N707">
         <v>52.4996662555628859</v>
@@ -31646,10 +31646,10 @@
         <v>2100</v>
       </c>
       <c r="M708">
-        <v>13.3476017363113417</v>
+        <v>13.3476017363113577</v>
       </c>
       <c r="N708">
-        <v>52.4244327413307829</v>
+        <v>52.4244327413307758</v>
       </c>
     </row>
     <row r="709">
@@ -31681,7 +31681,7 @@
         <v>2187</v>
       </c>
       <c r="M709">
-        <v>13.4322111288265642</v>
+        <v>13.4322111288265802</v>
       </c>
       <c r="N709">
         <v>52.4941574549336494</v>
@@ -31716,7 +31716,7 @@
         <v>2190</v>
       </c>
       <c r="M710">
-        <v>13.4190188837024138</v>
+        <v>13.4190188837024298</v>
       </c>
       <c r="N710">
         <v>52.4943306329284383</v>
